--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7629" uniqueCount="5838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="5865">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -17535,6 +17535,87 @@
   </si>
   <si>
     <t xml:space="preserve">dimabrykov1983@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364321000091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 21 000091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 923 239,20 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КСБ" (ООО "КСБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КСБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143409, ОБЛ МОСКОВСКАЯ 50, Г КРАСНОГОРСК, УЛ ВИЛОРА ТРИФОНОВА, ДОМ 6, ПОМЕЩЕНИЕ IX/ЭТАЖ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 985 998-64-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ksb-kr@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504003484821000287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35040034848 21 000287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">383 463,90 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "РАМЕНСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МОСКОВСКОЙ ОБЛАСТИ "РАМЕНСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Темирханов Мурад Абуназарович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Темирханов Мурад Абуназарови</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-000-0000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500313844722000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003138447 22 000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 600,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ГРУППА Р - ЦЕНТР" (ООО ЧОО "ГРУППА Р - ЦЕНТР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧОО "ГРУППА Р - ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141407, ОБЛ МОСКОВСКАЯ 50, Г ХИМКИ, УЛ ПАНФИЛОВА, ВЛАДЕНИЕ 19, СТРОЕНИЕ 4, ОФИС 227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-2835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aea101.a@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -17697,10 +17778,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q639"/>
+  <dimension ref="A1:Q643"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A598" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A635" activeCellId="0" sqref="635:635"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A601" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A640" activeCellId="0" sqref="640:640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48842,6 +48923,170 @@
         <v>5837</v>
       </c>
     </row>
+    <row r="640" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="6" t="n">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="1" t="s">
+        <v>5838</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>5839</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>4287</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="H641" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J641" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K641" s="1" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L641" s="1" t="s">
+        <v>5842</v>
+      </c>
+      <c r="M641" s="1" t="s">
+        <v>5843</v>
+      </c>
+      <c r="N641" s="1" t="n">
+        <v>5024160764</v>
+      </c>
+      <c r="O641" s="1" t="s">
+        <v>5844</v>
+      </c>
+      <c r="P641" s="1" t="s">
+        <v>5845</v>
+      </c>
+      <c r="Q641" s="1" t="s">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="1" t="s">
+        <v>5847</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>5848</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="H642" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="I642" s="1" t="s">
+        <v>5851</v>
+      </c>
+      <c r="J642" s="1" t="s">
+        <v>5852</v>
+      </c>
+      <c r="K642" s="1" t="n">
+        <v>5040175486</v>
+      </c>
+      <c r="L642" s="1" t="s">
+        <v>5853</v>
+      </c>
+      <c r="M642" s="1" t="s">
+        <v>5854</v>
+      </c>
+      <c r="N642" s="1" t="n">
+        <v>56210132599</v>
+      </c>
+      <c r="O642" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="P642" s="1" t="s">
+        <v>5855</v>
+      </c>
+      <c r="Q642" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="1" t="s">
+        <v>5856</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>5857</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>4746</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H643" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J643" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="K643" s="1" t="n">
+        <v>5003138447</v>
+      </c>
+      <c r="L643" s="1" t="s">
+        <v>5860</v>
+      </c>
+      <c r="M643" s="1" t="s">
+        <v>5861</v>
+      </c>
+      <c r="N643" s="1" t="n">
+        <v>5047137190</v>
+      </c>
+      <c r="O643" s="1" t="s">
+        <v>5862</v>
+      </c>
+      <c r="P643" s="1" t="s">
+        <v>5863</v>
+      </c>
+      <c r="Q643" s="1" t="s">
+        <v>5864</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="5865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7719" uniqueCount="5899">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -17616,6 +17616,108 @@
   </si>
   <si>
     <t xml:space="preserve">aea101.a@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770377127121000068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17703771271 21 000068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 112 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНИСТЕРСТВО СПОРТА РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНСПОРТ РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙКИТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙКИТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙКИТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108841, Г. МОСКВА 77, Г. Троицк, ПЛ. АКАДЕМИЧЕСКАЯ, Д. 4, ЭТАЖ 18 ОФИС А5С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-5564107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooostroykit@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772826457020000234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728264570 20 000234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 094 176,37 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.06.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.09.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.06.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "МОСКОВСКИЙ УНИВЕРСИТЕТ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ ИМЕНИ В.Я. КИКОТЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОСКОВСКИЙ УНИВЕРСИТЕТ МВД РОССИИ ИМЕНИ В.Я. КИКОТЯ, МОСУ МВД РОССИИ ИМЕНИ В.Я. КИКОТЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АСТОН" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АСТОН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АСТОН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115280, Г МОСКВА, УЛ АВТОЗАВОДСКАЯ, ДОМ 1, ЭТ 3 ПОМ 13 ОФИС 312-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-8211067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aston12@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771433860921009487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27714338609 21 009487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 833,60 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САВЁЛОВА ОКСАНА ВИКТОРОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП САВЁЛОВА ОКСАНА ВИКТОРОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ САРАТОВСКАЯ 64, Г САРАТОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (937) 225-59-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oksanavik79@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -17778,10 +17880,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q643"/>
+  <dimension ref="A1:Q647"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A601" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A640" activeCellId="0" sqref="640:640"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A608" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A644" activeCellId="0" sqref="644:644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49087,6 +49189,170 @@
         <v>5864</v>
       </c>
     </row>
+    <row r="644" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="6" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="1" t="s">
+        <v>5865</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>5866</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>4755</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="H645" s="1" t="s">
+        <v>4847</v>
+      </c>
+      <c r="I645" s="1" t="s">
+        <v>5869</v>
+      </c>
+      <c r="J645" s="1" t="s">
+        <v>5870</v>
+      </c>
+      <c r="K645" s="1" t="n">
+        <v>7703771271</v>
+      </c>
+      <c r="L645" s="1" t="s">
+        <v>5871</v>
+      </c>
+      <c r="M645" s="1" t="s">
+        <v>5872</v>
+      </c>
+      <c r="N645" s="1" t="n">
+        <v>7751088315</v>
+      </c>
+      <c r="O645" s="1" t="s">
+        <v>5873</v>
+      </c>
+      <c r="P645" s="1" t="s">
+        <v>5874</v>
+      </c>
+      <c r="Q645" s="1" t="s">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="1" t="s">
+        <v>5876</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>5877</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>5880</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>5881</v>
+      </c>
+      <c r="G646" s="1" t="s">
+        <v>5882</v>
+      </c>
+      <c r="H646" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="I646" s="1" t="s">
+        <v>5883</v>
+      </c>
+      <c r="J646" s="1" t="s">
+        <v>5884</v>
+      </c>
+      <c r="K646" s="1" t="n">
+        <v>7728264570</v>
+      </c>
+      <c r="L646" s="1" t="s">
+        <v>5885</v>
+      </c>
+      <c r="M646" s="1" t="s">
+        <v>5886</v>
+      </c>
+      <c r="N646" s="1" t="n">
+        <v>7725772737</v>
+      </c>
+      <c r="O646" s="1" t="s">
+        <v>5887</v>
+      </c>
+      <c r="P646" s="1" t="s">
+        <v>5888</v>
+      </c>
+      <c r="Q646" s="1" t="s">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="1" t="s">
+        <v>5890</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>5891</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>5036</v>
+      </c>
+      <c r="H647" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="I647" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="J647" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="K647" s="1" t="n">
+        <v>7714338609</v>
+      </c>
+      <c r="L647" s="1" t="s">
+        <v>5894</v>
+      </c>
+      <c r="M647" s="1" t="s">
+        <v>5895</v>
+      </c>
+      <c r="N647" s="1" t="n">
+        <v>645300840724</v>
+      </c>
+      <c r="O647" s="1" t="s">
+        <v>5896</v>
+      </c>
+      <c r="P647" s="1" t="s">
+        <v>5897</v>
+      </c>
+      <c r="Q647" s="1" t="s">
+        <v>5898</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7719" uniqueCount="5899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7824" uniqueCount="5970">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -17718,6 +17718,219 @@
   </si>
   <si>
     <t xml:space="preserve">oksanavik79@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770302273022000013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17703022730 22 000013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 989,15 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "РОССИЙСКИЙ ИНСТИТУТ ТЕАТРАЛЬНОГО ИСКУССТВА - ГИТИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОССИЙСКИЙ ИНСТИТУТ ТЕАТРАЛЬНОГО ИСКУССТВА - ГИТИС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АУРА ВИВИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АУРА ВИВИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620110, - СВЕРДЛОВСКАЯ 66, - Екатеринбург, - ЧКАЛОВА, Д. 250, ПОМЕЩ. 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502903736222000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35029037362 22 000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 417 569,96 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "МЫТИЩИНСКАЯ ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "МГКБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УК РЕГИОН" (ООО "УК РЕГИОН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "УК РЕГИОН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141002, ОБЛ МОСКОВСКАЯ 50, Г МЫТИЩИ, УЛ КОЛПАКОВА, ДОМ 2, КОРПУС 13, ОФИС 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7439968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk@reg-ion.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504200962121000248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35042009621 21 000248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">850 184,90 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "СЕРГИЕВО-ПОСАДСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "СЕРГИЕВО-ПОСАДСКАЯ РБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПАРТНЕР" (ООО "ПАРТНЕР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620102, ОБЛ СВЕРДЛОВСКАЯ 66, Г ЕКАТЕРИНБУРГ, УЛ БЕЛОРЕЧЕНСКАЯ, ДОМ 28А, ПОМЕЩЕНИЕ 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-950-5437522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ekbpartner@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773411103521000505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734111035 21 000505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 570 800,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНТЕГРАЛ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНТЕГРАЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195265, Г. САНКТ-ПЕТЕРБУРГ 78, УЛ. ЧЕРКАСОВА, Д. 3, ЛИТЕРА А, КВ. 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-977-0001324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integralooo97@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504702469421000245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15047024694 21 000245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 474 950,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АКТИВ+" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АКТИВ+")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АКТИВ+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">625051, ОБЛ ТЮМЕНСКАЯ 72, Г ТЮМЕНЬ, УЛ 30 ЛЕТ ПОБЕДЫ, ДОМ 77, ОФИС 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-922-5797489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aktivplus2017@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500302164022000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25003021640 22 000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 733 236,22 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 1392 ИМЕНИ Д.В. РЯБИНКИНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 1392 ИМ. Д.В. РЯБИНКИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОНСОВИЧ НАТАЛЬЯ ЮРЬЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ВОНСОВИЧ НАТАЛЬЯ ЮРЬЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Москва 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 315-67-98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gzaspekt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1507500346320000021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15075003463 20 000021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 500,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОТДЕЛ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ ПО РУЗСКОМУ ГОРОДСКОМУ ОКРУГУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОМВД РОССИИ ПО РУЗСКОМУ ГОРОДСКОМУ ОКРУГУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭТАЛОН ПРОЕКТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭТАЛОН ПРОЕКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭТАЛОН ПРОЕКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109028 г. Москва, ул. Солянка 1214 офис 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-964-6415217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etalonproect@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -17880,10 +18093,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q647"/>
+  <dimension ref="A1:Q656"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A608" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A644" activeCellId="0" sqref="644:644"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A620" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A653" activeCellId="0" sqref="A653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49353,6 +49566,387 @@
         <v>5898</v>
       </c>
     </row>
+    <row r="648" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="6" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="1" t="s">
+        <v>5899</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G649" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="H649" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="I649" s="1" t="s">
+        <v>5903</v>
+      </c>
+      <c r="J649" s="1" t="s">
+        <v>5904</v>
+      </c>
+      <c r="K649" s="1" t="n">
+        <v>7703022730</v>
+      </c>
+      <c r="L649" s="1" t="s">
+        <v>5905</v>
+      </c>
+      <c r="M649" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="N649" s="1" t="n">
+        <v>6671165474</v>
+      </c>
+      <c r="O649" s="1" t="s">
+        <v>5906</v>
+      </c>
+      <c r="P649" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="Q649" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="1" t="s">
+        <v>5907</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>5908</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>4746</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H650" s="1" t="s">
+        <v>4746</v>
+      </c>
+      <c r="I650" s="1" t="s">
+        <v>5911</v>
+      </c>
+      <c r="J650" s="1" t="s">
+        <v>5912</v>
+      </c>
+      <c r="K650" s="1" t="n">
+        <v>5029037362</v>
+      </c>
+      <c r="L650" s="1" t="s">
+        <v>5913</v>
+      </c>
+      <c r="M650" s="1" t="s">
+        <v>5914</v>
+      </c>
+      <c r="N650" s="1" t="n">
+        <v>5029222333</v>
+      </c>
+      <c r="O650" s="1" t="s">
+        <v>5915</v>
+      </c>
+      <c r="P650" s="1" t="s">
+        <v>5916</v>
+      </c>
+      <c r="Q650" s="1" t="s">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="1" t="s">
+        <v>5918</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>5919</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>5921</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="H651" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="I651" s="1" t="s">
+        <v>5922</v>
+      </c>
+      <c r="J651" s="1" t="s">
+        <v>5923</v>
+      </c>
+      <c r="K651" s="1" t="n">
+        <v>5042009621</v>
+      </c>
+      <c r="L651" s="1" t="s">
+        <v>5924</v>
+      </c>
+      <c r="M651" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="N651" s="1" t="n">
+        <v>6670118295</v>
+      </c>
+      <c r="O651" s="1" t="s">
+        <v>5925</v>
+      </c>
+      <c r="P651" s="1" t="s">
+        <v>5926</v>
+      </c>
+      <c r="Q651" s="1" t="s">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="1" t="s">
+        <v>5928</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>5929</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>5760</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H652" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I652" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J652" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K652" s="1" t="n">
+        <v>7734111035</v>
+      </c>
+      <c r="L652" s="1" t="s">
+        <v>5932</v>
+      </c>
+      <c r="M652" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="N652" s="1" t="n">
+        <v>7806565753</v>
+      </c>
+      <c r="O652" s="1" t="s">
+        <v>5933</v>
+      </c>
+      <c r="P652" s="1" t="s">
+        <v>5934</v>
+      </c>
+      <c r="Q652" s="1" t="s">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="653" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="6" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="0" t="s">
+        <v>5936</v>
+      </c>
+      <c r="B654" s="0" t="s">
+        <v>5937</v>
+      </c>
+      <c r="C654" s="0" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D654" s="0" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E654" s="0" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F654" s="0" t="s">
+        <v>3869</v>
+      </c>
+      <c r="G654" s="0" t="s">
+        <v>4095</v>
+      </c>
+      <c r="H654" s="0" t="s">
+        <v>3122</v>
+      </c>
+      <c r="I654" s="0" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J654" s="0" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K654" s="0" t="n">
+        <v>5047024694</v>
+      </c>
+      <c r="L654" s="0" t="s">
+        <v>5940</v>
+      </c>
+      <c r="M654" s="0" t="s">
+        <v>5941</v>
+      </c>
+      <c r="N654" s="0" t="n">
+        <v>7203419431</v>
+      </c>
+      <c r="O654" s="0" t="s">
+        <v>5942</v>
+      </c>
+      <c r="P654" s="0" t="s">
+        <v>5943</v>
+      </c>
+      <c r="Q654" s="0" t="s">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="0" t="s">
+        <v>5945</v>
+      </c>
+      <c r="B655" s="0" t="s">
+        <v>5946</v>
+      </c>
+      <c r="C655" s="0" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D655" s="0" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E655" s="0" t="s">
+        <v>4541</v>
+      </c>
+      <c r="F655" s="0" t="s">
+        <v>4711</v>
+      </c>
+      <c r="G655" s="0" t="s">
+        <v>4541</v>
+      </c>
+      <c r="H655" s="0" t="s">
+        <v>5949</v>
+      </c>
+      <c r="I655" s="0" t="s">
+        <v>5950</v>
+      </c>
+      <c r="J655" s="0" t="s">
+        <v>5951</v>
+      </c>
+      <c r="K655" s="0" t="n">
+        <v>5003021640</v>
+      </c>
+      <c r="L655" s="0" t="s">
+        <v>5952</v>
+      </c>
+      <c r="M655" s="0" t="s">
+        <v>5953</v>
+      </c>
+      <c r="N655" s="0" t="n">
+        <v>150200719291</v>
+      </c>
+      <c r="O655" s="0" t="s">
+        <v>5954</v>
+      </c>
+      <c r="P655" s="0" t="s">
+        <v>5955</v>
+      </c>
+      <c r="Q655" s="0" t="s">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="0" t="s">
+        <v>5957</v>
+      </c>
+      <c r="B656" s="0" t="s">
+        <v>5958</v>
+      </c>
+      <c r="C656" s="0" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D656" s="0" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E656" s="0" t="s">
+        <v>5961</v>
+      </c>
+      <c r="F656" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G656" s="0" t="s">
+        <v>5962</v>
+      </c>
+      <c r="H656" s="0" t="s">
+        <v>4213</v>
+      </c>
+      <c r="I656" s="0" t="s">
+        <v>5963</v>
+      </c>
+      <c r="J656" s="0" t="s">
+        <v>5964</v>
+      </c>
+      <c r="K656" s="0" t="n">
+        <v>5075003463</v>
+      </c>
+      <c r="L656" s="0" t="s">
+        <v>5965</v>
+      </c>
+      <c r="M656" s="0" t="s">
+        <v>5966</v>
+      </c>
+      <c r="N656" s="0" t="n">
+        <v>9731019028</v>
+      </c>
+      <c r="O656" s="0" t="s">
+        <v>5967</v>
+      </c>
+      <c r="P656" s="0" t="s">
+        <v>5968</v>
+      </c>
+      <c r="Q656" s="0" t="s">
+        <v>5969</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7824" uniqueCount="5970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8078" uniqueCount="6149">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -17931,6 +17931,543 @@
   </si>
   <si>
     <t xml:space="preserve">etalonproect@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502203433021000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35022034330 21 000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 569 168,34 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ИСТОРИКО-КУЛЬТУРНЫЙ МУЗЕЙ-ЗАПОВЕДНИК "КОЛОМЕНСКИЙ КРЕМЛЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ МУЗЕЙ-ЗАПОВЕДНИК  "КОЛОМЕНСКИЙ КРЕМЛЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АПМ "ЭКЛЕКТИКА" (ООО "АПМ "ЭКЛЕКТИКА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АПМ "ЭКЛЕКТИКА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420111, РЕСП ТАТАРСТАН 16, Г КАЗАНЬ, УЛ КАВИ НАДЖМИ, ДОМ 5, ПОМЕЩЕНИЕ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-917-9135834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apm.eklektika@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503107028622000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25031070286 22 000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 905 454 414,17 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГЕОСИНТЕТИКА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГЕОСИНТЕТИКА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГЕОСИНТЕТИКА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">663091, КРАЙ КРАСНОЯРСКИЙ 24, Г ДИВНОГОРСК, ТЕР ЗАПАДНЫЙ ПРОМЫШЛЕННЫЙ РАЙОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-391-2695715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geosint2016@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503204807521000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15032048075 21 000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180 313,80 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КЛИНИНГ МАСТЕР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КЛИНИНГ МАСТЕР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КЛИНИНГ МАСТЕР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129343, Г. МОСКВА 77, УЛ. УРЖУМСКАЯ, Д. 7, ЭТАЖ/КОМНАТА ПОДВАЛ№0/34 ОФИС 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7964520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alexkultura@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503614571421000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25036145714 21 000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 273 108,30 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "ЦЕНТР ВЫЗОВА ЭКСТРЕННЫХ ОПЕРАТИВНЫХ СЛУЖБ ПО ЕДИНОМУ НОМЕРУ "112"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ МО "ЦЕНТР 112"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТРОГАНОВ ВИКТОР СЕРГЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП СТРОГАНОВ ВИКТОР СЕРГЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г МОЖАЙСК, Д ХРАБРОВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-999-8523292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor10025@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772470742122000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17724707421 22 000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 985 406,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ГОСУДАРСТВЕННЫЙ НАУЧНЫЙ ЦЕНТР "ИНСТИТУТ ИММУНОЛОГИИ" ФЕДЕРАЛЬНОГО МЕДИКО-БИОЛОГИЧЕСКОГО АГЕНТСТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ГНЦ ИНСТИТУТ ИММУНОЛОГИИ" ФМБА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СКРЕБОВА АННА СЕРГЕЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП СКРЕБОВА АННА СЕРГЕЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Город Москва 77, Поселение Десеновское</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-951-9815492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66655518@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504305544421000084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35043055444 21 000084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 723 864,64 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "КОМИТЕТ ПО БЛАГОУСТРОЙСТВУ ГОРОДСКОГО ОКРУГА СЕРПУХОВ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "КОМИТЕТ ПО БЛАГОУСТРОЙСТВУ ГОРОДСКОГО ОКРУГА СЕРПУХОВ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКОСТРИМ" (ООО "ЭКОСТРИМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭКОСТРИМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652740, ОБЛ КЕМЕРОВСКАЯ ОБЛАСТЬ - КУЗБАСС 42, Г КАЛТАН, УЛ КОМСОМОЛЬСКАЯ, РАЙОН ДОМА 12/1, ОФИС 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-930-4242322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oooekostrim@yandex.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771003633221000168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17710036332 21 000168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 472,73 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ПО ЭКСПЛУАТАЦИИ ЗДАНИЙ ВЫСШИХ ОРГАНОВ ВЛАСТИ" УПРАВЛЕНИЯ ДЕЛАМИ ПРЕЗИДЕНТА РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "УПРАВЛЕНИЕ ПО ЭКСПЛУАТАЦИИ ЗДАНИЙ ВЫСШИХ ОРГАНОВ ВЛАСТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИННОВАЦИОННЫЕ ТЕХНОЛОГИИ ИНЖЕНЕРНЫХ СИСТЕМ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИННОВАЦИОННЫЕ ТЕХНОЛОГИИ ИНЖЕНЕРНЫХ СИСТЕМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИННОВАЦИОННЫЕ ТЕХНОЛОГИИ ИНЖЕНЕРНЫХ СИСТЕМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400074, ОБЛ ВОЛГОГРАДСКАЯ 34, Г ВОЛГОГРАД, УЛ ИМ. ОГАРЕВА, ДОМ 1, ОФИС 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-917-3322403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itis-34@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500104093621000198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25001040936 21 000198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 101 739,84 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "МОСКОВСКИЙ ОБЛАСТНОЙ ПЕРИНАТАЛЬНЫЙ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "МОПЦ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "ЛАБКВЕСТ" (АО "ЛАБКВЕСТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "ЛАБКВЕСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121059, Г МОСКВА 77, НАБ БЕРЕЖКОВСКАЯ, ДОМ 20, СТРОЕНИЕ 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-6538380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akopyan@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502420034321000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024200343 21 000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 000 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОЧИСТКА РЕК" (ООО "ОЧИСТКА РЕК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ОЧИСТКА РЕК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127030, Г. МОСКВА 77, УЛ. СУЩЁВСКАЯ, Д. 27, СТР. 2, ЭТАЖ/ПОМЕЩ. 3/III КОМ./ОФИС 3/36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-1080707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2775150549522000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27751505495 22 000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 418 248,34 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОСТРАНС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОСТРАНС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МОСТРАНС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115304, - МОСКВА 77, - КАСПИЙСКАЯ, Д. 22, К. 1 СТР. 5, ЭТАЖ/ПОМЕЩ. 5/9 КОМ./ОФИС 17/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-6277277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostrans2020@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771510713922000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17715107139 22 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 640 255,51 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ЦЕНТРАЛЬНАЯ МЕДИКО-САНИТАРНАЯ ЧАСТЬ № 119 ФЕДЕРАЛЬНОГО МЕДИКО-БИОЛОГИЧЕСКОГО АГЕНТСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУЗ ЦМСЧ № 119 ФМБА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солуданов Дмитрий ЮрьевичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Солуданов Дмитрий Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ КРАСНОДАРСКИЙ 23, Г ГЕЛЕНДЖИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283108tmn@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770406090821000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704060908 21 000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 061 219,87 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ "ГОСУДАРСТВЕННЫЙ ИСТОРИЧЕСКИЙ МУЗЕЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИСТОРИЧЕСКИЙ МУЗЕЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНТЕРСТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНТЕРСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИНТЕРСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121087, Г. МОСКВА 77, УЛ. БАРКЛАЯ, Д. 6, СТР. 5, ЭТАЖ 3 КОМ. 24Е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-915-4010870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interstroy2015@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771409779120000769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27714097791 20 000769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 752,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одинцовское управление социальной защиты населения Министерства социального развития Московской области</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одинцовское УСЗН Минсоцразвития МО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вострова Татьяна НиколаевнаИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Вострова Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143302, Московская область, г. Наро-Фоминск, ул. Войкова, д.5 кв. 256.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-985-7849807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parshinsi@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773008740922000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17730087409 22 000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 695 980,64 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АДЪЮТАНТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АДЪЮТАНТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АДЪЮТАНТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129366, Г МОСКВА 77, УЛ ЯРОСЛАВСКАЯ, ДОМ 21А, ЭТАЖ 3 ПОМ 22А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-985-1355626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adutant@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772407516221001406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17724075162 21 001406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 787 023,69 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬЯНССТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬЯНССТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛЬЯНССТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125315, Г. МОСКВА 77, ПР-Д БОЛЬШОЙ КОПТЕВСКИЙ, Д. 3, СТР. 1, ПОМЕЩ. V КОМ. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-2130502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as77.17@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772237786621000186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722377866 21 000186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76 181 537,25 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНАЯ СЛУЖБА ВОЙСК НАЦИОНАЛЬНОЙ ГВАРДИИ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОСГВАРДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВАККО" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВАККО")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВАККО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127566, Г МОСКВА 77, Ш АЛТУФЬЕВСКОЕ, ДОМ 44, ЭТ 9 ПОМ XV КОМ 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-901-7254355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.v.panin@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502000770121000113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35020007701 21 000113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 704 957,69 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА КЛИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕНКИН АЛЕКСАНДР НИКОЛАЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ПЕНКИН АЛЕКСАНДР НИКОЛАЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-863-4619617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tgnrg2010@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -18093,10 +18630,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q656"/>
+  <dimension ref="A1:Q675"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A620" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A653" activeCellId="0" sqref="A653"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A641" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A667" activeCellId="0" sqref="A667:Q675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49789,162 +50326,1071 @@
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="0" t="s">
+      <c r="A654" s="11" t="s">
         <v>5936</v>
       </c>
-      <c r="B654" s="0" t="s">
+      <c r="B654" s="11" t="s">
         <v>5937</v>
       </c>
-      <c r="C654" s="0" t="s">
+      <c r="C654" s="11" t="s">
         <v>5938</v>
       </c>
-      <c r="D654" s="0" t="s">
+      <c r="D654" s="11" t="s">
         <v>5939</v>
       </c>
-      <c r="E654" s="0" t="s">
+      <c r="E654" s="11" t="s">
         <v>2083</v>
       </c>
-      <c r="F654" s="0" t="s">
+      <c r="F654" s="11" t="s">
         <v>3869</v>
       </c>
-      <c r="G654" s="0" t="s">
+      <c r="G654" s="11" t="s">
         <v>4095</v>
       </c>
-      <c r="H654" s="0" t="s">
+      <c r="H654" s="11" t="s">
         <v>3122</v>
       </c>
-      <c r="I654" s="0" t="s">
+      <c r="I654" s="11" t="s">
         <v>3042</v>
       </c>
-      <c r="J654" s="0" t="s">
+      <c r="J654" s="11" t="s">
         <v>3043</v>
       </c>
-      <c r="K654" s="0" t="n">
+      <c r="K654" s="11" t="n">
         <v>5047024694</v>
       </c>
-      <c r="L654" s="0" t="s">
+      <c r="L654" s="11" t="s">
         <v>5940</v>
       </c>
-      <c r="M654" s="0" t="s">
+      <c r="M654" s="11" t="s">
         <v>5941</v>
       </c>
-      <c r="N654" s="0" t="n">
+      <c r="N654" s="11" t="n">
         <v>7203419431</v>
       </c>
-      <c r="O654" s="0" t="s">
+      <c r="O654" s="11" t="s">
         <v>5942</v>
       </c>
-      <c r="P654" s="0" t="s">
+      <c r="P654" s="11" t="s">
         <v>5943</v>
       </c>
-      <c r="Q654" s="0" t="s">
+      <c r="Q654" s="11" t="s">
         <v>5944</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="0" t="s">
+      <c r="A655" s="11" t="s">
         <v>5945</v>
       </c>
-      <c r="B655" s="0" t="s">
+      <c r="B655" s="11" t="s">
         <v>5946</v>
       </c>
-      <c r="C655" s="0" t="s">
+      <c r="C655" s="11" t="s">
         <v>5947</v>
       </c>
-      <c r="D655" s="0" t="s">
+      <c r="D655" s="11" t="s">
         <v>5948</v>
       </c>
-      <c r="E655" s="0" t="s">
+      <c r="E655" s="11" t="s">
         <v>4541</v>
       </c>
-      <c r="F655" s="0" t="s">
+      <c r="F655" s="11" t="s">
         <v>4711</v>
       </c>
-      <c r="G655" s="0" t="s">
+      <c r="G655" s="11" t="s">
         <v>4541</v>
       </c>
-      <c r="H655" s="0" t="s">
+      <c r="H655" s="11" t="s">
         <v>5949</v>
       </c>
-      <c r="I655" s="0" t="s">
+      <c r="I655" s="11" t="s">
         <v>5950</v>
       </c>
-      <c r="J655" s="0" t="s">
+      <c r="J655" s="11" t="s">
         <v>5951</v>
       </c>
-      <c r="K655" s="0" t="n">
+      <c r="K655" s="11" t="n">
         <v>5003021640</v>
       </c>
-      <c r="L655" s="0" t="s">
+      <c r="L655" s="11" t="s">
         <v>5952</v>
       </c>
-      <c r="M655" s="0" t="s">
+      <c r="M655" s="11" t="s">
         <v>5953</v>
       </c>
-      <c r="N655" s="0" t="n">
+      <c r="N655" s="11" t="n">
         <v>150200719291</v>
       </c>
-      <c r="O655" s="0" t="s">
+      <c r="O655" s="11" t="s">
         <v>5954</v>
       </c>
-      <c r="P655" s="0" t="s">
+      <c r="P655" s="11" t="s">
         <v>5955</v>
       </c>
-      <c r="Q655" s="0" t="s">
+      <c r="Q655" s="11" t="s">
         <v>5956</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="0" t="s">
+      <c r="A656" s="11" t="s">
         <v>5957</v>
       </c>
-      <c r="B656" s="0" t="s">
+      <c r="B656" s="11" t="s">
         <v>5958</v>
       </c>
-      <c r="C656" s="0" t="s">
+      <c r="C656" s="11" t="s">
         <v>5959</v>
       </c>
-      <c r="D656" s="0" t="s">
+      <c r="D656" s="11" t="s">
         <v>5960</v>
       </c>
-      <c r="E656" s="0" t="s">
+      <c r="E656" s="11" t="s">
         <v>5961</v>
       </c>
-      <c r="F656" s="0" t="s">
+      <c r="F656" s="11" t="s">
         <v>2173</v>
       </c>
-      <c r="G656" s="0" t="s">
+      <c r="G656" s="11" t="s">
         <v>5962</v>
       </c>
-      <c r="H656" s="0" t="s">
+      <c r="H656" s="11" t="s">
         <v>4213</v>
       </c>
-      <c r="I656" s="0" t="s">
+      <c r="I656" s="11" t="s">
         <v>5963</v>
       </c>
-      <c r="J656" s="0" t="s">
+      <c r="J656" s="11" t="s">
         <v>5964</v>
       </c>
-      <c r="K656" s="0" t="n">
+      <c r="K656" s="11" t="n">
         <v>5075003463</v>
       </c>
-      <c r="L656" s="0" t="s">
+      <c r="L656" s="11" t="s">
         <v>5965</v>
       </c>
-      <c r="M656" s="0" t="s">
+      <c r="M656" s="11" t="s">
         <v>5966</v>
       </c>
-      <c r="N656" s="0" t="n">
+      <c r="N656" s="11" t="n">
         <v>9731019028</v>
       </c>
-      <c r="O656" s="0" t="s">
+      <c r="O656" s="11" t="s">
         <v>5967</v>
       </c>
-      <c r="P656" s="0" t="s">
+      <c r="P656" s="11" t="s">
         <v>5968</v>
       </c>
-      <c r="Q656" s="0" t="s">
+      <c r="Q656" s="11" t="s">
         <v>5969</v>
+      </c>
+    </row>
+    <row r="657" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="6" t="n">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="11" t="s">
+        <v>5970</v>
+      </c>
+      <c r="B658" s="11" t="s">
+        <v>5971</v>
+      </c>
+      <c r="C658" s="11" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D658" s="11" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E658" s="11" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F658" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G658" s="11" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H658" s="11" t="s">
+        <v>2384</v>
+      </c>
+      <c r="I658" s="11" t="s">
+        <v>5974</v>
+      </c>
+      <c r="J658" s="11" t="s">
+        <v>5975</v>
+      </c>
+      <c r="K658" s="11" t="n">
+        <v>5022034330</v>
+      </c>
+      <c r="L658" s="11" t="s">
+        <v>5976</v>
+      </c>
+      <c r="M658" s="11" t="s">
+        <v>5977</v>
+      </c>
+      <c r="N658" s="11" t="n">
+        <v>1658151681</v>
+      </c>
+      <c r="O658" s="11" t="s">
+        <v>5978</v>
+      </c>
+      <c r="P658" s="11" t="s">
+        <v>5979</v>
+      </c>
+      <c r="Q658" s="11" t="s">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="11" t="s">
+        <v>5981</v>
+      </c>
+      <c r="B659" s="11" t="s">
+        <v>5982</v>
+      </c>
+      <c r="C659" s="11" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D659" s="11" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E659" s="11" t="s">
+        <v>5985</v>
+      </c>
+      <c r="F659" s="11" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G659" s="11" t="s">
+        <v>5986</v>
+      </c>
+      <c r="H659" s="11" t="s">
+        <v>5986</v>
+      </c>
+      <c r="I659" s="11" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J659" s="11" t="s">
+        <v>1857</v>
+      </c>
+      <c r="K659" s="11" t="n">
+        <v>5031070286</v>
+      </c>
+      <c r="L659" s="11" t="s">
+        <v>5987</v>
+      </c>
+      <c r="M659" s="11" t="s">
+        <v>5988</v>
+      </c>
+      <c r="N659" s="11" t="n">
+        <v>2464250942</v>
+      </c>
+      <c r="O659" s="11" t="s">
+        <v>5989</v>
+      </c>
+      <c r="P659" s="11" t="s">
+        <v>5990</v>
+      </c>
+      <c r="Q659" s="11" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="11" t="s">
+        <v>5992</v>
+      </c>
+      <c r="B660" s="11" t="s">
+        <v>5993</v>
+      </c>
+      <c r="C660" s="11" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D660" s="11" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E660" s="11" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F660" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G660" s="11" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H660" s="11" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I660" s="11" t="s">
+        <v>3614</v>
+      </c>
+      <c r="J660" s="11" t="s">
+        <v>3615</v>
+      </c>
+      <c r="K660" s="11" t="n">
+        <v>5032048075</v>
+      </c>
+      <c r="L660" s="11" t="s">
+        <v>5996</v>
+      </c>
+      <c r="M660" s="11" t="s">
+        <v>5997</v>
+      </c>
+      <c r="N660" s="11" t="n">
+        <v>7716959665</v>
+      </c>
+      <c r="O660" s="11" t="s">
+        <v>5998</v>
+      </c>
+      <c r="P660" s="11" t="s">
+        <v>5999</v>
+      </c>
+      <c r="Q660" s="11" t="s">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="11" t="s">
+        <v>6001</v>
+      </c>
+      <c r="B661" s="11" t="s">
+        <v>6002</v>
+      </c>
+      <c r="C661" s="11" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D661" s="11" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E661" s="11" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F661" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G661" s="11" t="s">
+        <v>5223</v>
+      </c>
+      <c r="H661" s="11" t="s">
+        <v>5460</v>
+      </c>
+      <c r="I661" s="11" t="s">
+        <v>6005</v>
+      </c>
+      <c r="J661" s="11" t="s">
+        <v>6006</v>
+      </c>
+      <c r="K661" s="11" t="n">
+        <v>5036145714</v>
+      </c>
+      <c r="L661" s="11" t="s">
+        <v>6007</v>
+      </c>
+      <c r="M661" s="11" t="s">
+        <v>6008</v>
+      </c>
+      <c r="N661" s="11" t="n">
+        <v>502810180662</v>
+      </c>
+      <c r="O661" s="11" t="s">
+        <v>6009</v>
+      </c>
+      <c r="P661" s="11" t="s">
+        <v>6010</v>
+      </c>
+      <c r="Q661" s="11" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="11" t="s">
+        <v>6012</v>
+      </c>
+      <c r="B662" s="11" t="s">
+        <v>6013</v>
+      </c>
+      <c r="C662" s="11" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D662" s="11" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E662" s="11" t="s">
+        <v>6016</v>
+      </c>
+      <c r="F662" s="11" t="s">
+        <v>4755</v>
+      </c>
+      <c r="G662" s="11" t="s">
+        <v>5460</v>
+      </c>
+      <c r="H662" s="11" t="s">
+        <v>5370</v>
+      </c>
+      <c r="I662" s="11" t="s">
+        <v>6017</v>
+      </c>
+      <c r="J662" s="11" t="s">
+        <v>6018</v>
+      </c>
+      <c r="K662" s="11" t="n">
+        <v>7724707421</v>
+      </c>
+      <c r="L662" s="11" t="s">
+        <v>6019</v>
+      </c>
+      <c r="M662" s="11" t="s">
+        <v>6020</v>
+      </c>
+      <c r="N662" s="11" t="n">
+        <v>860102745242</v>
+      </c>
+      <c r="O662" s="11" t="s">
+        <v>6021</v>
+      </c>
+      <c r="P662" s="11" t="s">
+        <v>6022</v>
+      </c>
+      <c r="Q662" s="11" t="s">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="11" t="s">
+        <v>6024</v>
+      </c>
+      <c r="B663" s="11" t="s">
+        <v>6025</v>
+      </c>
+      <c r="C663" s="11" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D663" s="11" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E663" s="11" t="s">
+        <v>3407</v>
+      </c>
+      <c r="F663" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G663" s="11" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H663" s="11" t="s">
+        <v>3407</v>
+      </c>
+      <c r="I663" s="11" t="s">
+        <v>6028</v>
+      </c>
+      <c r="J663" s="11" t="s">
+        <v>6029</v>
+      </c>
+      <c r="K663" s="11" t="n">
+        <v>5043055444</v>
+      </c>
+      <c r="L663" s="11" t="s">
+        <v>6030</v>
+      </c>
+      <c r="M663" s="11" t="s">
+        <v>6031</v>
+      </c>
+      <c r="N663" s="11" t="n">
+        <v>4222016489</v>
+      </c>
+      <c r="O663" s="11" t="s">
+        <v>6032</v>
+      </c>
+      <c r="P663" s="11" t="s">
+        <v>6033</v>
+      </c>
+      <c r="Q663" s="11" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="11" t="s">
+        <v>6035</v>
+      </c>
+      <c r="B664" s="11" t="s">
+        <v>6036</v>
+      </c>
+      <c r="C664" s="11" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D664" s="11" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E664" s="11" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F664" s="11" t="s">
+        <v>6039</v>
+      </c>
+      <c r="G664" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H664" s="11" t="s">
+        <v>3085</v>
+      </c>
+      <c r="I664" s="11" t="s">
+        <v>6040</v>
+      </c>
+      <c r="J664" s="11" t="s">
+        <v>6041</v>
+      </c>
+      <c r="K664" s="11" t="n">
+        <v>7710036332</v>
+      </c>
+      <c r="L664" s="11" t="s">
+        <v>6042</v>
+      </c>
+      <c r="M664" s="11" t="s">
+        <v>6043</v>
+      </c>
+      <c r="N664" s="11" t="n">
+        <v>3460066292</v>
+      </c>
+      <c r="O664" s="11" t="s">
+        <v>6044</v>
+      </c>
+      <c r="P664" s="11" t="s">
+        <v>6045</v>
+      </c>
+      <c r="Q664" s="11" t="s">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="11" t="s">
+        <v>6047</v>
+      </c>
+      <c r="B665" s="11" t="s">
+        <v>6048</v>
+      </c>
+      <c r="C665" s="11" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D665" s="11" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E665" s="11" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F665" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G665" s="11" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H665" s="11" t="s">
+        <v>2545</v>
+      </c>
+      <c r="I665" s="11" t="s">
+        <v>6051</v>
+      </c>
+      <c r="J665" s="11" t="s">
+        <v>6052</v>
+      </c>
+      <c r="K665" s="11" t="n">
+        <v>5001040936</v>
+      </c>
+      <c r="L665" s="11" t="s">
+        <v>6053</v>
+      </c>
+      <c r="M665" s="11" t="s">
+        <v>6054</v>
+      </c>
+      <c r="N665" s="11" t="n">
+        <v>7730196038</v>
+      </c>
+      <c r="O665" s="11" t="s">
+        <v>6055</v>
+      </c>
+      <c r="P665" s="11" t="s">
+        <v>6056</v>
+      </c>
+      <c r="Q665" s="11" t="s">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="666" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="6" t="n">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="11" t="s">
+        <v>6058</v>
+      </c>
+      <c r="B667" s="11" t="s">
+        <v>6059</v>
+      </c>
+      <c r="C667" s="11" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D667" s="11" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E667" s="11" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F667" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G667" s="11" t="s">
+        <v>3040</v>
+      </c>
+      <c r="H667" s="11" t="s">
+        <v>2472</v>
+      </c>
+      <c r="I667" s="11" t="s">
+        <v>5224</v>
+      </c>
+      <c r="J667" s="11" t="s">
+        <v>5225</v>
+      </c>
+      <c r="K667" s="11" t="n">
+        <v>5024200343</v>
+      </c>
+      <c r="L667" s="11" t="s">
+        <v>6062</v>
+      </c>
+      <c r="M667" s="11" t="s">
+        <v>6063</v>
+      </c>
+      <c r="N667" s="11" t="n">
+        <v>7707404233</v>
+      </c>
+      <c r="O667" s="11" t="s">
+        <v>6064</v>
+      </c>
+      <c r="P667" s="11" t="s">
+        <v>6065</v>
+      </c>
+      <c r="Q667" s="11" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="11" t="s">
+        <v>6067</v>
+      </c>
+      <c r="B668" s="11" t="s">
+        <v>6068</v>
+      </c>
+      <c r="C668" s="11" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D668" s="11" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E668" s="11" t="s">
+        <v>3064</v>
+      </c>
+      <c r="F668" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G668" s="11" t="s">
+        <v>3064</v>
+      </c>
+      <c r="H668" s="11" t="s">
+        <v>3064</v>
+      </c>
+      <c r="I668" s="11" t="s">
+        <v>4975</v>
+      </c>
+      <c r="J668" s="11" t="s">
+        <v>4976</v>
+      </c>
+      <c r="K668" s="11" t="n">
+        <v>7751505495</v>
+      </c>
+      <c r="L668" s="11" t="s">
+        <v>6071</v>
+      </c>
+      <c r="M668" s="11" t="s">
+        <v>6072</v>
+      </c>
+      <c r="N668" s="11" t="n">
+        <v>9724008240</v>
+      </c>
+      <c r="O668" s="11" t="s">
+        <v>6073</v>
+      </c>
+      <c r="P668" s="11" t="s">
+        <v>6074</v>
+      </c>
+      <c r="Q668" s="11" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="11" t="s">
+        <v>6076</v>
+      </c>
+      <c r="B669" s="11" t="s">
+        <v>6077</v>
+      </c>
+      <c r="C669" s="11" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D669" s="11" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E669" s="11" t="s">
+        <v>3407</v>
+      </c>
+      <c r="F669" s="11" t="s">
+        <v>4632</v>
+      </c>
+      <c r="G669" s="11" t="s">
+        <v>4847</v>
+      </c>
+      <c r="H669" s="11" t="s">
+        <v>4541</v>
+      </c>
+      <c r="I669" s="11" t="s">
+        <v>6080</v>
+      </c>
+      <c r="J669" s="11" t="s">
+        <v>6081</v>
+      </c>
+      <c r="K669" s="11" t="n">
+        <v>7715107139</v>
+      </c>
+      <c r="L669" s="11" t="s">
+        <v>6082</v>
+      </c>
+      <c r="M669" s="11" t="s">
+        <v>6083</v>
+      </c>
+      <c r="N669" s="11" t="n">
+        <v>890502539677</v>
+      </c>
+      <c r="O669" s="11" t="s">
+        <v>6084</v>
+      </c>
+      <c r="P669" s="11" t="s">
+        <v>2412</v>
+      </c>
+      <c r="Q669" s="11" t="s">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="11" t="s">
+        <v>6086</v>
+      </c>
+      <c r="B670" s="11" t="s">
+        <v>6087</v>
+      </c>
+      <c r="C670" s="11" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D670" s="11" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E670" s="11" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F670" s="11" t="s">
+        <v>4755</v>
+      </c>
+      <c r="G670" s="11" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H670" s="11" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I670" s="11" t="s">
+        <v>6090</v>
+      </c>
+      <c r="J670" s="11" t="s">
+        <v>6091</v>
+      </c>
+      <c r="K670" s="11" t="n">
+        <v>7704060908</v>
+      </c>
+      <c r="L670" s="11" t="s">
+        <v>6092</v>
+      </c>
+      <c r="M670" s="11" t="s">
+        <v>6093</v>
+      </c>
+      <c r="N670" s="11" t="n">
+        <v>7704306848</v>
+      </c>
+      <c r="O670" s="11" t="s">
+        <v>6094</v>
+      </c>
+      <c r="P670" s="11" t="s">
+        <v>6095</v>
+      </c>
+      <c r="Q670" s="11" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="11" t="s">
+        <v>6097</v>
+      </c>
+      <c r="B671" s="11" t="s">
+        <v>6098</v>
+      </c>
+      <c r="C671" s="11" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D671" s="11" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E671" s="11" t="s">
+        <v>5472</v>
+      </c>
+      <c r="F671" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G671" s="11" t="s">
+        <v>5472</v>
+      </c>
+      <c r="H671" s="11" t="s">
+        <v>2269</v>
+      </c>
+      <c r="I671" s="11" t="s">
+        <v>6101</v>
+      </c>
+      <c r="J671" s="11" t="s">
+        <v>6102</v>
+      </c>
+      <c r="K671" s="11" t="n">
+        <v>7714097791</v>
+      </c>
+      <c r="L671" s="11" t="s">
+        <v>6103</v>
+      </c>
+      <c r="M671" s="11" t="s">
+        <v>6104</v>
+      </c>
+      <c r="N671" s="11" t="n">
+        <v>503008458112</v>
+      </c>
+      <c r="O671" s="11" t="s">
+        <v>6105</v>
+      </c>
+      <c r="P671" s="11" t="s">
+        <v>6106</v>
+      </c>
+      <c r="Q671" s="11" t="s">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="11" t="s">
+        <v>6108</v>
+      </c>
+      <c r="B672" s="11" t="s">
+        <v>6109</v>
+      </c>
+      <c r="C672" s="11" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D672" s="11" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E672" s="11" t="s">
+        <v>3869</v>
+      </c>
+      <c r="F672" s="11" t="s">
+        <v>6112</v>
+      </c>
+      <c r="G672" s="11" t="s">
+        <v>5370</v>
+      </c>
+      <c r="H672" s="11" t="s">
+        <v>6016</v>
+      </c>
+      <c r="I672" s="11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J672" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K672" s="11" t="n">
+        <v>7730087409</v>
+      </c>
+      <c r="L672" s="11" t="s">
+        <v>6113</v>
+      </c>
+      <c r="M672" s="11" t="s">
+        <v>6114</v>
+      </c>
+      <c r="N672" s="11" t="n">
+        <v>7708777862</v>
+      </c>
+      <c r="O672" s="11" t="s">
+        <v>6115</v>
+      </c>
+      <c r="P672" s="11" t="s">
+        <v>6116</v>
+      </c>
+      <c r="Q672" s="11" t="s">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="11" t="s">
+        <v>6118</v>
+      </c>
+      <c r="B673" s="11" t="s">
+        <v>6119</v>
+      </c>
+      <c r="C673" s="11" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D673" s="11" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E673" s="11" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F673" s="11" t="s">
+        <v>4932</v>
+      </c>
+      <c r="G673" s="11" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H673" s="11" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I673" s="11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J673" s="11" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K673" s="11" t="n">
+        <v>7724075162</v>
+      </c>
+      <c r="L673" s="11" t="s">
+        <v>6122</v>
+      </c>
+      <c r="M673" s="11" t="s">
+        <v>6123</v>
+      </c>
+      <c r="N673" s="11" t="n">
+        <v>7708254206</v>
+      </c>
+      <c r="O673" s="11" t="s">
+        <v>6124</v>
+      </c>
+      <c r="P673" s="11" t="s">
+        <v>6125</v>
+      </c>
+      <c r="Q673" s="11" t="s">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="11" t="s">
+        <v>6127</v>
+      </c>
+      <c r="B674" s="11" t="s">
+        <v>6128</v>
+      </c>
+      <c r="C674" s="11" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D674" s="11" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E674" s="11" t="s">
+        <v>3535</v>
+      </c>
+      <c r="F674" s="11" t="s">
+        <v>6131</v>
+      </c>
+      <c r="G674" s="11" t="s">
+        <v>6132</v>
+      </c>
+      <c r="H674" s="11" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I674" s="11" t="s">
+        <v>6133</v>
+      </c>
+      <c r="J674" s="11" t="s">
+        <v>6134</v>
+      </c>
+      <c r="K674" s="11" t="n">
+        <v>7722377866</v>
+      </c>
+      <c r="L674" s="11" t="s">
+        <v>6135</v>
+      </c>
+      <c r="M674" s="11" t="s">
+        <v>6136</v>
+      </c>
+      <c r="N674" s="11" t="n">
+        <v>7716895309</v>
+      </c>
+      <c r="O674" s="11" t="s">
+        <v>6137</v>
+      </c>
+      <c r="P674" s="11" t="s">
+        <v>6138</v>
+      </c>
+      <c r="Q674" s="11" t="s">
+        <v>6139</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="11" t="s">
+        <v>6140</v>
+      </c>
+      <c r="B675" s="11" t="s">
+        <v>6141</v>
+      </c>
+      <c r="C675" s="11" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D675" s="11" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E675" s="11" t="s">
+        <v>4582</v>
+      </c>
+      <c r="F675" s="11" t="s">
+        <v>4583</v>
+      </c>
+      <c r="G675" s="11" t="s">
+        <v>3041</v>
+      </c>
+      <c r="H675" s="11" t="s">
+        <v>3041</v>
+      </c>
+      <c r="I675" s="11" t="s">
+        <v>6144</v>
+      </c>
+      <c r="J675" s="11"/>
+      <c r="K675" s="11" t="n">
+        <v>5020007701</v>
+      </c>
+      <c r="L675" s="11" t="s">
+        <v>6145</v>
+      </c>
+      <c r="M675" s="11" t="s">
+        <v>6146</v>
+      </c>
+      <c r="N675" s="11" t="n">
+        <v>615400742930</v>
+      </c>
+      <c r="O675" s="11" t="s">
+        <v>2634</v>
+      </c>
+      <c r="P675" s="11" t="s">
+        <v>6147</v>
+      </c>
+      <c r="Q675" s="11" t="s">
+        <v>6148</v>
       </c>
     </row>
   </sheetData>
@@ -49953,7 +51399,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8078" uniqueCount="6149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8138" uniqueCount="6192">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -18468,6 +18468,135 @@
   </si>
   <si>
     <t xml:space="preserve">tgnrg2010@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502418182022000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024181820 22 000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">995 467,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ  ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "МОСКОВСКАЯ ОБЛАСТНАЯ  СТАНЦИЯ СКОРОЙ МЕДИЦИНСКОЙ ПОМОЩИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "МОССМП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ПОСАД СБ ПУШКИНО" (ООО ЧОО "ПОСАД СБ ПУШКИНО")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧОО "ПОСАД СБ ПУШКИНО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141207, ОБЛ МОСКОВСКАЯ 50, Г ПУШКИНО, ПРОЕЗД 3-Й НЕКРАСОВСКИЙ, 3, 2, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7495-223-99-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psb@posadsb.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770802535821000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17708025358 21 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444 745,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФГУП ИНТЕХНЕДВИЖИМОСТЬ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФГУП ИНТЕХНЕДВИЖИМОСТЬ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФГУП ИНТЕХНЕДВИЖИМОСТЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347631, ОБЛ РОСТОВСКАЯ 61, Г САЛЬСК, УЛ РАДИЩЕВА, 3, -, -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-863-7252089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inteh66@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770929051022000025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17709290510 22 000025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 550 587,07 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИШ-ПРОДУКТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИШ-ПРОДУКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФИШ-ПРОДУКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355035, КРАЙ СТАВРОПОЛЬСКИЙ 26, - Ставрополь, - СТАРОМАРЬЕВСКОЕ, Д. 32Е, ОФИС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8652-500202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stav-servis@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772715631721000857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17727156317 21 000857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 240,09 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "РОССИЙСКИЙ ЦЕНТР ЗАЩИТЫ ЛЕСА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФБУ "РОСЛЕСОЗАЩИТА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ВИТЯЗЬ СТАВР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ВИТЯЗЬ СТАВР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ВИТЯЗЬ СТАВР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640000, ОБЛ КУРГАНСКАЯ 45, Г КУРГАН, УЛ ПУШКИНА, ДОМ 189, КВАРТИРА 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-3522-467676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vityaz45@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -18630,10 +18759,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q675"/>
+  <dimension ref="A1:Q680"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A641" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A667" activeCellId="0" sqref="A667:Q675"/>
+      <selection pane="topLeft" activeCell="A676" activeCellId="0" sqref="676:676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51393,13 +51522,230 @@
         <v>6148</v>
       </c>
     </row>
+    <row r="676" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="6" t="n">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="1" t="s">
+        <v>6149</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>6150</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>4746</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="G677" s="1" t="s">
+        <v>4847</v>
+      </c>
+      <c r="H677" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I677" s="1" t="s">
+        <v>6153</v>
+      </c>
+      <c r="J677" s="1" t="s">
+        <v>6154</v>
+      </c>
+      <c r="K677" s="1" t="n">
+        <v>5024181820</v>
+      </c>
+      <c r="L677" s="1" t="s">
+        <v>6155</v>
+      </c>
+      <c r="M677" s="1" t="s">
+        <v>6156</v>
+      </c>
+      <c r="N677" s="1" t="n">
+        <v>5038043500</v>
+      </c>
+      <c r="O677" s="1" t="s">
+        <v>6157</v>
+      </c>
+      <c r="P677" s="1" t="s">
+        <v>6158</v>
+      </c>
+      <c r="Q677" s="1" t="s">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="1" t="s">
+        <v>6160</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>6161</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>6164</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G678" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H678" s="1" t="s">
+        <v>5460</v>
+      </c>
+      <c r="I678" s="1" t="s">
+        <v>3536</v>
+      </c>
+      <c r="J678" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="K678" s="1" t="n">
+        <v>7708025358</v>
+      </c>
+      <c r="L678" s="1" t="s">
+        <v>6165</v>
+      </c>
+      <c r="M678" s="1" t="s">
+        <v>6166</v>
+      </c>
+      <c r="N678" s="1" t="n">
+        <v>6153025606</v>
+      </c>
+      <c r="O678" s="1" t="s">
+        <v>6167</v>
+      </c>
+      <c r="P678" s="1" t="s">
+        <v>6168</v>
+      </c>
+      <c r="Q678" s="1" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="1" t="s">
+        <v>6170</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>6171</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>5748</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>6174</v>
+      </c>
+      <c r="G679" s="1" t="s">
+        <v>6175</v>
+      </c>
+      <c r="H679" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="I679" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J679" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K679" s="1" t="n">
+        <v>7709290510</v>
+      </c>
+      <c r="L679" s="1" t="s">
+        <v>6176</v>
+      </c>
+      <c r="M679" s="1" t="s">
+        <v>6177</v>
+      </c>
+      <c r="N679" s="1" t="n">
+        <v>2636217250</v>
+      </c>
+      <c r="O679" s="1" t="s">
+        <v>6178</v>
+      </c>
+      <c r="P679" s="1" t="s">
+        <v>6179</v>
+      </c>
+      <c r="Q679" s="1" t="s">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="1" t="s">
+        <v>6181</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>6182</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G680" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="H680" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I680" s="1" t="s">
+        <v>6185</v>
+      </c>
+      <c r="J680" s="1" t="s">
+        <v>6186</v>
+      </c>
+      <c r="K680" s="1" t="n">
+        <v>7727156317</v>
+      </c>
+      <c r="L680" s="1" t="s">
+        <v>6187</v>
+      </c>
+      <c r="M680" s="1" t="s">
+        <v>6188</v>
+      </c>
+      <c r="N680" s="1" t="n">
+        <v>4501125960</v>
+      </c>
+      <c r="O680" s="1" t="s">
+        <v>6189</v>
+      </c>
+      <c r="P680" s="1" t="s">
+        <v>6190</v>
+      </c>
+      <c r="Q680" s="1" t="s">
+        <v>6191</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8138" uniqueCount="6192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8243" uniqueCount="6258">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -18597,6 +18597,204 @@
   </si>
   <si>
     <t xml:space="preserve">vityaz45@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502418182022000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024181820 22 000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 137 809,90 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕКТОР РАЗВИТИЕ" (ООО "ВЕКТОР РАЗВИТИЕ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВЕКТОР РАЗВИТИЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620146, ОБЛ СВЕРДЛОВСКАЯ 66, Г ЕКАТЕРИНБУРГ, УЛ ЧКАЛОВА, ДОМ 137, КВАРТИРА 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-922-1313121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector-00@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504805086621000202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25048050866 21 000202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118 055,21 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДМАРКЕТ" (ООО "МЕДМАРКЕТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕДМАРКЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123290, Г МОСКВА 77, УЛ 2-Я МАГИСТРАЛЬНАЯ, 18А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (929) 596-90-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medmarketdent@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770267952321000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17702679523 21 000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 830 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕСНОТА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕСНОТА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕСНОТА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">649002, РЕСП. АЛТАЙ 04, Г. Горно-Алтайск, ПЕР. ЗЫБКИЙ, Д. 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-913-6920938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnota23@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770103158520000202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17701031585 20 000202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">295 873,61 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЕРВИС УРАЛ ПЛЮС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЕРВИС УРАЛ ПЛЮС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СЕРВИС УРАЛ ПЛЮС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620102, ОБЛ СВЕРДЛОВСКАЯ 66, Г ЕКАТЕРИНБУРГ, УЛ БЕЛОРЕЧЕНСКАЯ, СТРОЕНИЕ 28А, ОФИС 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-909-0179458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service.ural.plus@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772364165821000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27723641658 21 000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 696 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ ГОРОДА МОСКВЫ "КУЛЬТУРНЫЙ ЦЕНТР "МОСКВИЧ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУК Г. МОСКВЫ "КЦ "МОСКВИЧ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙМОНТАЖПРОЕКТ" (ООО "СТРОЙМОНТАЖПРОЕКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙМОНТАЖПРОЕКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105568, Г МОСКВА 77, УЛ МАГНИТОГОРСКАЯ, ДОМ 2, ЭТАЖ 1 ПОМ 2Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (977) 727-36-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stroymontazh19@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772470742122000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17724707421 22 000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239 924,99 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛЕКС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛЕКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЛЕКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107564, Г МОСКВА 77, УЛ КРАСНОБОГАТЫРСКАЯ, ДОМ 2, СТРОЕНИЕ 75, ПОМЕЩЕНИЕ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-910-4385558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leks2027@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773411103521000320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734111035 21 000320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 900,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САВОСИН КИМ ВЛАДИМИРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП САВОСИН КИМ ВЛАДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renesans7777@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -18759,10 +18957,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q680"/>
+  <dimension ref="A1:Q688"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A641" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A676" activeCellId="0" sqref="676:676"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A653" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A673" activeCellId="0" sqref="A673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51739,13 +51937,389 @@
         <v>6191</v>
       </c>
     </row>
+    <row r="681" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="6" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="s">
+        <v>6192</v>
+      </c>
+      <c r="B682" s="0" t="s">
+        <v>6193</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D682" s="0" t="s">
+        <v>6195</v>
+      </c>
+      <c r="E682" s="0" t="s">
+        <v>4541</v>
+      </c>
+      <c r="F682" s="0" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G682" s="0" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H682" s="0" t="s">
+        <v>6196</v>
+      </c>
+      <c r="I682" s="0" t="s">
+        <v>6153</v>
+      </c>
+      <c r="J682" s="0" t="s">
+        <v>6154</v>
+      </c>
+      <c r="K682" s="0" t="n">
+        <v>5024181820</v>
+      </c>
+      <c r="L682" s="0" t="s">
+        <v>6197</v>
+      </c>
+      <c r="M682" s="0" t="s">
+        <v>6198</v>
+      </c>
+      <c r="N682" s="0" t="n">
+        <v>6671019836</v>
+      </c>
+      <c r="O682" s="0" t="s">
+        <v>6199</v>
+      </c>
+      <c r="P682" s="0" t="s">
+        <v>6200</v>
+      </c>
+      <c r="Q682" s="0" t="s">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="0" t="s">
+        <v>6202</v>
+      </c>
+      <c r="B683" s="0" t="s">
+        <v>6203</v>
+      </c>
+      <c r="C683" s="0" t="s">
+        <v>6204</v>
+      </c>
+      <c r="D683" s="0" t="s">
+        <v>6205</v>
+      </c>
+      <c r="E683" s="0" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F683" s="0" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G683" s="0" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H683" s="0" t="s">
+        <v>3815</v>
+      </c>
+      <c r="I683" s="0" t="s">
+        <v>2174</v>
+      </c>
+      <c r="J683" s="0" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K683" s="0" t="n">
+        <v>5048050866</v>
+      </c>
+      <c r="L683" s="0" t="s">
+        <v>6206</v>
+      </c>
+      <c r="M683" s="0" t="s">
+        <v>6207</v>
+      </c>
+      <c r="N683" s="0" t="n">
+        <v>7714837407</v>
+      </c>
+      <c r="O683" s="0" t="s">
+        <v>6208</v>
+      </c>
+      <c r="P683" s="0" t="s">
+        <v>6209</v>
+      </c>
+      <c r="Q683" s="0" t="s">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="0" t="s">
+        <v>6211</v>
+      </c>
+      <c r="B684" s="0" t="s">
+        <v>6212</v>
+      </c>
+      <c r="C684" s="0" t="s">
+        <v>6213</v>
+      </c>
+      <c r="D684" s="0" t="s">
+        <v>6214</v>
+      </c>
+      <c r="E684" s="0" t="s">
+        <v>4095</v>
+      </c>
+      <c r="F684" s="0" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G684" s="0" t="s">
+        <v>3123</v>
+      </c>
+      <c r="H684" s="0" t="s">
+        <v>6215</v>
+      </c>
+      <c r="I684" s="0" t="s">
+        <v>2546</v>
+      </c>
+      <c r="J684" s="0" t="s">
+        <v>2547</v>
+      </c>
+      <c r="K684" s="0" t="n">
+        <v>7702679523</v>
+      </c>
+      <c r="L684" s="0" t="s">
+        <v>6216</v>
+      </c>
+      <c r="M684" s="0" t="s">
+        <v>6217</v>
+      </c>
+      <c r="N684" s="0" t="n">
+        <v>400014720</v>
+      </c>
+      <c r="O684" s="0" t="s">
+        <v>6218</v>
+      </c>
+      <c r="P684" s="0" t="s">
+        <v>6219</v>
+      </c>
+      <c r="Q684" s="0" t="s">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="0" t="s">
+        <v>6221</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>6222</v>
+      </c>
+      <c r="C685" s="0" t="s">
+        <v>6223</v>
+      </c>
+      <c r="D685" s="0" t="s">
+        <v>6224</v>
+      </c>
+      <c r="E685" s="0" t="s">
+        <v>6225</v>
+      </c>
+      <c r="F685" s="0" t="s">
+        <v>6132</v>
+      </c>
+      <c r="G685" s="0" t="s">
+        <v>1987</v>
+      </c>
+      <c r="H685" s="0" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I685" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="J685" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="K685" s="0" t="n">
+        <v>7701031585</v>
+      </c>
+      <c r="L685" s="0" t="s">
+        <v>6226</v>
+      </c>
+      <c r="M685" s="0" t="s">
+        <v>6227</v>
+      </c>
+      <c r="N685" s="0" t="n">
+        <v>6658409139</v>
+      </c>
+      <c r="O685" s="0" t="s">
+        <v>6228</v>
+      </c>
+      <c r="P685" s="0" t="s">
+        <v>6229</v>
+      </c>
+      <c r="Q685" s="0" t="s">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="s">
+        <v>6231</v>
+      </c>
+      <c r="B686" s="0" t="s">
+        <v>6232</v>
+      </c>
+      <c r="C686" s="0" t="s">
+        <v>6233</v>
+      </c>
+      <c r="D686" s="0" t="s">
+        <v>6234</v>
+      </c>
+      <c r="E686" s="0" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F686" s="0" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G686" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H686" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I686" s="0" t="s">
+        <v>6235</v>
+      </c>
+      <c r="J686" s="0" t="s">
+        <v>6236</v>
+      </c>
+      <c r="K686" s="0" t="n">
+        <v>7723641658</v>
+      </c>
+      <c r="L686" s="0" t="s">
+        <v>6237</v>
+      </c>
+      <c r="M686" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="N686" s="0" t="n">
+        <v>7719491015</v>
+      </c>
+      <c r="O686" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="P686" s="0" t="s">
+        <v>6240</v>
+      </c>
+      <c r="Q686" s="0" t="s">
+        <v>6241</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="0" t="s">
+        <v>6242</v>
+      </c>
+      <c r="B687" s="0" t="s">
+        <v>6243</v>
+      </c>
+      <c r="C687" s="0" t="s">
+        <v>6244</v>
+      </c>
+      <c r="D687" s="0" t="s">
+        <v>6245</v>
+      </c>
+      <c r="E687" s="0" t="s">
+        <v>3366</v>
+      </c>
+      <c r="F687" s="0" t="s">
+        <v>4632</v>
+      </c>
+      <c r="G687" s="0" t="s">
+        <v>4847</v>
+      </c>
+      <c r="H687" s="0" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I687" s="0" t="s">
+        <v>6017</v>
+      </c>
+      <c r="J687" s="0" t="s">
+        <v>6018</v>
+      </c>
+      <c r="K687" s="0" t="n">
+        <v>7724707421</v>
+      </c>
+      <c r="L687" s="0" t="s">
+        <v>6246</v>
+      </c>
+      <c r="M687" s="0" t="s">
+        <v>6247</v>
+      </c>
+      <c r="N687" s="0" t="n">
+        <v>7719885228</v>
+      </c>
+      <c r="O687" s="0" t="s">
+        <v>6248</v>
+      </c>
+      <c r="P687" s="0" t="s">
+        <v>6249</v>
+      </c>
+      <c r="Q687" s="0" t="s">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="0" t="s">
+        <v>6251</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>6252</v>
+      </c>
+      <c r="C688" s="0" t="s">
+        <v>6253</v>
+      </c>
+      <c r="D688" s="0" t="s">
+        <v>6254</v>
+      </c>
+      <c r="E688" s="0" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F688" s="0" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G688" s="0" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H688" s="0" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I688" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="J688" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="K688" s="0" t="n">
+        <v>7734111035</v>
+      </c>
+      <c r="L688" s="0" t="s">
+        <v>6255</v>
+      </c>
+      <c r="M688" s="0" t="s">
+        <v>6256</v>
+      </c>
+      <c r="N688" s="0" t="n">
+        <v>773574183765</v>
+      </c>
+      <c r="O688" s="0" t="s">
+        <v>5113</v>
+      </c>
+      <c r="P688" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q688" s="0" t="s">
+        <v>6257</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8243" uniqueCount="6258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8301" uniqueCount="6297">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -18795,6 +18795,123 @@
   </si>
   <si>
     <t xml:space="preserve">renesans7777@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773008740921000269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17730087409 21 000269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">556 515,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИСИЦИН ВАДИМ ИГОРЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЛИСИЦИН ВАДИМ ИГОРЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ КРАСНОДАРСКИЙ 23, Г АБИНСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-918-4883958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvi96@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502000770120000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35020007701 20 000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">639 601,16 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧОО "СТАНДАРТ" (ООО ЧОО "СТАНДАРТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧОО "СТАНДАРТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117587, ГОРОД МОСКВА, ШОССЕ ВАРШАВСКОЕ, ДОМ 125, СТР 1, ЭТАЖ 3 ПОМ I ЧАСТЬ КОМ 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-964-7178958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standartchoo@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772308493622000106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27723084936 22 000106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 027 878,91 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА ИМЕНИ В.П. ДЕМИХОВА ДЕПАРТАМЕНТА ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ "ГКБ ИМЕНИ В.П. ДЕМИХОВА ДЗМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАРГАРЯН АРМАН АШОТОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП МАРГАРЯН АРМАН АШОТОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Область Московская 50, Город Павловский Посад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (916) 816-31-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arman_margaryan_85@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503405135522000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35034051355 22 000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 106 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКБЕРОВ ТЕЙМУР АРИФ ОГЛЫИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АКБЕРОВ ТЕЙМУР АРИФ ОГЛЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г ОРЕХОВО-ЗУЕВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiprida530@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -18957,10 +19074,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q688"/>
+  <dimension ref="A1:Q693"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A653" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A673" activeCellId="0" sqref="A673"/>
+      <selection pane="topLeft" activeCell="A689" activeCellId="0" sqref="689:689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51943,374 +52060,589 @@
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="0" t="s">
+      <c r="A682" s="11" t="s">
         <v>6192</v>
       </c>
-      <c r="B682" s="0" t="s">
+      <c r="B682" s="11" t="s">
         <v>6193</v>
       </c>
-      <c r="C682" s="0" t="s">
+      <c r="C682" s="11" t="s">
         <v>6194</v>
       </c>
-      <c r="D682" s="0" t="s">
+      <c r="D682" s="11" t="s">
         <v>6195</v>
       </c>
-      <c r="E682" s="0" t="s">
+      <c r="E682" s="11" t="s">
         <v>4541</v>
       </c>
-      <c r="F682" s="0" t="s">
+      <c r="F682" s="11" t="s">
         <v>3224</v>
       </c>
-      <c r="G682" s="0" t="s">
+      <c r="G682" s="11" t="s">
         <v>2037</v>
       </c>
-      <c r="H682" s="0" t="s">
+      <c r="H682" s="11" t="s">
         <v>6196</v>
       </c>
-      <c r="I682" s="0" t="s">
+      <c r="I682" s="11" t="s">
         <v>6153</v>
       </c>
-      <c r="J682" s="0" t="s">
+      <c r="J682" s="11" t="s">
         <v>6154</v>
       </c>
-      <c r="K682" s="0" t="n">
+      <c r="K682" s="11" t="n">
         <v>5024181820</v>
       </c>
-      <c r="L682" s="0" t="s">
+      <c r="L682" s="11" t="s">
         <v>6197</v>
       </c>
-      <c r="M682" s="0" t="s">
+      <c r="M682" s="11" t="s">
         <v>6198</v>
       </c>
-      <c r="N682" s="0" t="n">
+      <c r="N682" s="11" t="n">
         <v>6671019836</v>
       </c>
-      <c r="O682" s="0" t="s">
+      <c r="O682" s="11" t="s">
         <v>6199</v>
       </c>
-      <c r="P682" s="0" t="s">
+      <c r="P682" s="11" t="s">
         <v>6200</v>
       </c>
-      <c r="Q682" s="0" t="s">
+      <c r="Q682" s="11" t="s">
         <v>6201</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="0" t="s">
+      <c r="A683" s="11" t="s">
         <v>6202</v>
       </c>
-      <c r="B683" s="0" t="s">
+      <c r="B683" s="11" t="s">
         <v>6203</v>
       </c>
-      <c r="C683" s="0" t="s">
+      <c r="C683" s="11" t="s">
         <v>6204</v>
       </c>
-      <c r="D683" s="0" t="s">
+      <c r="D683" s="11" t="s">
         <v>6205</v>
       </c>
-      <c r="E683" s="0" t="s">
+      <c r="E683" s="11" t="s">
         <v>2521</v>
       </c>
-      <c r="F683" s="0" t="s">
+      <c r="F683" s="11" t="s">
         <v>2283</v>
       </c>
-      <c r="G683" s="0" t="s">
+      <c r="G683" s="11" t="s">
         <v>3407</v>
       </c>
-      <c r="H683" s="0" t="s">
+      <c r="H683" s="11" t="s">
         <v>3815</v>
       </c>
-      <c r="I683" s="0" t="s">
+      <c r="I683" s="11" t="s">
         <v>2174</v>
       </c>
-      <c r="J683" s="0" t="s">
+      <c r="J683" s="11" t="s">
         <v>2175</v>
       </c>
-      <c r="K683" s="0" t="n">
+      <c r="K683" s="11" t="n">
         <v>5048050866</v>
       </c>
-      <c r="L683" s="0" t="s">
+      <c r="L683" s="11" t="s">
         <v>6206</v>
       </c>
-      <c r="M683" s="0" t="s">
+      <c r="M683" s="11" t="s">
         <v>6207</v>
       </c>
-      <c r="N683" s="0" t="n">
+      <c r="N683" s="11" t="n">
         <v>7714837407</v>
       </c>
-      <c r="O683" s="0" t="s">
+      <c r="O683" s="11" t="s">
         <v>6208</v>
       </c>
-      <c r="P683" s="0" t="s">
+      <c r="P683" s="11" t="s">
         <v>6209</v>
       </c>
-      <c r="Q683" s="0" t="s">
+      <c r="Q683" s="11" t="s">
         <v>6210</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="0" t="s">
+      <c r="A684" s="11" t="s">
         <v>6211</v>
       </c>
-      <c r="B684" s="0" t="s">
+      <c r="B684" s="11" t="s">
         <v>6212</v>
       </c>
-      <c r="C684" s="0" t="s">
+      <c r="C684" s="11" t="s">
         <v>6213</v>
       </c>
-      <c r="D684" s="0" t="s">
+      <c r="D684" s="11" t="s">
         <v>6214</v>
       </c>
-      <c r="E684" s="0" t="s">
+      <c r="E684" s="11" t="s">
         <v>4095</v>
       </c>
-      <c r="F684" s="0" t="s">
+      <c r="F684" s="11" t="s">
         <v>2819</v>
       </c>
-      <c r="G684" s="0" t="s">
+      <c r="G684" s="11" t="s">
         <v>3123</v>
       </c>
-      <c r="H684" s="0" t="s">
+      <c r="H684" s="11" t="s">
         <v>6215</v>
       </c>
-      <c r="I684" s="0" t="s">
+      <c r="I684" s="11" t="s">
         <v>2546</v>
       </c>
-      <c r="J684" s="0" t="s">
+      <c r="J684" s="11" t="s">
         <v>2547</v>
       </c>
-      <c r="K684" s="0" t="n">
+      <c r="K684" s="11" t="n">
         <v>7702679523</v>
       </c>
-      <c r="L684" s="0" t="s">
+      <c r="L684" s="11" t="s">
         <v>6216</v>
       </c>
-      <c r="M684" s="0" t="s">
+      <c r="M684" s="11" t="s">
         <v>6217</v>
       </c>
-      <c r="N684" s="0" t="n">
+      <c r="N684" s="11" t="n">
         <v>400014720</v>
       </c>
-      <c r="O684" s="0" t="s">
+      <c r="O684" s="11" t="s">
         <v>6218</v>
       </c>
-      <c r="P684" s="0" t="s">
+      <c r="P684" s="11" t="s">
         <v>6219</v>
       </c>
-      <c r="Q684" s="0" t="s">
+      <c r="Q684" s="11" t="s">
         <v>6220</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="0" t="s">
+      <c r="A685" s="11" t="s">
         <v>6221</v>
       </c>
-      <c r="B685" s="0" t="s">
+      <c r="B685" s="11" t="s">
         <v>6222</v>
       </c>
-      <c r="C685" s="0" t="s">
+      <c r="C685" s="11" t="s">
         <v>6223</v>
       </c>
-      <c r="D685" s="0" t="s">
+      <c r="D685" s="11" t="s">
         <v>6224</v>
       </c>
-      <c r="E685" s="0" t="s">
+      <c r="E685" s="11" t="s">
         <v>6225</v>
       </c>
-      <c r="F685" s="0" t="s">
+      <c r="F685" s="11" t="s">
         <v>6132</v>
       </c>
-      <c r="G685" s="0" t="s">
+      <c r="G685" s="11" t="s">
         <v>1987</v>
       </c>
-      <c r="H685" s="0" t="s">
+      <c r="H685" s="11" t="s">
         <v>2521</v>
       </c>
-      <c r="I685" s="0" t="s">
+      <c r="I685" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J685" s="0" t="s">
+      <c r="J685" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="K685" s="0" t="n">
+      <c r="K685" s="11" t="n">
         <v>7701031585</v>
       </c>
-      <c r="L685" s="0" t="s">
+      <c r="L685" s="11" t="s">
         <v>6226</v>
       </c>
-      <c r="M685" s="0" t="s">
+      <c r="M685" s="11" t="s">
         <v>6227</v>
       </c>
-      <c r="N685" s="0" t="n">
+      <c r="N685" s="11" t="n">
         <v>6658409139</v>
       </c>
-      <c r="O685" s="0" t="s">
+      <c r="O685" s="11" t="s">
         <v>6228</v>
       </c>
-      <c r="P685" s="0" t="s">
+      <c r="P685" s="11" t="s">
         <v>6229</v>
       </c>
-      <c r="Q685" s="0" t="s">
+      <c r="Q685" s="11" t="s">
         <v>6230</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="0" t="s">
+      <c r="A686" s="11" t="s">
         <v>6231</v>
       </c>
-      <c r="B686" s="0" t="s">
+      <c r="B686" s="11" t="s">
         <v>6232</v>
       </c>
-      <c r="C686" s="0" t="s">
+      <c r="C686" s="11" t="s">
         <v>6233</v>
       </c>
-      <c r="D686" s="0" t="s">
+      <c r="D686" s="11" t="s">
         <v>6234</v>
       </c>
-      <c r="E686" s="0" t="s">
+      <c r="E686" s="11" t="s">
         <v>2521</v>
       </c>
-      <c r="F686" s="0" t="s">
+      <c r="F686" s="11" t="s">
         <v>4642</v>
       </c>
-      <c r="G686" s="0" t="s">
+      <c r="G686" s="11" t="s">
         <v>1922</v>
       </c>
-      <c r="H686" s="0" t="s">
+      <c r="H686" s="11" t="s">
         <v>1922</v>
       </c>
-      <c r="I686" s="0" t="s">
+      <c r="I686" s="11" t="s">
         <v>6235</v>
       </c>
-      <c r="J686" s="0" t="s">
+      <c r="J686" s="11" t="s">
         <v>6236</v>
       </c>
-      <c r="K686" s="0" t="n">
+      <c r="K686" s="11" t="n">
         <v>7723641658</v>
       </c>
-      <c r="L686" s="0" t="s">
+      <c r="L686" s="11" t="s">
         <v>6237</v>
       </c>
-      <c r="M686" s="0" t="s">
+      <c r="M686" s="11" t="s">
         <v>6238</v>
       </c>
-      <c r="N686" s="0" t="n">
+      <c r="N686" s="11" t="n">
         <v>7719491015</v>
       </c>
-      <c r="O686" s="0" t="s">
+      <c r="O686" s="11" t="s">
         <v>6239</v>
       </c>
-      <c r="P686" s="0" t="s">
+      <c r="P686" s="11" t="s">
         <v>6240</v>
       </c>
-      <c r="Q686" s="0" t="s">
+      <c r="Q686" s="11" t="s">
         <v>6241</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="0" t="s">
+      <c r="A687" s="11" t="s">
         <v>6242</v>
       </c>
-      <c r="B687" s="0" t="s">
+      <c r="B687" s="11" t="s">
         <v>6243</v>
       </c>
-      <c r="C687" s="0" t="s">
+      <c r="C687" s="11" t="s">
         <v>6244</v>
       </c>
-      <c r="D687" s="0" t="s">
+      <c r="D687" s="11" t="s">
         <v>6245</v>
       </c>
-      <c r="E687" s="0" t="s">
+      <c r="E687" s="11" t="s">
         <v>3366</v>
       </c>
-      <c r="F687" s="0" t="s">
+      <c r="F687" s="11" t="s">
         <v>4632</v>
       </c>
-      <c r="G687" s="0" t="s">
+      <c r="G687" s="11" t="s">
         <v>4847</v>
       </c>
-      <c r="H687" s="0" t="s">
+      <c r="H687" s="11" t="s">
         <v>3366</v>
       </c>
-      <c r="I687" s="0" t="s">
+      <c r="I687" s="11" t="s">
         <v>6017</v>
       </c>
-      <c r="J687" s="0" t="s">
+      <c r="J687" s="11" t="s">
         <v>6018</v>
       </c>
-      <c r="K687" s="0" t="n">
+      <c r="K687" s="11" t="n">
         <v>7724707421</v>
       </c>
-      <c r="L687" s="0" t="s">
+      <c r="L687" s="11" t="s">
         <v>6246</v>
       </c>
-      <c r="M687" s="0" t="s">
+      <c r="M687" s="11" t="s">
         <v>6247</v>
       </c>
-      <c r="N687" s="0" t="n">
+      <c r="N687" s="11" t="n">
         <v>7719885228</v>
       </c>
-      <c r="O687" s="0" t="s">
+      <c r="O687" s="11" t="s">
         <v>6248</v>
       </c>
-      <c r="P687" s="0" t="s">
+      <c r="P687" s="11" t="s">
         <v>6249</v>
       </c>
-      <c r="Q687" s="0" t="s">
+      <c r="Q687" s="11" t="s">
         <v>6250</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="0" t="s">
+      <c r="A688" s="11" t="s">
         <v>6251</v>
       </c>
-      <c r="B688" s="0" t="s">
+      <c r="B688" s="11" t="s">
         <v>6252</v>
       </c>
-      <c r="C688" s="0" t="s">
+      <c r="C688" s="11" t="s">
         <v>6253</v>
       </c>
-      <c r="D688" s="0" t="s">
+      <c r="D688" s="11" t="s">
         <v>6254</v>
       </c>
-      <c r="E688" s="0" t="s">
+      <c r="E688" s="11" t="s">
         <v>2024</v>
       </c>
-      <c r="F688" s="0" t="s">
+      <c r="F688" s="11" t="s">
         <v>3407</v>
       </c>
-      <c r="G688" s="0" t="s">
+      <c r="G688" s="11" t="s">
         <v>2225</v>
       </c>
-      <c r="H688" s="0" t="s">
+      <c r="H688" s="11" t="s">
         <v>2225</v>
       </c>
-      <c r="I688" s="0" t="s">
+      <c r="I688" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="J688" s="0" t="s">
+      <c r="J688" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="K688" s="0" t="n">
+      <c r="K688" s="11" t="n">
         <v>7734111035</v>
       </c>
-      <c r="L688" s="0" t="s">
+      <c r="L688" s="11" t="s">
         <v>6255</v>
       </c>
-      <c r="M688" s="0" t="s">
+      <c r="M688" s="11" t="s">
         <v>6256</v>
       </c>
-      <c r="N688" s="0" t="n">
+      <c r="N688" s="11" t="n">
         <v>773574183765</v>
       </c>
-      <c r="O688" s="0" t="s">
+      <c r="O688" s="11" t="s">
         <v>5113</v>
       </c>
-      <c r="P688" s="0" t="s">
+      <c r="P688" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="Q688" s="0" t="s">
+      <c r="Q688" s="11" t="s">
         <v>6257</v>
+      </c>
+    </row>
+    <row r="689" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="6" t="n">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="11" t="s">
+        <v>6258</v>
+      </c>
+      <c r="B690" s="11" t="s">
+        <v>6259</v>
+      </c>
+      <c r="C690" s="11" t="s">
+        <v>6260</v>
+      </c>
+      <c r="D690" s="11" t="s">
+        <v>6261</v>
+      </c>
+      <c r="E690" s="11" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F690" s="11" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G690" s="11" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H690" s="11" t="s">
+        <v>6016</v>
+      </c>
+      <c r="I690" s="11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J690" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K690" s="11" t="n">
+        <v>7730087409</v>
+      </c>
+      <c r="L690" s="11" t="s">
+        <v>6262</v>
+      </c>
+      <c r="M690" s="11" t="s">
+        <v>6263</v>
+      </c>
+      <c r="N690" s="11" t="n">
+        <v>662518052006</v>
+      </c>
+      <c r="O690" s="11" t="s">
+        <v>6264</v>
+      </c>
+      <c r="P690" s="11" t="s">
+        <v>6265</v>
+      </c>
+      <c r="Q690" s="11" t="s">
+        <v>6266</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="11" t="s">
+        <v>6267</v>
+      </c>
+      <c r="B691" s="11" t="s">
+        <v>6268</v>
+      </c>
+      <c r="C691" s="11" t="s">
+        <v>6269</v>
+      </c>
+      <c r="D691" s="11" t="s">
+        <v>6270</v>
+      </c>
+      <c r="E691" s="11" t="s">
+        <v>6271</v>
+      </c>
+      <c r="F691" s="11" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G691" s="11" t="s">
+        <v>6271</v>
+      </c>
+      <c r="H691" s="11" t="s">
+        <v>6272</v>
+      </c>
+      <c r="I691" s="11" t="s">
+        <v>6144</v>
+      </c>
+      <c r="J691" s="11"/>
+      <c r="K691" s="11" t="n">
+        <v>5020007701</v>
+      </c>
+      <c r="L691" s="11" t="s">
+        <v>6273</v>
+      </c>
+      <c r="M691" s="11" t="s">
+        <v>6274</v>
+      </c>
+      <c r="N691" s="11" t="n">
+        <v>7705531726</v>
+      </c>
+      <c r="O691" s="11" t="s">
+        <v>6275</v>
+      </c>
+      <c r="P691" s="11" t="s">
+        <v>6276</v>
+      </c>
+      <c r="Q691" s="11" t="s">
+        <v>6277</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="11" t="s">
+        <v>6278</v>
+      </c>
+      <c r="B692" s="11" t="s">
+        <v>6279</v>
+      </c>
+      <c r="C692" s="11" t="s">
+        <v>6280</v>
+      </c>
+      <c r="D692" s="11" t="s">
+        <v>6281</v>
+      </c>
+      <c r="E692" s="11" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F692" s="11" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G692" s="11" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H692" s="11" t="s">
+        <v>2283</v>
+      </c>
+      <c r="I692" s="11" t="s">
+        <v>6282</v>
+      </c>
+      <c r="J692" s="11" t="s">
+        <v>6283</v>
+      </c>
+      <c r="K692" s="11" t="n">
+        <v>7723084936</v>
+      </c>
+      <c r="L692" s="11" t="s">
+        <v>6284</v>
+      </c>
+      <c r="M692" s="11" t="s">
+        <v>6285</v>
+      </c>
+      <c r="N692" s="11" t="n">
+        <v>425004790842</v>
+      </c>
+      <c r="O692" s="11" t="s">
+        <v>6286</v>
+      </c>
+      <c r="P692" s="11" t="s">
+        <v>6287</v>
+      </c>
+      <c r="Q692" s="11" t="s">
+        <v>6288</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="11" t="s">
+        <v>6289</v>
+      </c>
+      <c r="B693" s="11" t="s">
+        <v>6290</v>
+      </c>
+      <c r="C693" s="11" t="s">
+        <v>6291</v>
+      </c>
+      <c r="D693" s="11" t="s">
+        <v>6292</v>
+      </c>
+      <c r="E693" s="11" t="s">
+        <v>5654</v>
+      </c>
+      <c r="F693" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G693" s="11" t="s">
+        <v>5748</v>
+      </c>
+      <c r="H693" s="11" t="s">
+        <v>5748</v>
+      </c>
+      <c r="I693" s="11" t="s">
+        <v>4795</v>
+      </c>
+      <c r="J693" s="11" t="s">
+        <v>4796</v>
+      </c>
+      <c r="K693" s="11" t="n">
+        <v>5034051355</v>
+      </c>
+      <c r="L693" s="11" t="s">
+        <v>6293</v>
+      </c>
+      <c r="M693" s="11" t="s">
+        <v>6294</v>
+      </c>
+      <c r="N693" s="11" t="n">
+        <v>503400405498</v>
+      </c>
+      <c r="O693" s="11" t="s">
+        <v>6295</v>
+      </c>
+      <c r="P693" s="11" t="n">
+        <v>79154162737</v>
+      </c>
+      <c r="Q693" s="11" t="s">
+        <v>6296</v>
       </c>
     </row>
   </sheetData>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8301" uniqueCount="6297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8376" uniqueCount="6354">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -18912,6 +18912,177 @@
   </si>
   <si>
     <t xml:space="preserve">kiprida530@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772809483222000214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728094832 22 000214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">754 902,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ МЕДИЦИНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР АКУШЕРСТВА, ГИНЕКОЛОГИИ И ПЕРИНАТОЛОГИИ ИМЕНИ АКАДЕМИКА В.И.КУЛАКОВА" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "НМИЦ АГП ИМ. В.И.КУЛАКОВА" МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДПРОФМАРКЕТ" (ООО "МЕДПРОФМАРКЕТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕДПРОФМАРКЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143700, ОБЛ МОСКОВСКАЯ 50, РП ШАХОВСКАЯ, УЛ 1-Я СОВЕТСКАЯ, ДОМ 7, ПОМЕЩЕНИЕ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-1713888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@medprofmarket.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3501102084021000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35011020840 21 000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 200 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ "ЕГОРЬЕВСКИЙ ИСТОРИКО-ХУДОЖЕСТВЕННЫЙ МУЗЕЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУК "МУЗЕЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БМП" (ООО "БМП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "БМП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620026, ОБЛ СВЕРДЛОВСКАЯ 66, Г ЕКАТЕРИНБУРГ, УЛ КУЙБЫШЕВА, ДОМ 48Г, КВАРТИРА 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-967-6397824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKABist@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772800895321000697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728008953 21 000697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">546 855,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МАСЛЕНИЦА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МАСЛЕНИЦА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МАСЛЕНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141201, ОБЛ МОСКОВСКАЯ 50, Г ПУШКИНО, Ш КУДРИНСКОЕ, ДОМ 6, КОРПУС ГЛ ПРОИЗВ, ОФИС 415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-3222823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakaz@moloko19.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504015306619000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35040153066 19 000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 011 941 015,56 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.07.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.08.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ КАПИТАЛЬНОГО СТРОИТЕЛЬСТВА АДМИНИСТРАЦИИ РАМЕНСКОГО ГОРОДСКОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УКС АДМИНИСТРАЦИИ РАМЕНСКОГО ГОРОДСКОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙАРСЕНАЛ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙАРСЕНАЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙАРСЕНАЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142100, ОБЛ МОСКОВСКАЯ 50, Г ПОДОЛЬСК, УЛ КОМСОМОЛЬСКАЯ, ДОМ 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-5500558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office@stroy-arsenal.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2773707787221000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27737077872 21 000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378 880,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "МОСКОВСКИЙ ГОРОДСКОЙ ЦЕНТР УСЛОВИЙ И ОХРАНЫ ТРУДА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ МГЦУОТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЫМУРА КОНСТАНТИН ВЛАДИМИРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ДЫМУРА КОНСТАНТИН ВЛАДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ ЧЕЛЯБИНСКАЯ 74, Г МИАСС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (951) 448-44-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vasencko.anton@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -19074,10 +19245,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q693"/>
+  <dimension ref="A1:Q699"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A653" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A689" activeCellId="0" sqref="689:689"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A656" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A694" activeCellId="0" sqref="694:694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52645,6 +52816,276 @@
         <v>6296</v>
       </c>
     </row>
+    <row r="694" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="6" t="n">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="0" t="s">
+        <v>6297</v>
+      </c>
+      <c r="B695" s="0" t="s">
+        <v>6298</v>
+      </c>
+      <c r="C695" s="0" t="s">
+        <v>6299</v>
+      </c>
+      <c r="D695" s="0" t="s">
+        <v>6300</v>
+      </c>
+      <c r="E695" s="0" t="s">
+        <v>5370</v>
+      </c>
+      <c r="F695" s="0" t="s">
+        <v>6301</v>
+      </c>
+      <c r="G695" s="0" t="s">
+        <v>5460</v>
+      </c>
+      <c r="H695" s="0" t="s">
+        <v>3489</v>
+      </c>
+      <c r="I695" s="0" t="s">
+        <v>6302</v>
+      </c>
+      <c r="J695" s="0" t="s">
+        <v>6303</v>
+      </c>
+      <c r="K695" s="0" t="n">
+        <v>7728094832</v>
+      </c>
+      <c r="L695" s="0" t="s">
+        <v>6304</v>
+      </c>
+      <c r="M695" s="0" t="s">
+        <v>6305</v>
+      </c>
+      <c r="N695" s="0" t="n">
+        <v>5079014603</v>
+      </c>
+      <c r="O695" s="0" t="s">
+        <v>6306</v>
+      </c>
+      <c r="P695" s="0" t="s">
+        <v>6307</v>
+      </c>
+      <c r="Q695" s="0" t="s">
+        <v>6308</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="0" t="s">
+        <v>6309</v>
+      </c>
+      <c r="B696" s="0" t="s">
+        <v>6310</v>
+      </c>
+      <c r="C696" s="0" t="s">
+        <v>6311</v>
+      </c>
+      <c r="D696" s="0" t="s">
+        <v>6312</v>
+      </c>
+      <c r="E696" s="0" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F696" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G696" s="0" t="s">
+        <v>3258</v>
+      </c>
+      <c r="H696" s="0" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I696" s="0" t="s">
+        <v>6313</v>
+      </c>
+      <c r="J696" s="0" t="s">
+        <v>6314</v>
+      </c>
+      <c r="K696" s="0" t="n">
+        <v>5011020840</v>
+      </c>
+      <c r="L696" s="0" t="s">
+        <v>6315</v>
+      </c>
+      <c r="M696" s="0" t="s">
+        <v>6316</v>
+      </c>
+      <c r="N696" s="0" t="n">
+        <v>6685147845</v>
+      </c>
+      <c r="O696" s="0" t="s">
+        <v>6317</v>
+      </c>
+      <c r="P696" s="0" t="s">
+        <v>6318</v>
+      </c>
+      <c r="Q696" s="0" t="s">
+        <v>6319</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="0" t="s">
+        <v>6320</v>
+      </c>
+      <c r="B697" s="0" t="s">
+        <v>6321</v>
+      </c>
+      <c r="C697" s="0" t="s">
+        <v>6322</v>
+      </c>
+      <c r="D697" s="0" t="s">
+        <v>6323</v>
+      </c>
+      <c r="E697" s="0" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F697" s="0" t="s">
+        <v>6324</v>
+      </c>
+      <c r="G697" s="0" t="s">
+        <v>2429</v>
+      </c>
+      <c r="H697" s="0" t="s">
+        <v>2715</v>
+      </c>
+      <c r="I697" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J697" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K697" s="0" t="n">
+        <v>7728008953</v>
+      </c>
+      <c r="L697" s="0" t="s">
+        <v>6325</v>
+      </c>
+      <c r="M697" s="0" t="s">
+        <v>6326</v>
+      </c>
+      <c r="N697" s="0" t="n">
+        <v>7705934309</v>
+      </c>
+      <c r="O697" s="0" t="s">
+        <v>6327</v>
+      </c>
+      <c r="P697" s="0" t="s">
+        <v>6328</v>
+      </c>
+      <c r="Q697" s="0" t="s">
+        <v>6329</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="0" t="s">
+        <v>6330</v>
+      </c>
+      <c r="B698" s="0" t="s">
+        <v>6331</v>
+      </c>
+      <c r="C698" s="0" t="s">
+        <v>6332</v>
+      </c>
+      <c r="D698" s="0" t="s">
+        <v>6333</v>
+      </c>
+      <c r="E698" s="0" t="s">
+        <v>6334</v>
+      </c>
+      <c r="F698" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G698" s="0" t="s">
+        <v>6335</v>
+      </c>
+      <c r="H698" s="0" t="s">
+        <v>2690</v>
+      </c>
+      <c r="I698" s="0" t="s">
+        <v>6336</v>
+      </c>
+      <c r="J698" s="0" t="s">
+        <v>6337</v>
+      </c>
+      <c r="K698" s="0" t="n">
+        <v>5040153066</v>
+      </c>
+      <c r="L698" s="0" t="s">
+        <v>6338</v>
+      </c>
+      <c r="M698" s="0" t="s">
+        <v>6339</v>
+      </c>
+      <c r="N698" s="0" t="n">
+        <v>7726673383</v>
+      </c>
+      <c r="O698" s="0" t="s">
+        <v>6340</v>
+      </c>
+      <c r="P698" s="0" t="s">
+        <v>6341</v>
+      </c>
+      <c r="Q698" s="0" t="s">
+        <v>6342</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="0" t="s">
+        <v>6343</v>
+      </c>
+      <c r="B699" s="0" t="s">
+        <v>6344</v>
+      </c>
+      <c r="C699" s="0" t="s">
+        <v>6345</v>
+      </c>
+      <c r="D699" s="0" t="s">
+        <v>6346</v>
+      </c>
+      <c r="E699" s="0" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F699" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G699" s="0" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H699" s="0" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I699" s="0" t="s">
+        <v>6347</v>
+      </c>
+      <c r="J699" s="0" t="s">
+        <v>6348</v>
+      </c>
+      <c r="K699" s="0" t="n">
+        <v>7737077872</v>
+      </c>
+      <c r="L699" s="0" t="s">
+        <v>6349</v>
+      </c>
+      <c r="M699" s="0" t="s">
+        <v>6350</v>
+      </c>
+      <c r="N699" s="0" t="n">
+        <v>741514911449</v>
+      </c>
+      <c r="O699" s="0" t="s">
+        <v>6351</v>
+      </c>
+      <c r="P699" s="0" t="s">
+        <v>6352</v>
+      </c>
+      <c r="Q699" s="0" t="s">
+        <v>6353</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8376" uniqueCount="6354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8451" uniqueCount="6406">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -19083,6 +19083,162 @@
   </si>
   <si>
     <t xml:space="preserve">vasencko.anton@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770911581520000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17709115815 20 000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АРХИТЕКТУРНОЕ БЮРО №1" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АРХИТЕКТУРНОЕ БЮРО №1")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АРХИТЕКТУРНОЕ БЮРО №1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196105, Г САНКТ-ПЕТЕРБУРГ 78, УЛ БЛАГОДАТНАЯ, ДОМ 69, ЛИТЕР А, ПОМЕЩЕНИЕ 3Н ОФИС 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-921-7677221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7677221@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773413512418007237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734135124 18 007237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 924 256,95 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.12.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.12.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.07.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "КОНЦЕРН ВОЗДУШНО-КОСМИЧЕСКОЙ ОБОРОНЫ "АЛМАЗ - АНТЕЙ" (АО "КОНЦЕРН ВКО "АЛМАЗ - АНТЕЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "КОНЦЕРН ВКО "АЛМАЗ - АНТЕЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121471, Г МОСКВА 77, УЛ ВЕРЕЙСКАЯ, 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-2762901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antey@almaz-antey.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2773666811021000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27736668110 21 000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296 915,20 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 2086"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 2086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Агаджанян Самвел АмаяковичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Агаджанян Самвел Амаякович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">р-н Брюховецкий, ст-ца Переясловская, ул Толстого д 24, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772455917020000017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17724559170 20 000017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 215 006,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕЖРЕГИОНАЛЬНОЕ УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ПО НАДЗОРУ В СФЕРЕ ПРИРОДОПОЛЬЗОВАНИЯ ПО Г. МОСКВЕ И КАЛУЖСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕЖРЕГИОНАЛЬНОЕ УПРАВЛЕНИЕ РОСПРИРОДНАДЗОРА ПО Г. МОСКВЕ И КАЛУЖСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕМОТДЕЛСТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕМОТДЕЛСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕМОТДЕЛСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115569, Г МОСКВА 77, УЛ МАРШАЛА ЗАХАРОВА, ДОМ 3, ЭТ 1 ПОМ 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9209170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remotdel1@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770213206421000344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27702132064 21 000344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 818 034,75 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАСЛЕДИЕ" (ООО "НАСЛЕДИЕ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НАСЛЕДИЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107140, Г МОСКВА 77, ТУП БОЛЬШОЙ КРАСНОПРУДНЫЙ, ДОМ 8/12, Э/ПОМ/К/ОФ 0/2/4/83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (996) 740-69-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@naslediebild.com</t>
   </si>
 </sst>
 </file>
@@ -19245,10 +19401,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q699"/>
+  <dimension ref="A1:Q705"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A656" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A694" activeCellId="0" sqref="694:694"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A679" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A701" activeCellId="0" sqref="A701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52822,268 +52978,538 @@
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="0" t="s">
+      <c r="A695" s="11" t="s">
         <v>6297</v>
       </c>
-      <c r="B695" s="0" t="s">
+      <c r="B695" s="11" t="s">
         <v>6298</v>
       </c>
-      <c r="C695" s="0" t="s">
+      <c r="C695" s="11" t="s">
         <v>6299</v>
       </c>
-      <c r="D695" s="0" t="s">
+      <c r="D695" s="11" t="s">
         <v>6300</v>
       </c>
-      <c r="E695" s="0" t="s">
+      <c r="E695" s="11" t="s">
         <v>5370</v>
       </c>
-      <c r="F695" s="0" t="s">
+      <c r="F695" s="11" t="s">
         <v>6301</v>
       </c>
-      <c r="G695" s="0" t="s">
+      <c r="G695" s="11" t="s">
         <v>5460</v>
       </c>
-      <c r="H695" s="0" t="s">
+      <c r="H695" s="11" t="s">
         <v>3489</v>
       </c>
-      <c r="I695" s="0" t="s">
+      <c r="I695" s="11" t="s">
         <v>6302</v>
       </c>
-      <c r="J695" s="0" t="s">
+      <c r="J695" s="11" t="s">
         <v>6303</v>
       </c>
-      <c r="K695" s="0" t="n">
+      <c r="K695" s="11" t="n">
         <v>7728094832</v>
       </c>
-      <c r="L695" s="0" t="s">
+      <c r="L695" s="11" t="s">
         <v>6304</v>
       </c>
-      <c r="M695" s="0" t="s">
+      <c r="M695" s="11" t="s">
         <v>6305</v>
       </c>
-      <c r="N695" s="0" t="n">
+      <c r="N695" s="11" t="n">
         <v>5079014603</v>
       </c>
-      <c r="O695" s="0" t="s">
+      <c r="O695" s="11" t="s">
         <v>6306</v>
       </c>
-      <c r="P695" s="0" t="s">
+      <c r="P695" s="11" t="s">
         <v>6307</v>
       </c>
-      <c r="Q695" s="0" t="s">
+      <c r="Q695" s="11" t="s">
         <v>6308</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="0" t="s">
+      <c r="A696" s="11" t="s">
         <v>6309</v>
       </c>
-      <c r="B696" s="0" t="s">
+      <c r="B696" s="11" t="s">
         <v>6310</v>
       </c>
-      <c r="C696" s="0" t="s">
+      <c r="C696" s="11" t="s">
         <v>6311</v>
       </c>
-      <c r="D696" s="0" t="s">
+      <c r="D696" s="11" t="s">
         <v>6312</v>
       </c>
-      <c r="E696" s="0" t="s">
+      <c r="E696" s="11" t="s">
         <v>2065</v>
       </c>
-      <c r="F696" s="0" t="s">
+      <c r="F696" s="11" t="s">
         <v>1922</v>
       </c>
-      <c r="G696" s="0" t="s">
+      <c r="G696" s="11" t="s">
         <v>3258</v>
       </c>
-      <c r="H696" s="0" t="s">
+      <c r="H696" s="11" t="s">
         <v>3258</v>
       </c>
-      <c r="I696" s="0" t="s">
+      <c r="I696" s="11" t="s">
         <v>6313</v>
       </c>
-      <c r="J696" s="0" t="s">
+      <c r="J696" s="11" t="s">
         <v>6314</v>
       </c>
-      <c r="K696" s="0" t="n">
+      <c r="K696" s="11" t="n">
         <v>5011020840</v>
       </c>
-      <c r="L696" s="0" t="s">
+      <c r="L696" s="11" t="s">
         <v>6315</v>
       </c>
-      <c r="M696" s="0" t="s">
+      <c r="M696" s="11" t="s">
         <v>6316</v>
       </c>
-      <c r="N696" s="0" t="n">
+      <c r="N696" s="11" t="n">
         <v>6685147845</v>
       </c>
-      <c r="O696" s="0" t="s">
+      <c r="O696" s="11" t="s">
         <v>6317</v>
       </c>
-      <c r="P696" s="0" t="s">
+      <c r="P696" s="11" t="s">
         <v>6318</v>
       </c>
-      <c r="Q696" s="0" t="s">
+      <c r="Q696" s="11" t="s">
         <v>6319</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="0" t="s">
+      <c r="A697" s="11" t="s">
         <v>6320</v>
       </c>
-      <c r="B697" s="0" t="s">
+      <c r="B697" s="11" t="s">
         <v>6321</v>
       </c>
-      <c r="C697" s="0" t="s">
+      <c r="C697" s="11" t="s">
         <v>6322</v>
       </c>
-      <c r="D697" s="0" t="s">
+      <c r="D697" s="11" t="s">
         <v>6323</v>
       </c>
-      <c r="E697" s="0" t="s">
+      <c r="E697" s="11" t="s">
         <v>2715</v>
       </c>
-      <c r="F697" s="0" t="s">
+      <c r="F697" s="11" t="s">
         <v>6324</v>
       </c>
-      <c r="G697" s="0" t="s">
+      <c r="G697" s="11" t="s">
         <v>2429</v>
       </c>
-      <c r="H697" s="0" t="s">
+      <c r="H697" s="11" t="s">
         <v>2715</v>
       </c>
-      <c r="I697" s="0" t="s">
+      <c r="I697" s="11" t="s">
         <v>1210</v>
       </c>
-      <c r="J697" s="0" t="s">
+      <c r="J697" s="11" t="s">
         <v>1211</v>
       </c>
-      <c r="K697" s="0" t="n">
+      <c r="K697" s="11" t="n">
         <v>7728008953</v>
       </c>
-      <c r="L697" s="0" t="s">
+      <c r="L697" s="11" t="s">
         <v>6325</v>
       </c>
-      <c r="M697" s="0" t="s">
+      <c r="M697" s="11" t="s">
         <v>6326</v>
       </c>
-      <c r="N697" s="0" t="n">
+      <c r="N697" s="11" t="n">
         <v>7705934309</v>
       </c>
-      <c r="O697" s="0" t="s">
+      <c r="O697" s="11" t="s">
         <v>6327</v>
       </c>
-      <c r="P697" s="0" t="s">
+      <c r="P697" s="11" t="s">
         <v>6328</v>
       </c>
-      <c r="Q697" s="0" t="s">
+      <c r="Q697" s="11" t="s">
         <v>6329</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="0" t="s">
+      <c r="A698" s="11" t="s">
         <v>6330</v>
       </c>
-      <c r="B698" s="0" t="s">
+      <c r="B698" s="11" t="s">
         <v>6331</v>
       </c>
-      <c r="C698" s="0" t="s">
+      <c r="C698" s="11" t="s">
         <v>6332</v>
       </c>
-      <c r="D698" s="0" t="s">
+      <c r="D698" s="11" t="s">
         <v>6333</v>
       </c>
-      <c r="E698" s="0" t="s">
+      <c r="E698" s="11" t="s">
         <v>6334</v>
       </c>
-      <c r="F698" s="0" t="s">
+      <c r="F698" s="11" t="s">
         <v>1922</v>
       </c>
-      <c r="G698" s="0" t="s">
+      <c r="G698" s="11" t="s">
         <v>6335</v>
       </c>
-      <c r="H698" s="0" t="s">
+      <c r="H698" s="11" t="s">
         <v>2690</v>
       </c>
-      <c r="I698" s="0" t="s">
+      <c r="I698" s="11" t="s">
         <v>6336</v>
       </c>
-      <c r="J698" s="0" t="s">
+      <c r="J698" s="11" t="s">
         <v>6337</v>
       </c>
-      <c r="K698" s="0" t="n">
+      <c r="K698" s="11" t="n">
         <v>5040153066</v>
       </c>
-      <c r="L698" s="0" t="s">
+      <c r="L698" s="11" t="s">
         <v>6338</v>
       </c>
-      <c r="M698" s="0" t="s">
+      <c r="M698" s="11" t="s">
         <v>6339</v>
       </c>
-      <c r="N698" s="0" t="n">
+      <c r="N698" s="11" t="n">
         <v>7726673383</v>
       </c>
-      <c r="O698" s="0" t="s">
+      <c r="O698" s="11" t="s">
         <v>6340</v>
       </c>
-      <c r="P698" s="0" t="s">
+      <c r="P698" s="11" t="s">
         <v>6341</v>
       </c>
-      <c r="Q698" s="0" t="s">
+      <c r="Q698" s="11" t="s">
         <v>6342</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="0" t="s">
+      <c r="A699" s="11" t="s">
         <v>6343</v>
       </c>
-      <c r="B699" s="0" t="s">
+      <c r="B699" s="11" t="s">
         <v>6344</v>
       </c>
-      <c r="C699" s="0" t="s">
+      <c r="C699" s="11" t="s">
         <v>6345</v>
       </c>
-      <c r="D699" s="0" t="s">
+      <c r="D699" s="11" t="s">
         <v>6346</v>
       </c>
-      <c r="E699" s="0" t="s">
+      <c r="E699" s="11" t="s">
         <v>2508</v>
       </c>
-      <c r="F699" s="0" t="s">
+      <c r="F699" s="11" t="s">
         <v>1922</v>
       </c>
-      <c r="G699" s="0" t="s">
+      <c r="G699" s="11" t="s">
         <v>2188</v>
       </c>
-      <c r="H699" s="0" t="s">
+      <c r="H699" s="11" t="s">
         <v>3366</v>
       </c>
-      <c r="I699" s="0" t="s">
+      <c r="I699" s="11" t="s">
         <v>6347</v>
       </c>
-      <c r="J699" s="0" t="s">
+      <c r="J699" s="11" t="s">
         <v>6348</v>
       </c>
-      <c r="K699" s="0" t="n">
+      <c r="K699" s="11" t="n">
         <v>7737077872</v>
       </c>
-      <c r="L699" s="0" t="s">
+      <c r="L699" s="11" t="s">
         <v>6349</v>
       </c>
-      <c r="M699" s="0" t="s">
+      <c r="M699" s="11" t="s">
         <v>6350</v>
       </c>
-      <c r="N699" s="0" t="n">
+      <c r="N699" s="11" t="n">
         <v>741514911449</v>
       </c>
-      <c r="O699" s="0" t="s">
+      <c r="O699" s="11" t="s">
         <v>6351</v>
       </c>
-      <c r="P699" s="0" t="s">
+      <c r="P699" s="11" t="s">
         <v>6352</v>
       </c>
-      <c r="Q699" s="0" t="s">
+      <c r="Q699" s="11" t="s">
         <v>6353</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="1" t="n">
+        <v>24.02</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="0" t="s">
+        <v>6354</v>
+      </c>
+      <c r="B701" s="0" t="s">
+        <v>6355</v>
+      </c>
+      <c r="C701" s="0" t="s">
+        <v>6356</v>
+      </c>
+      <c r="D701" s="0" t="s">
+        <v>5379</v>
+      </c>
+      <c r="E701" s="0" t="s">
+        <v>6357</v>
+      </c>
+      <c r="F701" s="0" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G701" s="0" t="s">
+        <v>5171</v>
+      </c>
+      <c r="H701" s="0" t="s">
+        <v>3815</v>
+      </c>
+      <c r="I701" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="J701" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="K701" s="0" t="n">
+        <v>7707448255</v>
+      </c>
+      <c r="L701" s="0" t="s">
+        <v>6358</v>
+      </c>
+      <c r="M701" s="0" t="s">
+        <v>6359</v>
+      </c>
+      <c r="N701" s="0" t="n">
+        <v>7826097084</v>
+      </c>
+      <c r="O701" s="0" t="s">
+        <v>6360</v>
+      </c>
+      <c r="P701" s="0" t="s">
+        <v>6361</v>
+      </c>
+      <c r="Q701" s="0" t="s">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="0" t="s">
+        <v>6363</v>
+      </c>
+      <c r="B702" s="0" t="s">
+        <v>6364</v>
+      </c>
+      <c r="C702" s="0" t="s">
+        <v>6365</v>
+      </c>
+      <c r="D702" s="0" t="s">
+        <v>6366</v>
+      </c>
+      <c r="E702" s="0" t="s">
+        <v>6367</v>
+      </c>
+      <c r="F702" s="0" t="s">
+        <v>3937</v>
+      </c>
+      <c r="G702" s="0" t="s">
+        <v>6368</v>
+      </c>
+      <c r="H702" s="0" t="s">
+        <v>6369</v>
+      </c>
+      <c r="I702" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J702" s="0" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K702" s="0" t="n">
+        <v>7734135124</v>
+      </c>
+      <c r="L702" s="0" t="s">
+        <v>6370</v>
+      </c>
+      <c r="M702" s="0" t="s">
+        <v>6371</v>
+      </c>
+      <c r="N702" s="0" t="n">
+        <v>7731084175</v>
+      </c>
+      <c r="O702" s="0" t="s">
+        <v>6372</v>
+      </c>
+      <c r="P702" s="0" t="s">
+        <v>6373</v>
+      </c>
+      <c r="Q702" s="0" t="s">
+        <v>6374</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="0" t="s">
+        <v>6375</v>
+      </c>
+      <c r="B703" s="0" t="s">
+        <v>6376</v>
+      </c>
+      <c r="C703" s="0" t="s">
+        <v>6377</v>
+      </c>
+      <c r="D703" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="E703" s="0" t="s">
+        <v>3533</v>
+      </c>
+      <c r="F703" s="0" t="s">
+        <v>6379</v>
+      </c>
+      <c r="G703" s="0" t="s">
+        <v>2934</v>
+      </c>
+      <c r="H703" s="0" t="s">
+        <v>6380</v>
+      </c>
+      <c r="I703" s="0" t="s">
+        <v>6381</v>
+      </c>
+      <c r="J703" s="0" t="s">
+        <v>6382</v>
+      </c>
+      <c r="K703" s="0" t="n">
+        <v>7736668110</v>
+      </c>
+      <c r="L703" s="0" t="s">
+        <v>6383</v>
+      </c>
+      <c r="M703" s="0" t="s">
+        <v>6384</v>
+      </c>
+      <c r="N703" s="0" t="n">
+        <v>232704633826</v>
+      </c>
+      <c r="O703" s="0" t="s">
+        <v>6385</v>
+      </c>
+      <c r="P703" s="0" t="s">
+        <v>2978</v>
+      </c>
+      <c r="Q703" s="0" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="0" t="s">
+        <v>6386</v>
+      </c>
+      <c r="B704" s="0" t="s">
+        <v>6387</v>
+      </c>
+      <c r="C704" s="0" t="s">
+        <v>6388</v>
+      </c>
+      <c r="D704" s="0" t="s">
+        <v>6389</v>
+      </c>
+      <c r="E704" s="0" t="s">
+        <v>4480</v>
+      </c>
+      <c r="F704" s="0" t="s">
+        <v>2934</v>
+      </c>
+      <c r="G704" s="0" t="s">
+        <v>4481</v>
+      </c>
+      <c r="H704" s="0" t="s">
+        <v>2036</v>
+      </c>
+      <c r="I704" s="0" t="s">
+        <v>6390</v>
+      </c>
+      <c r="J704" s="0" t="s">
+        <v>6391</v>
+      </c>
+      <c r="K704" s="0" t="n">
+        <v>7724559170</v>
+      </c>
+      <c r="L704" s="0" t="s">
+        <v>6392</v>
+      </c>
+      <c r="M704" s="0" t="s">
+        <v>6393</v>
+      </c>
+      <c r="N704" s="0" t="n">
+        <v>7737131618</v>
+      </c>
+      <c r="O704" s="0" t="s">
+        <v>6394</v>
+      </c>
+      <c r="P704" s="0" t="s">
+        <v>6395</v>
+      </c>
+      <c r="Q704" s="0" t="s">
+        <v>6396</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="0" t="s">
+        <v>6397</v>
+      </c>
+      <c r="B705" s="0" t="s">
+        <v>6398</v>
+      </c>
+      <c r="C705" s="0" t="s">
+        <v>6399</v>
+      </c>
+      <c r="D705" s="0" t="s">
+        <v>6400</v>
+      </c>
+      <c r="E705" s="0" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F705" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G705" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="H705" s="0" t="s">
+        <v>6380</v>
+      </c>
+      <c r="I705" s="0" t="s">
+        <v>2343</v>
+      </c>
+      <c r="J705" s="0" t="s">
+        <v>2344</v>
+      </c>
+      <c r="K705" s="0" t="n">
+        <v>7702132064</v>
+      </c>
+      <c r="L705" s="0" t="s">
+        <v>6401</v>
+      </c>
+      <c r="M705" s="0" t="s">
+        <v>6402</v>
+      </c>
+      <c r="N705" s="0" t="n">
+        <v>7708387132</v>
+      </c>
+      <c r="O705" s="0" t="s">
+        <v>6403</v>
+      </c>
+      <c r="P705" s="0" t="s">
+        <v>6404</v>
+      </c>
+      <c r="Q705" s="0" t="s">
+        <v>6405</v>
       </c>
     </row>
   </sheetData>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8451" uniqueCount="6406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8976" uniqueCount="6749">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -19239,19 +19239,1066 @@
   </si>
   <si>
     <t xml:space="preserve">info@naslediebild.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-05.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770807545420000316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17708075454 20 000316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 870 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОДЕЙСТВИЕ СТРОИТЕЛЬСТВУ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СОДЕЙСТВИЕ СТРОИТЕЛЬСТВУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109029, Г МОСКВА 77, УЛ НИЖЕГОРОДСКАЯ, ДОМ 32, СТР. 3, ОФИС 320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-977-3092954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504101975422000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25041019754 22 000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 853 744,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ СТРОИТЕЛЬНАЯ КОРПОРАЦИЯ  "СТАТУС" (ООО СК "СТАТУС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО СК "СТАТУС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115193, Г МОСКВА 77, УЛ САЙКИНА, ДОМ 11/2, КОМНАТА 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322-13-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status-sk@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773017661020000079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17730176610 20 000079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 493 424,68 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЗОЛОТАЯ НИТЬ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЗОЛОТАЯ НИТЬ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЗОЛОТАЯ НИТЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">432044, ОБЛ УЛЬЯНОВСКАЯ 73, Г УЛЬЯНОВСК, УЛ ЛУНАЧАРСКОГО, ДОМ 23-В, ПОМЕЩЕНИЕ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-981-1669443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simbirteks.olga@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771002334020000133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17710023340 20 000133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 999 800,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ ДЕЛАМИ ПРЕЗИДЕНТА РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЗОДЧИЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЗОДЧИЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЗОДЧИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196066, Г САНКТ-ПЕТЕРБУРГ 78, ПР-КТ ЛЕНИНСКИЙ, ДОМ 161, КОРПУС 2 ЛИТЕР А, ПОМЕЩЕНИЕ 15-С №15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9661408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@zodchiy.biz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770336386820000075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17703363868 20 000075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122 200 656,91 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ СПО "АДЕПТ-СТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ СПО "АДЕПТ-СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО СПО "АДЕПТ-СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152023, ОБЛ ЯРОСЛАВСКАЯ 76, Г ПЕРЕСЛАВЛЬ-ЗАЛЕССКИЙ, УЛ СВОБОДЫ, ДОМ 99, ОФИС 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-985-2202877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ns600@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504101975422000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25041019754 22 000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 261 140,91 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЫШКО ОЛЬГА ГРИГОРЬЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП МЫШКО ОЛЬГА ГРИГОРЬЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г НОГИНСК, РАБОЧИЙ ПО ОБУХОВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-1199911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psk_ps@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3501101980621000509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35011019806 21 000509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178 660,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НИЦФ" (ООО "НИЦФ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НИЦФ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">392000, ОБЛ ТАМБОВСКАЯ 68, Г ТАМБОВ, УЛ БАСТИОННАЯ, 8 К</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7475-278-12-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo.nicf.tmb@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503103554920000055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15031035549 20 000055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">671 447 903,55 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "ФИРМА НОВОСТРОЙ" (АКЦИОНЕРНОЕ ОБЩЕСТВО "ФИРМА НОВОСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "ФИРМА НОВОСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">369000, РЕСП КАРАЧАЕВО-ЧЕРКЕССКАЯ 09, Г ЧЕРКЕССК, УЛ ПОПОВА, ДОМ 62, КОМНАТА 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-7034633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@f-nov.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503200163021000140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15032001630 21 000140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">377 666,66 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИНЭКСП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИНЭКСП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФИНЭКСП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214000, ОБЛ. СМОЛЕНСКАЯ 67, Г. Смоленск, ПР-КТ ГАГАРИНА, Д. 10/2, ОФИС 329Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-929-9951577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooofineksp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504805161221000200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15048051612 21 000200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">731 250,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ВОЙСКОВАЯ ЧАСТЬ 52583"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "В/Ч 52583"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЮЖУРАЛКОМПЛЕКТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЮЖУРАЛКОМПЛЕКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЮЖУРАЛКОМПЛЕКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450008, РЕСП БАШКОРТОСТАН 02, Г УФА, УЛ ЛЕНИНА, ДОМ 70, КОМНАТА 507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-347-2734188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ufajural@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500506424721000243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25005064247 21 000243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 296 506,62 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ АВТОНОМНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ВОСКРЕСЕНСКАЯ ПЕРВАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛЮБЕРЕЦКИЙ СТРОЙ-КАПИТАЛ" (ООО "ЛЮБЕРЕЦКИЙ СТРОЙ-КАПИТАЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЛЮБЕРЕЦКИЙ СТРОЙ-КАПИТАЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140054, ОБЛ МОСКОВСКАЯ 50, Г КОТЕЛЬНИКИ, УЛ КУЗЬМИНСКАЯ, ДОМ 15, КВАРТИРА 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7496-554-89-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stroikap@ya.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772528924821000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17725289248 21 000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321 666,67 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ЭКСПЕРТИЗЫ И КООРДИНАЦИИ ИНФОРМАТИЗАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ЦЭКИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КБК" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КБК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-1897988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kbk.ltd.spb@gmail.cok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1502403018721000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15024030187 21 000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 195 166,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ "ГОСУДАРСТВЕННЫЙ МУЗЕЙ-УСАДЬБА "АРХАНГЕЛЬСКОЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУЗЕЙ-УСАДЬБА "АРХАНГЕЛЬСКОЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХНОКРАФТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХНОКРАФТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕХНОКРАФТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352931, КРАЙ КРАСНОДАРСКИЙ 23, Г АРМАВИР, УЛ ЭНГЕЛЬСА, ДОМ 25, ОФИС 249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-938-5371958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technocraft@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770405509420000643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704055094 20 000643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 572 037,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭВЕЛИНА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭВЕЛИНА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭВЕЛИНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303500, ОБЛ ОРЛОВСКАЯ 57, Р-Н НОВОСИЛЬСКИЙ, С ЗАРЕЧЬЕ, УЛ ЗАРЕЧНАЯ, ДОМ 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-910-2040715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsharoyev@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773108297121000780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17731082971 21 000780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 524 583,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТИМУЛ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТИМУЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТИМУЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610046, ОБЛ КИРОВСКАЯ 43, Г КИРОВ, УЛ ТРУДА, ДОМ 84А, ОФИС 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-8332-321682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadovnik_83@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675292921000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706752929 21 000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 468 413,15 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕШЕНИЯ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕШЕНИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕШЕНИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143986, ОБЛ МОСКОВСКАЯ 50, Г БАЛАШИХА, Ш САВВИНСКОЕ (ЖЕЛЕЗНОДОРОЖНЫЙ МКР.), ДОМ 2, КВАРТИРА 132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-977-7268292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solutions@ro.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770540134022000097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705401340 22 000097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423 360,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОНСУЛ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОНСУЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОНСУЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142700, ОБЛ. МОСКОВСКАЯ 50, Г. Видное, Б-Р ЗЕЛЕНЫЕ АЛЛЕИ, Д. 9, ПОМЕЩ. 435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-951-3833903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gora_f@internet.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773411103521000329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734111035 21 000329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548 249,13 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИСПЫТАТЕЛЬНОЕ И ТЕСТОВОЕ ОБОРУДОВАНИЕ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИСПЫТАТЕЛЬНОЕ И ТЕСТОВОЕ ОБОРУДОВАНИЕ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИСПЫТАТЕЛЬНОЕ И ТЕСТОВОЕ ОБОРУДОВАНИЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119501, Г МОСКВА 77, УЛ ВЕЕРНАЯ, ДОМ 22, КОРПУС 3, КВАРТИРА 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-1547210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nauvad14@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770629450021000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706294500 21 000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЦЕНТРАЛЬНОЕ БЮРО ИНФОРМАЦИИ МИНПРИРОДЫ РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ЦБИ МИНПРИРОДЫ РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НОВОТЭК" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НОВОТЭК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НОВОТЭК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344103, ОБЛ. РОСТОВСКАЯ 61, Г. Ростов-на-Дону, ПР-КТ СТАЧКИ, Д. 320, ОФИС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-928-1635052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">novotek-don@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505001074021000131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35050010740 21 000131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЗАКАЗ62" (ООО "ЗАКАЗ62")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЗАКАЗ62"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02-01.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 341 720,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТОРГОВЫЙ ДОМ "ПОСТАВЩИК" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТОРГОВЫЙ ДОМ "ПОСТАВЩИК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ТОРГОВЫЙ ДОМ "ПОСТАВЩИК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603029, ОБЛ НИЖЕГОРОДСКАЯ 52, Г НИЖНИЙ НОВГОРОД, УЛ КАХОВСКАЯ, ДОМ 1А, ПОМЕЩЕНИЕ 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-987-5330801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@tdpost.ru</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ООО </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"НОВОТЭК"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500110726722000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35001107267 22 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 310 400,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДСКОГО ОКРУГА БАЛАШИХА "БЛАГОУСТРОЙСТВО-БАЛАШИХА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "БЛАГОУСТРОЙСТВО-БАЛАШИХА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЛАСЕНКО ВЛАДИМИР НИКОЛАЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ВЛАСЕНКО ВЛАДИМИР НИКОЛАЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ БРЯНСКАЯ 32, Р-Н СЕВСКИЙ, С КНЯГИНИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-929-6771533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">astra2009@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-28.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770757556721000265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707575567 21 000265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 950 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "АВАНГАРД" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "АВАНГАРД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "АВАНГАРД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107497, Г МОСКВА 77, УЛ МОНТАЖНАЯ, ДОМ 9, СТРОЕНИЕ 1, ЭТ 3 ПОМ IV КОМ 48 (РМ62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-904-9707781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avangard_chop@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770989550921004827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17709895509 21 004827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИМОННИКОВ ДМИТРИЙ АЛЕКСАНДРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЛИМОННИКОВ ДМИТРИЙ АЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ НИЖЕГОРОДСКАЯ 52, Г НИЖНИЙ НОВГОРОД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-920-2539812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4139812@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504719141621000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35047191416 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">441 082,86 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВТОНОМНОЕ УЧРЕЖДЕНИЕ МУНИЦИПАЛЬНОГО ОБРАЗОВАНИЯ ГОРОДСКОГО ОКРУГА ДОЛГОПРУДНЫЙ "ФИЗКУЛЬТУРНО-СПОРТИВНЫЙ КОМПЛЕКС "САЛЮТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АУ "ФСК-"САЛЮТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИНЭКСП" (ООО "ФИНЭКСП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1502921127521000045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15029211275 21 000045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504411967621000582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25044119676 21 000582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">867 308,34 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МАДИН" (ООО "МАДИН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МАДИН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603062, ОБЛ НИЖЕГОРОДСКАЯ 52, Г НИЖНИЙ НОВГОРОД, УЛ ГОРНАЯ, ДОМ 15А, ПОМЕЩЕНИЕ 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-831-4618786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petrova.n@madin.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503200422221000213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35032004222 21 000213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХНОЛОГИЯ" (ООО "ТЕХНОЛОГИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕХНОЛОГИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129085, Г МОСКВА 77, ПРОЕЗД МУРМАНСКИЙ, ДОМ 1А, КОРПУС 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-965-2544142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a9728379@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504102230921000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25041022309 21 000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 745 779,77 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "ФИНАНСОВО-АНАЛИТИЧЕСКИЙ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ МОСКОВСКОЙ ОБЛАСТИ "ФАЦ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КРАП" (ООО "КРАП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КРАП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">660017, КРАЙ КРАСНОЯРСКИЙ 24, Г КРАСНОЯРСК, УЛ ОБОРОНЫ, ДОМ 3, ПОМЕЩЕНИЕ №18, ОФИС 302/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-983-3777008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tat@iskra-p.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=175893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=4504700822017000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45047008220 17 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 886 011 262,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.12.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "НПО ЭНЕРГОМАШ ИМЕНИ АКАДЕМИКА В.П.ГЛУШКО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "НПО ЭНЕРГОМАШ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "Инфралинк" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ  "Инфралинк")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО  "Инфралинк"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119017, г МОСКВА, Пыжевский переулок, д.5 стр.1 этаж 2 офис 222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9563311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public@compulink.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772708479017000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17727084790 17 000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">577 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.12.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.04.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ВСЕРОССИЙСКИЙ НАУЧНО-ИССЛЕДОВАТЕЛЬСКИЙ ИНСТИТУТ ОХРАНЫ ОКРУЖАЮЩЕЙ СРЕДЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ВНИИ ЭКОЛОГИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЦЕНТРАЛЬНОЕ ПРОЕКТНО-ИЗЫСКАТЕЛЬСКОЕ ПРЕДПРИЯТИЕ "ГЕНЕЗИС-ЦЕНТР" (ООО "ЦПИП "ГЕНЕЗИС-ЦЕНТР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЦПИП "ГЕНЕЗИС-ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117198, Г МОСКВА 77, УЛ ОСТРОВИТЯНОВА, 5, 3, ЭТАЖ1 ПОМXI КОМН.1-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-7372278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mosgis@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770779516021000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707795160 21 000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 444 444,44 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОЩЕЕНКО ОЛЕГ ЮРЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КОЩЕЕНКО ОЛЕГ ЮРЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-2550451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9262550451@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772672699821000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27726726998 21 000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 683 002,09 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 556"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПВМ-ГРУПП" (ООО "ПВМ-ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПВМ-ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108801, Г МОСКВА 77, - Сосенское, - Коммунарка, УЛ ПОТАПОВСКАЯ РОЩА, Д. 4, К. 4, ПОМЕЩ. 1, ОФИС 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (926) 975-39-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fotenberg@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771200865120000097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17712008651 20 000097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 203 777,68 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХНОЮНИТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХНОЮНИТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕХНОЮНИТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109004, Г МОСКВА 77, УЛ НИКОЛОЯМСКАЯ, ДОМ 43, КОРПУС 4, ЭТ 9 П I К 6 РМ С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-4095819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texnounit18@yandex.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -19285,6 +20332,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -19335,7 +20394,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -19384,6 +20443,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19401,10 +20476,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q705"/>
+  <dimension ref="A1:Q744"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A679" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A701" activeCellId="0" sqref="A701"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A709" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A741" activeCellId="0" sqref="A741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53248,273 +54323,2146 @@
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="0" t="s">
+      <c r="A701" s="11" t="s">
         <v>6354</v>
       </c>
-      <c r="B701" s="0" t="s">
+      <c r="B701" s="11" t="s">
         <v>6355</v>
       </c>
-      <c r="C701" s="0" t="s">
+      <c r="C701" s="11" t="s">
         <v>6356</v>
       </c>
-      <c r="D701" s="0" t="s">
+      <c r="D701" s="11" t="s">
         <v>5379</v>
       </c>
-      <c r="E701" s="0" t="s">
+      <c r="E701" s="11" t="s">
         <v>6357</v>
       </c>
-      <c r="F701" s="0" t="s">
+      <c r="F701" s="11" t="s">
         <v>3224</v>
       </c>
-      <c r="G701" s="0" t="s">
+      <c r="G701" s="11" t="s">
         <v>5171</v>
       </c>
-      <c r="H701" s="0" t="s">
+      <c r="H701" s="11" t="s">
         <v>3815</v>
       </c>
-      <c r="I701" s="0" t="s">
+      <c r="I701" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J701" s="0" t="s">
+      <c r="J701" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="K701" s="0" t="n">
+      <c r="K701" s="11" t="n">
         <v>7707448255</v>
       </c>
-      <c r="L701" s="0" t="s">
+      <c r="L701" s="11" t="s">
         <v>6358</v>
       </c>
-      <c r="M701" s="0" t="s">
+      <c r="M701" s="11" t="s">
         <v>6359</v>
       </c>
-      <c r="N701" s="0" t="n">
+      <c r="N701" s="11" t="n">
         <v>7826097084</v>
       </c>
-      <c r="O701" s="0" t="s">
+      <c r="O701" s="11" t="s">
         <v>6360</v>
       </c>
-      <c r="P701" s="0" t="s">
+      <c r="P701" s="11" t="s">
         <v>6361</v>
       </c>
-      <c r="Q701" s="0" t="s">
+      <c r="Q701" s="11" t="s">
         <v>6362</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="0" t="s">
+      <c r="A702" s="11" t="s">
         <v>6363</v>
       </c>
-      <c r="B702" s="0" t="s">
+      <c r="B702" s="11" t="s">
         <v>6364</v>
       </c>
-      <c r="C702" s="0" t="s">
+      <c r="C702" s="11" t="s">
         <v>6365</v>
       </c>
-      <c r="D702" s="0" t="s">
+      <c r="D702" s="11" t="s">
         <v>6366</v>
       </c>
-      <c r="E702" s="0" t="s">
+      <c r="E702" s="11" t="s">
         <v>6367</v>
       </c>
-      <c r="F702" s="0" t="s">
+      <c r="F702" s="11" t="s">
         <v>3937</v>
       </c>
-      <c r="G702" s="0" t="s">
+      <c r="G702" s="11" t="s">
         <v>6368</v>
       </c>
-      <c r="H702" s="0" t="s">
+      <c r="H702" s="11" t="s">
         <v>6369</v>
       </c>
-      <c r="I702" s="0" t="s">
+      <c r="I702" s="11" t="s">
         <v>1291</v>
       </c>
-      <c r="J702" s="0" t="s">
+      <c r="J702" s="11" t="s">
         <v>1292</v>
       </c>
-      <c r="K702" s="0" t="n">
+      <c r="K702" s="11" t="n">
         <v>7734135124</v>
       </c>
-      <c r="L702" s="0" t="s">
+      <c r="L702" s="11" t="s">
         <v>6370</v>
       </c>
-      <c r="M702" s="0" t="s">
+      <c r="M702" s="11" t="s">
         <v>6371</v>
       </c>
-      <c r="N702" s="0" t="n">
+      <c r="N702" s="11" t="n">
         <v>7731084175</v>
       </c>
-      <c r="O702" s="0" t="s">
+      <c r="O702" s="11" t="s">
         <v>6372</v>
       </c>
-      <c r="P702" s="0" t="s">
+      <c r="P702" s="11" t="s">
         <v>6373</v>
       </c>
-      <c r="Q702" s="0" t="s">
+      <c r="Q702" s="11" t="s">
         <v>6374</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="0" t="s">
+      <c r="A703" s="11" t="s">
         <v>6375</v>
       </c>
-      <c r="B703" s="0" t="s">
+      <c r="B703" s="11" t="s">
         <v>6376</v>
       </c>
-      <c r="C703" s="0" t="s">
+      <c r="C703" s="11" t="s">
         <v>6377</v>
       </c>
-      <c r="D703" s="0" t="s">
+      <c r="D703" s="11" t="s">
         <v>6378</v>
       </c>
-      <c r="E703" s="0" t="s">
+      <c r="E703" s="11" t="s">
         <v>3533</v>
       </c>
-      <c r="F703" s="0" t="s">
+      <c r="F703" s="11" t="s">
         <v>6379</v>
       </c>
-      <c r="G703" s="0" t="s">
+      <c r="G703" s="11" t="s">
         <v>2934</v>
       </c>
-      <c r="H703" s="0" t="s">
+      <c r="H703" s="11" t="s">
         <v>6380</v>
       </c>
-      <c r="I703" s="0" t="s">
+      <c r="I703" s="11" t="s">
         <v>6381</v>
       </c>
-      <c r="J703" s="0" t="s">
+      <c r="J703" s="11" t="s">
         <v>6382</v>
       </c>
-      <c r="K703" s="0" t="n">
+      <c r="K703" s="11" t="n">
         <v>7736668110</v>
       </c>
-      <c r="L703" s="0" t="s">
+      <c r="L703" s="11" t="s">
         <v>6383</v>
       </c>
-      <c r="M703" s="0" t="s">
+      <c r="M703" s="11" t="s">
         <v>6384</v>
       </c>
-      <c r="N703" s="0" t="n">
+      <c r="N703" s="11" t="n">
         <v>232704633826</v>
       </c>
-      <c r="O703" s="0" t="s">
+      <c r="O703" s="11" t="s">
         <v>6385</v>
       </c>
-      <c r="P703" s="0" t="s">
+      <c r="P703" s="11" t="s">
         <v>2978</v>
       </c>
-      <c r="Q703" s="0" t="s">
+      <c r="Q703" s="11" t="s">
         <v>2979</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="0" t="s">
+      <c r="A704" s="11" t="s">
         <v>6386</v>
       </c>
-      <c r="B704" s="0" t="s">
+      <c r="B704" s="11" t="s">
         <v>6387</v>
       </c>
-      <c r="C704" s="0" t="s">
+      <c r="C704" s="11" t="s">
         <v>6388</v>
       </c>
-      <c r="D704" s="0" t="s">
+      <c r="D704" s="11" t="s">
         <v>6389</v>
       </c>
-      <c r="E704" s="0" t="s">
+      <c r="E704" s="11" t="s">
         <v>4480</v>
       </c>
-      <c r="F704" s="0" t="s">
+      <c r="F704" s="11" t="s">
         <v>2934</v>
       </c>
-      <c r="G704" s="0" t="s">
+      <c r="G704" s="11" t="s">
         <v>4481</v>
       </c>
-      <c r="H704" s="0" t="s">
+      <c r="H704" s="11" t="s">
         <v>2036</v>
       </c>
-      <c r="I704" s="0" t="s">
+      <c r="I704" s="11" t="s">
         <v>6390</v>
       </c>
-      <c r="J704" s="0" t="s">
+      <c r="J704" s="11" t="s">
         <v>6391</v>
       </c>
-      <c r="K704" s="0" t="n">
+      <c r="K704" s="11" t="n">
         <v>7724559170</v>
       </c>
-      <c r="L704" s="0" t="s">
+      <c r="L704" s="11" t="s">
         <v>6392</v>
       </c>
-      <c r="M704" s="0" t="s">
+      <c r="M704" s="11" t="s">
         <v>6393</v>
       </c>
-      <c r="N704" s="0" t="n">
+      <c r="N704" s="11" t="n">
         <v>7737131618</v>
       </c>
-      <c r="O704" s="0" t="s">
+      <c r="O704" s="11" t="s">
         <v>6394</v>
       </c>
-      <c r="P704" s="0" t="s">
+      <c r="P704" s="11" t="s">
         <v>6395</v>
       </c>
-      <c r="Q704" s="0" t="s">
+      <c r="Q704" s="11" t="s">
         <v>6396</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="0" t="s">
+      <c r="A705" s="11" t="s">
         <v>6397</v>
       </c>
-      <c r="B705" s="0" t="s">
+      <c r="B705" s="11" t="s">
         <v>6398</v>
       </c>
-      <c r="C705" s="0" t="s">
+      <c r="C705" s="11" t="s">
         <v>6399</v>
       </c>
-      <c r="D705" s="0" t="s">
+      <c r="D705" s="11" t="s">
         <v>6400</v>
       </c>
-      <c r="E705" s="0" t="s">
+      <c r="E705" s="11" t="s">
         <v>2373</v>
       </c>
-      <c r="F705" s="0" t="s">
+      <c r="F705" s="11" t="s">
         <v>2173</v>
       </c>
-      <c r="G705" s="0" t="s">
+      <c r="G705" s="11" t="s">
         <v>2936</v>
       </c>
-      <c r="H705" s="0" t="s">
+      <c r="H705" s="11" t="s">
         <v>6380</v>
       </c>
-      <c r="I705" s="0" t="s">
+      <c r="I705" s="11" t="s">
         <v>2343</v>
       </c>
-      <c r="J705" s="0" t="s">
+      <c r="J705" s="11" t="s">
         <v>2344</v>
       </c>
-      <c r="K705" s="0" t="n">
+      <c r="K705" s="11" t="n">
         <v>7702132064</v>
       </c>
-      <c r="L705" s="0" t="s">
+      <c r="L705" s="11" t="s">
         <v>6401</v>
       </c>
-      <c r="M705" s="0" t="s">
+      <c r="M705" s="11" t="s">
         <v>6402</v>
       </c>
-      <c r="N705" s="0" t="n">
+      <c r="N705" s="11" t="n">
         <v>7708387132</v>
       </c>
-      <c r="O705" s="0" t="s">
+      <c r="O705" s="11" t="s">
         <v>6403</v>
       </c>
-      <c r="P705" s="0" t="s">
+      <c r="P705" s="11" t="s">
         <v>6404</v>
       </c>
-      <c r="Q705" s="0" t="s">
+      <c r="Q705" s="11" t="s">
         <v>6405</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="1" t="s">
+        <v>6406</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="11" t="s">
+        <v>6407</v>
+      </c>
+      <c r="B707" s="11" t="s">
+        <v>6408</v>
+      </c>
+      <c r="C707" s="11" t="s">
+        <v>6409</v>
+      </c>
+      <c r="D707" s="11" t="s">
+        <v>6410</v>
+      </c>
+      <c r="E707" s="11" t="s">
+        <v>6411</v>
+      </c>
+      <c r="F707" s="11" t="s">
+        <v>6412</v>
+      </c>
+      <c r="G707" s="11" t="s">
+        <v>6413</v>
+      </c>
+      <c r="H707" s="11" t="s">
+        <v>6414</v>
+      </c>
+      <c r="I707" s="11" t="s">
+        <v>5270</v>
+      </c>
+      <c r="J707" s="11" t="s">
+        <v>5271</v>
+      </c>
+      <c r="K707" s="11" t="n">
+        <v>7708075454</v>
+      </c>
+      <c r="L707" s="11" t="s">
+        <v>6415</v>
+      </c>
+      <c r="M707" s="11" t="s">
+        <v>6416</v>
+      </c>
+      <c r="N707" s="11" t="n">
+        <v>7709949602</v>
+      </c>
+      <c r="O707" s="11" t="s">
+        <v>6417</v>
+      </c>
+      <c r="P707" s="11" t="s">
+        <v>6418</v>
+      </c>
+      <c r="Q707" s="11" t="s">
+        <v>5455</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="11" t="s">
+        <v>6419</v>
+      </c>
+      <c r="B708" s="11" t="s">
+        <v>6420</v>
+      </c>
+      <c r="C708" s="11" t="s">
+        <v>6421</v>
+      </c>
+      <c r="D708" s="11" t="s">
+        <v>6422</v>
+      </c>
+      <c r="E708" s="11" t="s">
+        <v>6215</v>
+      </c>
+      <c r="F708" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G708" s="11" t="s">
+        <v>5986</v>
+      </c>
+      <c r="H708" s="11" t="s">
+        <v>5949</v>
+      </c>
+      <c r="I708" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J708" s="11"/>
+      <c r="K708" s="11" t="n">
+        <v>5041019754</v>
+      </c>
+      <c r="L708" s="11" t="s">
+        <v>6423</v>
+      </c>
+      <c r="M708" s="11" t="s">
+        <v>6424</v>
+      </c>
+      <c r="N708" s="11" t="n">
+        <v>7723452354</v>
+      </c>
+      <c r="O708" s="11" t="s">
+        <v>6425</v>
+      </c>
+      <c r="P708" s="11" t="s">
+        <v>6426</v>
+      </c>
+      <c r="Q708" s="11" t="s">
+        <v>6427</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="11" t="s">
+        <v>6428</v>
+      </c>
+      <c r="B709" s="11" t="s">
+        <v>6429</v>
+      </c>
+      <c r="C709" s="11" t="s">
+        <v>6430</v>
+      </c>
+      <c r="D709" s="11" t="s">
+        <v>6431</v>
+      </c>
+      <c r="E709" s="11" t="s">
+        <v>6432</v>
+      </c>
+      <c r="F709" s="11" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G709" s="11" t="s">
+        <v>6225</v>
+      </c>
+      <c r="H709" s="11" t="s">
+        <v>6016</v>
+      </c>
+      <c r="I709" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="J709" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="K709" s="11" t="n">
+        <v>7730176610</v>
+      </c>
+      <c r="L709" s="11" t="s">
+        <v>6433</v>
+      </c>
+      <c r="M709" s="11" t="s">
+        <v>6434</v>
+      </c>
+      <c r="N709" s="11" t="n">
+        <v>6679095067</v>
+      </c>
+      <c r="O709" s="11" t="s">
+        <v>6435</v>
+      </c>
+      <c r="P709" s="11" t="s">
+        <v>6436</v>
+      </c>
+      <c r="Q709" s="11" t="s">
+        <v>6437</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="11" t="s">
+        <v>6438</v>
+      </c>
+      <c r="B710" s="11" t="s">
+        <v>6439</v>
+      </c>
+      <c r="C710" s="11" t="s">
+        <v>6440</v>
+      </c>
+      <c r="D710" s="11" t="s">
+        <v>6441</v>
+      </c>
+      <c r="E710" s="11" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F710" s="11" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G710" s="11" t="s">
+        <v>6442</v>
+      </c>
+      <c r="H710" s="11" t="s">
+        <v>4413</v>
+      </c>
+      <c r="I710" s="11" t="s">
+        <v>6443</v>
+      </c>
+      <c r="J710" s="11" t="s">
+        <v>6443</v>
+      </c>
+      <c r="K710" s="11" t="n">
+        <v>7710023340</v>
+      </c>
+      <c r="L710" s="11" t="s">
+        <v>6444</v>
+      </c>
+      <c r="M710" s="11" t="s">
+        <v>6445</v>
+      </c>
+      <c r="N710" s="11" t="n">
+        <v>7842513327</v>
+      </c>
+      <c r="O710" s="11" t="s">
+        <v>6446</v>
+      </c>
+      <c r="P710" s="11" t="s">
+        <v>6447</v>
+      </c>
+      <c r="Q710" s="11" t="s">
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="11" t="s">
+        <v>6449</v>
+      </c>
+      <c r="B711" s="11" t="s">
+        <v>6450</v>
+      </c>
+      <c r="C711" s="11" t="s">
+        <v>6451</v>
+      </c>
+      <c r="D711" s="11" t="s">
+        <v>6452</v>
+      </c>
+      <c r="E711" s="11" t="s">
+        <v>6453</v>
+      </c>
+      <c r="F711" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G711" s="11" t="s">
+        <v>6225</v>
+      </c>
+      <c r="H711" s="11" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I711" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J711" s="11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K711" s="11" t="n">
+        <v>7703363868</v>
+      </c>
+      <c r="L711" s="11" t="s">
+        <v>6454</v>
+      </c>
+      <c r="M711" s="11" t="s">
+        <v>6455</v>
+      </c>
+      <c r="N711" s="11" t="n">
+        <v>7622017549</v>
+      </c>
+      <c r="O711" s="11" t="s">
+        <v>6456</v>
+      </c>
+      <c r="P711" s="11" t="s">
+        <v>6457</v>
+      </c>
+      <c r="Q711" s="11" t="s">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="11" t="s">
+        <v>6459</v>
+      </c>
+      <c r="B712" s="11" t="s">
+        <v>6460</v>
+      </c>
+      <c r="C712" s="11" t="s">
+        <v>6461</v>
+      </c>
+      <c r="D712" s="11" t="s">
+        <v>6462</v>
+      </c>
+      <c r="E712" s="11" t="s">
+        <v>6215</v>
+      </c>
+      <c r="F712" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G712" s="11" t="s">
+        <v>5986</v>
+      </c>
+      <c r="H712" s="11" t="s">
+        <v>5949</v>
+      </c>
+      <c r="I712" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J712" s="11"/>
+      <c r="K712" s="11" t="n">
+        <v>5041019754</v>
+      </c>
+      <c r="L712" s="11" t="s">
+        <v>6463</v>
+      </c>
+      <c r="M712" s="11" t="s">
+        <v>6464</v>
+      </c>
+      <c r="N712" s="11" t="n">
+        <v>503114918298</v>
+      </c>
+      <c r="O712" s="11" t="s">
+        <v>6465</v>
+      </c>
+      <c r="P712" s="11" t="s">
+        <v>6466</v>
+      </c>
+      <c r="Q712" s="11" t="s">
+        <v>6467</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="11" t="s">
+        <v>6468</v>
+      </c>
+      <c r="B713" s="11" t="s">
+        <v>6469</v>
+      </c>
+      <c r="C713" s="11" t="s">
+        <v>6470</v>
+      </c>
+      <c r="D713" s="11" t="s">
+        <v>6471</v>
+      </c>
+      <c r="E713" s="11" t="s">
+        <v>3512</v>
+      </c>
+      <c r="F713" s="11" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G713" s="11" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H713" s="11" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I713" s="11" t="s">
+        <v>5235</v>
+      </c>
+      <c r="J713" s="11" t="s">
+        <v>5236</v>
+      </c>
+      <c r="K713" s="11" t="n">
+        <v>5011019806</v>
+      </c>
+      <c r="L713" s="11" t="s">
+        <v>6472</v>
+      </c>
+      <c r="M713" s="11" t="s">
+        <v>6473</v>
+      </c>
+      <c r="N713" s="11" t="n">
+        <v>6829069421</v>
+      </c>
+      <c r="O713" s="11" t="s">
+        <v>6474</v>
+      </c>
+      <c r="P713" s="11" t="s">
+        <v>6475</v>
+      </c>
+      <c r="Q713" s="11" t="s">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="11" t="s">
+        <v>6477</v>
+      </c>
+      <c r="B714" s="11" t="s">
+        <v>6478</v>
+      </c>
+      <c r="C714" s="11" t="s">
+        <v>6479</v>
+      </c>
+      <c r="D714" s="11" t="s">
+        <v>6480</v>
+      </c>
+      <c r="E714" s="11" t="s">
+        <v>6481</v>
+      </c>
+      <c r="F714" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G714" s="11" t="s">
+        <v>6482</v>
+      </c>
+      <c r="H714" s="11" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I714" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J714" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K714" s="11" t="n">
+        <v>7714125897</v>
+      </c>
+      <c r="L714" s="11" t="s">
+        <v>6483</v>
+      </c>
+      <c r="M714" s="11" t="s">
+        <v>6484</v>
+      </c>
+      <c r="N714" s="11" t="n">
+        <v>7721001557</v>
+      </c>
+      <c r="O714" s="11" t="s">
+        <v>6485</v>
+      </c>
+      <c r="P714" s="11" t="s">
+        <v>6486</v>
+      </c>
+      <c r="Q714" s="11" t="s">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="11" t="s">
+        <v>6488</v>
+      </c>
+      <c r="B715" s="11" t="s">
+        <v>6489</v>
+      </c>
+      <c r="C715" s="11" t="s">
+        <v>6490</v>
+      </c>
+      <c r="D715" s="11" t="s">
+        <v>6491</v>
+      </c>
+      <c r="E715" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F715" s="11" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G715" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H715" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I715" s="11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J715" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K715" s="11" t="n">
+        <v>5032001630</v>
+      </c>
+      <c r="L715" s="11" t="s">
+        <v>6492</v>
+      </c>
+      <c r="M715" s="11" t="s">
+        <v>6493</v>
+      </c>
+      <c r="N715" s="11" t="n">
+        <v>6732209756</v>
+      </c>
+      <c r="O715" s="11" t="s">
+        <v>6494</v>
+      </c>
+      <c r="P715" s="11" t="s">
+        <v>6495</v>
+      </c>
+      <c r="Q715" s="11" t="s">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="11" t="s">
+        <v>6497</v>
+      </c>
+      <c r="B716" s="11" t="s">
+        <v>6498</v>
+      </c>
+      <c r="C716" s="11" t="s">
+        <v>6499</v>
+      </c>
+      <c r="D716" s="11" t="s">
+        <v>6500</v>
+      </c>
+      <c r="E716" s="11" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F716" s="11" t="s">
+        <v>6501</v>
+      </c>
+      <c r="G716" s="11" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H716" s="11" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I716" s="11" t="s">
+        <v>6502</v>
+      </c>
+      <c r="J716" s="11" t="s">
+        <v>6503</v>
+      </c>
+      <c r="K716" s="11" t="n">
+        <v>5048051612</v>
+      </c>
+      <c r="L716" s="11" t="s">
+        <v>6504</v>
+      </c>
+      <c r="M716" s="11" t="s">
+        <v>6505</v>
+      </c>
+      <c r="N716" s="11" t="n">
+        <v>274123692</v>
+      </c>
+      <c r="O716" s="11" t="s">
+        <v>6506</v>
+      </c>
+      <c r="P716" s="11" t="s">
+        <v>6507</v>
+      </c>
+      <c r="Q716" s="11" t="s">
+        <v>6508</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="11" t="s">
+        <v>6509</v>
+      </c>
+      <c r="B717" s="11" t="s">
+        <v>6510</v>
+      </c>
+      <c r="C717" s="11" t="s">
+        <v>6511</v>
+      </c>
+      <c r="D717" s="11" t="s">
+        <v>6512</v>
+      </c>
+      <c r="E717" s="11" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F717" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G717" s="11" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H717" s="11" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I717" s="11" t="s">
+        <v>6513</v>
+      </c>
+      <c r="J717" s="11" t="s">
+        <v>5782</v>
+      </c>
+      <c r="K717" s="11" t="n">
+        <v>5005064247</v>
+      </c>
+      <c r="L717" s="11" t="s">
+        <v>6514</v>
+      </c>
+      <c r="M717" s="11" t="s">
+        <v>6515</v>
+      </c>
+      <c r="N717" s="11" t="n">
+        <v>5027211745</v>
+      </c>
+      <c r="O717" s="11" t="s">
+        <v>6516</v>
+      </c>
+      <c r="P717" s="11" t="s">
+        <v>6517</v>
+      </c>
+      <c r="Q717" s="11" t="s">
+        <v>6518</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="11" t="s">
+        <v>6519</v>
+      </c>
+      <c r="B718" s="11" t="s">
+        <v>6520</v>
+      </c>
+      <c r="C718" s="11" t="s">
+        <v>6521</v>
+      </c>
+      <c r="D718" s="11" t="s">
+        <v>6522</v>
+      </c>
+      <c r="E718" s="11" t="s">
+        <v>6523</v>
+      </c>
+      <c r="F718" s="11" t="s">
+        <v>6524</v>
+      </c>
+      <c r="G718" s="11" t="s">
+        <v>4414</v>
+      </c>
+      <c r="H718" s="11" t="s">
+        <v>3512</v>
+      </c>
+      <c r="I718" s="11" t="s">
+        <v>6525</v>
+      </c>
+      <c r="J718" s="11" t="s">
+        <v>6526</v>
+      </c>
+      <c r="K718" s="11" t="n">
+        <v>7725289248</v>
+      </c>
+      <c r="L718" s="11" t="s">
+        <v>6527</v>
+      </c>
+      <c r="M718" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="N718" s="11" t="n">
+        <v>7811757073</v>
+      </c>
+      <c r="O718" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="P718" s="11" t="s">
+        <v>6528</v>
+      </c>
+      <c r="Q718" s="11" t="s">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="11" t="s">
+        <v>6530</v>
+      </c>
+      <c r="B719" s="11" t="s">
+        <v>6531</v>
+      </c>
+      <c r="C719" s="11" t="s">
+        <v>6532</v>
+      </c>
+      <c r="D719" s="11" t="s">
+        <v>6533</v>
+      </c>
+      <c r="E719" s="11" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F719" s="11" t="s">
+        <v>2852</v>
+      </c>
+      <c r="G719" s="11" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H719" s="11" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I719" s="11" t="s">
+        <v>6534</v>
+      </c>
+      <c r="J719" s="11" t="s">
+        <v>6535</v>
+      </c>
+      <c r="K719" s="11" t="n">
+        <v>5024030187</v>
+      </c>
+      <c r="L719" s="11" t="s">
+        <v>6536</v>
+      </c>
+      <c r="M719" s="11" t="s">
+        <v>6537</v>
+      </c>
+      <c r="N719" s="11" t="n">
+        <v>2372028112</v>
+      </c>
+      <c r="O719" s="11" t="s">
+        <v>6538</v>
+      </c>
+      <c r="P719" s="11" t="s">
+        <v>6539</v>
+      </c>
+      <c r="Q719" s="11" t="s">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="11" t="s">
+        <v>6541</v>
+      </c>
+      <c r="B720" s="11" t="s">
+        <v>6542</v>
+      </c>
+      <c r="C720" s="11" t="s">
+        <v>6543</v>
+      </c>
+      <c r="D720" s="11" t="s">
+        <v>6544</v>
+      </c>
+      <c r="E720" s="11" t="s">
+        <v>6545</v>
+      </c>
+      <c r="F720" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G720" s="11" t="s">
+        <v>6545</v>
+      </c>
+      <c r="H720" s="11" t="s">
+        <v>6545</v>
+      </c>
+      <c r="I720" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="J720" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="K720" s="11" t="n">
+        <v>7704055094</v>
+      </c>
+      <c r="L720" s="11" t="s">
+        <v>6546</v>
+      </c>
+      <c r="M720" s="11" t="s">
+        <v>6547</v>
+      </c>
+      <c r="N720" s="11" t="n">
+        <v>5719003881</v>
+      </c>
+      <c r="O720" s="11" t="s">
+        <v>6548</v>
+      </c>
+      <c r="P720" s="11" t="s">
+        <v>6549</v>
+      </c>
+      <c r="Q720" s="11" t="s">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="11" t="s">
+        <v>6551</v>
+      </c>
+      <c r="B721" s="11" t="s">
+        <v>6552</v>
+      </c>
+      <c r="C721" s="11" t="s">
+        <v>6553</v>
+      </c>
+      <c r="D721" s="11" t="s">
+        <v>6554</v>
+      </c>
+      <c r="E721" s="11" t="s">
+        <v>3906</v>
+      </c>
+      <c r="F721" s="11" t="s">
+        <v>6555</v>
+      </c>
+      <c r="G721" s="11" t="s">
+        <v>5036</v>
+      </c>
+      <c r="H721" s="11" t="s">
+        <v>2405</v>
+      </c>
+      <c r="I721" s="11" t="s">
+        <v>5025</v>
+      </c>
+      <c r="J721" s="11" t="s">
+        <v>5026</v>
+      </c>
+      <c r="K721" s="11" t="n">
+        <v>7731082971</v>
+      </c>
+      <c r="L721" s="11" t="s">
+        <v>6556</v>
+      </c>
+      <c r="M721" s="11" t="s">
+        <v>6557</v>
+      </c>
+      <c r="N721" s="11" t="n">
+        <v>4345481398</v>
+      </c>
+      <c r="O721" s="11" t="s">
+        <v>6558</v>
+      </c>
+      <c r="P721" s="11" t="s">
+        <v>6559</v>
+      </c>
+      <c r="Q721" s="11" t="s">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="11" t="s">
+        <v>6561</v>
+      </c>
+      <c r="B722" s="11" t="s">
+        <v>6562</v>
+      </c>
+      <c r="C722" s="11" t="s">
+        <v>6563</v>
+      </c>
+      <c r="D722" s="11" t="s">
+        <v>6564</v>
+      </c>
+      <c r="E722" s="11" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F722" s="11" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G722" s="11" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H722" s="11" t="s">
+        <v>6565</v>
+      </c>
+      <c r="I722" s="11" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J722" s="11" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K722" s="11" t="n">
+        <v>7706752929</v>
+      </c>
+      <c r="L722" s="11" t="s">
+        <v>6566</v>
+      </c>
+      <c r="M722" s="11" t="s">
+        <v>6567</v>
+      </c>
+      <c r="N722" s="11" t="n">
+        <v>5012102380</v>
+      </c>
+      <c r="O722" s="11" t="s">
+        <v>6568</v>
+      </c>
+      <c r="P722" s="11" t="s">
+        <v>6569</v>
+      </c>
+      <c r="Q722" s="11" t="s">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="11" t="s">
+        <v>6571</v>
+      </c>
+      <c r="B723" s="11" t="s">
+        <v>6572</v>
+      </c>
+      <c r="C723" s="11" t="s">
+        <v>6573</v>
+      </c>
+      <c r="D723" s="11" t="s">
+        <v>6574</v>
+      </c>
+      <c r="E723" s="11" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F723" s="11" t="s">
+        <v>5760</v>
+      </c>
+      <c r="G723" s="11" t="s">
+        <v>4541</v>
+      </c>
+      <c r="H723" s="11" t="s">
+        <v>3815</v>
+      </c>
+      <c r="I723" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="J723" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="K723" s="11" t="n">
+        <v>7705401340</v>
+      </c>
+      <c r="L723" s="11" t="s">
+        <v>6575</v>
+      </c>
+      <c r="M723" s="11" t="s">
+        <v>6576</v>
+      </c>
+      <c r="N723" s="11" t="n">
+        <v>5003145780</v>
+      </c>
+      <c r="O723" s="11" t="s">
+        <v>6577</v>
+      </c>
+      <c r="P723" s="11" t="s">
+        <v>6578</v>
+      </c>
+      <c r="Q723" s="11" t="s">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="11" t="s">
+        <v>6580</v>
+      </c>
+      <c r="B724" s="11" t="s">
+        <v>6581</v>
+      </c>
+      <c r="C724" s="11" t="s">
+        <v>6582</v>
+      </c>
+      <c r="D724" s="11" t="s">
+        <v>6583</v>
+      </c>
+      <c r="E724" s="11" t="s">
+        <v>5821</v>
+      </c>
+      <c r="F724" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G724" s="11" t="s">
+        <v>2639</v>
+      </c>
+      <c r="H724" s="11" t="s">
+        <v>2639</v>
+      </c>
+      <c r="I724" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J724" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="K724" s="11" t="n">
+        <v>7734111035</v>
+      </c>
+      <c r="L724" s="11" t="s">
+        <v>6584</v>
+      </c>
+      <c r="M724" s="11" t="s">
+        <v>6585</v>
+      </c>
+      <c r="N724" s="11" t="n">
+        <v>9729292083</v>
+      </c>
+      <c r="O724" s="11" t="s">
+        <v>6586</v>
+      </c>
+      <c r="P724" s="11" t="s">
+        <v>6587</v>
+      </c>
+      <c r="Q724" s="11" t="s">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="11" t="s">
+        <v>6589</v>
+      </c>
+      <c r="B725" s="11" t="s">
+        <v>6590</v>
+      </c>
+      <c r="C725" s="11" t="s">
+        <v>6591</v>
+      </c>
+      <c r="D725" s="11" t="s">
+        <v>6592</v>
+      </c>
+      <c r="E725" s="11" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F725" s="11" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G725" s="11" t="s">
+        <v>3398</v>
+      </c>
+      <c r="H725" s="11" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I725" s="11" t="s">
+        <v>6593</v>
+      </c>
+      <c r="J725" s="11" t="s">
+        <v>6594</v>
+      </c>
+      <c r="K725" s="11" t="n">
+        <v>7706294500</v>
+      </c>
+      <c r="L725" s="11" t="s">
+        <v>6595</v>
+      </c>
+      <c r="M725" s="11" t="s">
+        <v>6596</v>
+      </c>
+      <c r="N725" s="11" t="n">
+        <v>6168115122</v>
+      </c>
+      <c r="O725" s="11" t="s">
+        <v>6597</v>
+      </c>
+      <c r="P725" s="11" t="s">
+        <v>6598</v>
+      </c>
+      <c r="Q725" s="11" t="s">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="11" t="s">
+        <v>6600</v>
+      </c>
+      <c r="B726" s="11" t="s">
+        <v>6601</v>
+      </c>
+      <c r="C726" s="11" t="s">
+        <v>6602</v>
+      </c>
+      <c r="D726" s="11" t="s">
+        <v>6603</v>
+      </c>
+      <c r="E726" s="11" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F726" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G726" s="11" t="s">
+        <v>3511</v>
+      </c>
+      <c r="H726" s="11" t="s">
+        <v>3511</v>
+      </c>
+      <c r="I726" s="11" t="s">
+        <v>3282</v>
+      </c>
+      <c r="J726" s="11" t="s">
+        <v>3283</v>
+      </c>
+      <c r="K726" s="11" t="n">
+        <v>5050010740</v>
+      </c>
+      <c r="L726" s="11" t="s">
+        <v>6604</v>
+      </c>
+      <c r="M726" s="11" t="s">
+        <v>6605</v>
+      </c>
+      <c r="N726" s="11" t="n">
+        <v>6234191785</v>
+      </c>
+      <c r="O726" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="P726" s="11" t="n">
+        <v>79106333175</v>
+      </c>
+      <c r="Q726" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="1" t="s">
+        <v>6606</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="11" t="s">
+        <v>6607</v>
+      </c>
+      <c r="B728" s="11" t="s">
+        <v>6608</v>
+      </c>
+      <c r="C728" s="11" t="s">
+        <v>6609</v>
+      </c>
+      <c r="D728" s="11" t="s">
+        <v>6610</v>
+      </c>
+      <c r="E728" s="11" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F728" s="11" t="s">
+        <v>6611</v>
+      </c>
+      <c r="G728" s="11" t="s">
+        <v>3567</v>
+      </c>
+      <c r="H728" s="11" t="s">
+        <v>5370</v>
+      </c>
+      <c r="I728" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="J728" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="K728" s="11" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L728" s="11" t="s">
+        <v>6612</v>
+      </c>
+      <c r="M728" s="11" t="s">
+        <v>6613</v>
+      </c>
+      <c r="N728" s="11" t="n">
+        <v>5258103151</v>
+      </c>
+      <c r="O728" s="11" t="s">
+        <v>6614</v>
+      </c>
+      <c r="P728" s="11" t="s">
+        <v>6615</v>
+      </c>
+      <c r="Q728" s="11" t="s">
+        <v>6616</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="11" t="s">
+        <v>6589</v>
+      </c>
+      <c r="B729" s="11" t="s">
+        <v>6590</v>
+      </c>
+      <c r="C729" s="12" t="s">
+        <v>6591</v>
+      </c>
+      <c r="D729" s="11" t="s">
+        <v>6583</v>
+      </c>
+      <c r="E729" s="11" t="s">
+        <v>5821</v>
+      </c>
+      <c r="F729" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G729" s="11" t="s">
+        <v>2639</v>
+      </c>
+      <c r="H729" s="11" t="s">
+        <v>2639</v>
+      </c>
+      <c r="I729" s="13" t="s">
+        <v>6593</v>
+      </c>
+      <c r="J729" s="12" t="s">
+        <v>6594</v>
+      </c>
+      <c r="K729" s="12" t="n">
+        <v>7706294500</v>
+      </c>
+      <c r="L729" s="12" t="s">
+        <v>6595</v>
+      </c>
+      <c r="M729" s="11" t="s">
+        <v>6617</v>
+      </c>
+      <c r="N729" s="12" t="n">
+        <v>6168115122</v>
+      </c>
+      <c r="O729" s="12" t="s">
+        <v>6597</v>
+      </c>
+      <c r="P729" s="12" t="s">
+        <v>6598</v>
+      </c>
+      <c r="Q729" s="12" t="s">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="11" t="s">
+        <v>6618</v>
+      </c>
+      <c r="B730" s="11" t="s">
+        <v>6619</v>
+      </c>
+      <c r="C730" s="11" t="s">
+        <v>6620</v>
+      </c>
+      <c r="D730" s="11" t="s">
+        <v>6621</v>
+      </c>
+      <c r="E730" s="11" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F730" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G730" s="11" t="s">
+        <v>5654</v>
+      </c>
+      <c r="H730" s="11" t="s">
+        <v>2283</v>
+      </c>
+      <c r="I730" s="11" t="s">
+        <v>6622</v>
+      </c>
+      <c r="J730" s="11" t="s">
+        <v>6623</v>
+      </c>
+      <c r="K730" s="11" t="n">
+        <v>5001107267</v>
+      </c>
+      <c r="L730" s="11" t="s">
+        <v>6624</v>
+      </c>
+      <c r="M730" s="11" t="s">
+        <v>6625</v>
+      </c>
+      <c r="N730" s="11" t="n">
+        <v>322600037751</v>
+      </c>
+      <c r="O730" s="11" t="s">
+        <v>6626</v>
+      </c>
+      <c r="P730" s="11" t="s">
+        <v>6627</v>
+      </c>
+      <c r="Q730" s="11" t="s">
+        <v>6628</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="1" t="s">
+        <v>6629</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="11" t="s">
+        <v>6630</v>
+      </c>
+      <c r="B732" s="11" t="s">
+        <v>6631</v>
+      </c>
+      <c r="C732" s="11" t="s">
+        <v>6632</v>
+      </c>
+      <c r="D732" s="11" t="s">
+        <v>6633</v>
+      </c>
+      <c r="E732" s="11" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F732" s="11" t="s">
+        <v>6634</v>
+      </c>
+      <c r="G732" s="11" t="s">
+        <v>3258</v>
+      </c>
+      <c r="H732" s="11" t="s">
+        <v>6635</v>
+      </c>
+      <c r="I732" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="J732" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="K732" s="11" t="n">
+        <v>7707575567</v>
+      </c>
+      <c r="L732" s="11" t="s">
+        <v>6636</v>
+      </c>
+      <c r="M732" s="11" t="s">
+        <v>6637</v>
+      </c>
+      <c r="N732" s="11" t="n">
+        <v>9718135890</v>
+      </c>
+      <c r="O732" s="11" t="s">
+        <v>6638</v>
+      </c>
+      <c r="P732" s="11" t="s">
+        <v>6639</v>
+      </c>
+      <c r="Q732" s="11" t="s">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="11" t="s">
+        <v>6641</v>
+      </c>
+      <c r="B733" s="11" t="s">
+        <v>6642</v>
+      </c>
+      <c r="C733" s="11" t="s">
+        <v>6643</v>
+      </c>
+      <c r="D733" s="11" t="s">
+        <v>6644</v>
+      </c>
+      <c r="E733" s="11" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F733" s="11" t="s">
+        <v>2794</v>
+      </c>
+      <c r="G733" s="11" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H733" s="11" t="s">
+        <v>6635</v>
+      </c>
+      <c r="I733" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J733" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K733" s="11" t="n">
+        <v>7709895509</v>
+      </c>
+      <c r="L733" s="11" t="s">
+        <v>6645</v>
+      </c>
+      <c r="M733" s="11" t="s">
+        <v>6646</v>
+      </c>
+      <c r="N733" s="11" t="n">
+        <v>526104008876</v>
+      </c>
+      <c r="O733" s="11" t="s">
+        <v>6647</v>
+      </c>
+      <c r="P733" s="11" t="s">
+        <v>6648</v>
+      </c>
+      <c r="Q733" s="11" t="s">
+        <v>6649</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="11" t="s">
+        <v>6650</v>
+      </c>
+      <c r="B734" s="11" t="s">
+        <v>6651</v>
+      </c>
+      <c r="C734" s="11" t="s">
+        <v>6652</v>
+      </c>
+      <c r="D734" s="11" t="s">
+        <v>6653</v>
+      </c>
+      <c r="E734" s="11" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F734" s="11" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G734" s="11" t="s">
+        <v>4529</v>
+      </c>
+      <c r="H734" s="11" t="s">
+        <v>4529</v>
+      </c>
+      <c r="I734" s="11" t="s">
+        <v>6654</v>
+      </c>
+      <c r="J734" s="11" t="s">
+        <v>6655</v>
+      </c>
+      <c r="K734" s="11" t="n">
+        <v>5047191416</v>
+      </c>
+      <c r="L734" s="11" t="s">
+        <v>6656</v>
+      </c>
+      <c r="M734" s="11" t="s">
+        <v>6493</v>
+      </c>
+      <c r="N734" s="11" t="n">
+        <v>6732209756</v>
+      </c>
+      <c r="O734" s="11" t="s">
+        <v>6494</v>
+      </c>
+      <c r="P734" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Q734" s="11" t="s">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="11" t="s">
+        <v>6657</v>
+      </c>
+      <c r="B735" s="11" t="s">
+        <v>6658</v>
+      </c>
+      <c r="C735" s="12" t="s">
+        <v>6659</v>
+      </c>
+      <c r="D735" s="11" t="s">
+        <v>6653</v>
+      </c>
+      <c r="E735" s="11" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F735" s="11" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G735" s="11" t="s">
+        <v>4529</v>
+      </c>
+      <c r="H735" s="11" t="s">
+        <v>4529</v>
+      </c>
+      <c r="I735" s="13" t="s">
+        <v>5546</v>
+      </c>
+      <c r="J735" s="11" t="s">
+        <v>5547</v>
+      </c>
+      <c r="K735" s="12" t="n">
+        <v>5029211275</v>
+      </c>
+      <c r="L735" s="12" t="s">
+        <v>5548</v>
+      </c>
+      <c r="M735" s="11" t="s">
+        <v>5549</v>
+      </c>
+      <c r="N735" s="12" t="n">
+        <v>5027138453</v>
+      </c>
+      <c r="O735" s="11" t="s">
+        <v>5550</v>
+      </c>
+      <c r="P735" s="11" t="s">
+        <v>5551</v>
+      </c>
+      <c r="Q735" s="11" t="s">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="11" t="s">
+        <v>6660</v>
+      </c>
+      <c r="B736" s="11" t="s">
+        <v>6661</v>
+      </c>
+      <c r="C736" s="11" t="s">
+        <v>6662</v>
+      </c>
+      <c r="D736" s="11" t="s">
+        <v>6663</v>
+      </c>
+      <c r="E736" s="11" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F736" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G736" s="11" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H736" s="11" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I736" s="11" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J736" s="11" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K736" s="11" t="n">
+        <v>5044119676</v>
+      </c>
+      <c r="L736" s="11" t="s">
+        <v>6664</v>
+      </c>
+      <c r="M736" s="11" t="s">
+        <v>6665</v>
+      </c>
+      <c r="N736" s="11" t="n">
+        <v>5262157390</v>
+      </c>
+      <c r="O736" s="11" t="s">
+        <v>6666</v>
+      </c>
+      <c r="P736" s="11" t="s">
+        <v>6667</v>
+      </c>
+      <c r="Q736" s="11" t="s">
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="11" t="s">
+        <v>6669</v>
+      </c>
+      <c r="B737" s="11" t="s">
+        <v>6670</v>
+      </c>
+      <c r="C737" s="11" t="s">
+        <v>6671</v>
+      </c>
+      <c r="D737" s="11" t="s">
+        <v>6672</v>
+      </c>
+      <c r="E737" s="11" t="s">
+        <v>4583</v>
+      </c>
+      <c r="F737" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G737" s="11" t="s">
+        <v>3386</v>
+      </c>
+      <c r="H737" s="11" t="s">
+        <v>3016</v>
+      </c>
+      <c r="I737" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="J737" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="K737" s="11" t="n">
+        <v>5032004222</v>
+      </c>
+      <c r="L737" s="11" t="s">
+        <v>6673</v>
+      </c>
+      <c r="M737" s="11" t="s">
+        <v>6674</v>
+      </c>
+      <c r="N737" s="11" t="n">
+        <v>9717053517</v>
+      </c>
+      <c r="O737" s="11" t="s">
+        <v>6675</v>
+      </c>
+      <c r="P737" s="11" t="s">
+        <v>6676</v>
+      </c>
+      <c r="Q737" s="11" t="s">
+        <v>6677</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="11" t="s">
+        <v>6678</v>
+      </c>
+      <c r="B738" s="11" t="s">
+        <v>6679</v>
+      </c>
+      <c r="C738" s="11" t="s">
+        <v>6680</v>
+      </c>
+      <c r="D738" s="11" t="s">
+        <v>6681</v>
+      </c>
+      <c r="E738" s="11" t="s">
+        <v>2913</v>
+      </c>
+      <c r="F738" s="11" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G738" s="11" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H738" s="11" t="s">
+        <v>3522</v>
+      </c>
+      <c r="I738" s="11" t="s">
+        <v>6682</v>
+      </c>
+      <c r="J738" s="11" t="s">
+        <v>6683</v>
+      </c>
+      <c r="K738" s="11" t="n">
+        <v>5041022309</v>
+      </c>
+      <c r="L738" s="11" t="s">
+        <v>6684</v>
+      </c>
+      <c r="M738" s="11" t="s">
+        <v>6685</v>
+      </c>
+      <c r="N738" s="11" t="n">
+        <v>2466186971</v>
+      </c>
+      <c r="O738" s="11" t="s">
+        <v>6686</v>
+      </c>
+      <c r="P738" s="11" t="s">
+        <v>6687</v>
+      </c>
+      <c r="Q738" s="11" t="s">
+        <v>6688</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="11" t="s">
+        <v>6689</v>
+      </c>
+      <c r="B739" s="11" t="s">
+        <v>6690</v>
+      </c>
+      <c r="C739" s="11" t="s">
+        <v>6691</v>
+      </c>
+      <c r="D739" s="11" t="s">
+        <v>6692</v>
+      </c>
+      <c r="E739" s="11" t="s">
+        <v>6693</v>
+      </c>
+      <c r="F739" s="11" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G739" s="11" t="s">
+        <v>6693</v>
+      </c>
+      <c r="H739" s="11" t="s">
+        <v>6694</v>
+      </c>
+      <c r="I739" s="11" t="s">
+        <v>6695</v>
+      </c>
+      <c r="J739" s="11" t="s">
+        <v>6696</v>
+      </c>
+      <c r="K739" s="11" t="n">
+        <v>5047008220</v>
+      </c>
+      <c r="L739" s="11" t="s">
+        <v>6697</v>
+      </c>
+      <c r="M739" s="11" t="s">
+        <v>6698</v>
+      </c>
+      <c r="N739" s="11" t="n">
+        <v>7727146647</v>
+      </c>
+      <c r="O739" s="11" t="s">
+        <v>6699</v>
+      </c>
+      <c r="P739" s="11" t="s">
+        <v>6700</v>
+      </c>
+      <c r="Q739" s="11" t="s">
+        <v>6701</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="14" t="n">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="0" t="s">
+        <v>6702</v>
+      </c>
+      <c r="B741" s="0" t="s">
+        <v>6703</v>
+      </c>
+      <c r="C741" s="0" t="s">
+        <v>6704</v>
+      </c>
+      <c r="D741" s="0" t="s">
+        <v>6705</v>
+      </c>
+      <c r="E741" s="0" t="s">
+        <v>6706</v>
+      </c>
+      <c r="F741" s="0" t="s">
+        <v>5737</v>
+      </c>
+      <c r="G741" s="0" t="s">
+        <v>6707</v>
+      </c>
+      <c r="H741" s="0" t="s">
+        <v>6708</v>
+      </c>
+      <c r="I741" s="0" t="s">
+        <v>6709</v>
+      </c>
+      <c r="J741" s="0" t="s">
+        <v>6710</v>
+      </c>
+      <c r="K741" s="0" t="n">
+        <v>7727084790</v>
+      </c>
+      <c r="L741" s="0" t="s">
+        <v>6711</v>
+      </c>
+      <c r="M741" s="0" t="s">
+        <v>6712</v>
+      </c>
+      <c r="N741" s="0" t="n">
+        <v>7701313170</v>
+      </c>
+      <c r="O741" s="15" t="s">
+        <v>6713</v>
+      </c>
+      <c r="P741" s="15" t="s">
+        <v>6714</v>
+      </c>
+      <c r="Q741" s="15" t="s">
+        <v>6715</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="0" t="s">
+        <v>6716</v>
+      </c>
+      <c r="B742" s="0" t="s">
+        <v>6717</v>
+      </c>
+      <c r="C742" s="0" t="s">
+        <v>6718</v>
+      </c>
+      <c r="D742" s="0" t="s">
+        <v>6719</v>
+      </c>
+      <c r="E742" s="0" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F742" s="0" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G742" s="0" t="s">
+        <v>6720</v>
+      </c>
+      <c r="H742" s="0" t="s">
+        <v>5949</v>
+      </c>
+      <c r="I742" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="J742" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="K742" s="0" t="n">
+        <v>7707795160</v>
+      </c>
+      <c r="L742" s="0" t="s">
+        <v>6721</v>
+      </c>
+      <c r="M742" s="0" t="s">
+        <v>6722</v>
+      </c>
+      <c r="N742" s="0" t="n">
+        <v>771812144322</v>
+      </c>
+      <c r="O742" s="0" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P742" s="0" t="s">
+        <v>6723</v>
+      </c>
+      <c r="Q742" s="0" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="0" t="s">
+        <v>6725</v>
+      </c>
+      <c r="B743" s="0" t="s">
+        <v>6726</v>
+      </c>
+      <c r="C743" s="0" t="s">
+        <v>6727</v>
+      </c>
+      <c r="D743" s="0" t="s">
+        <v>6728</v>
+      </c>
+      <c r="E743" s="0" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F743" s="0" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G743" s="0" t="s">
+        <v>6729</v>
+      </c>
+      <c r="H743" s="0" t="s">
+        <v>6730</v>
+      </c>
+      <c r="I743" s="0" t="s">
+        <v>6731</v>
+      </c>
+      <c r="J743" s="0" t="s">
+        <v>6732</v>
+      </c>
+      <c r="K743" s="0" t="n">
+        <v>7726726998</v>
+      </c>
+      <c r="L743" s="0" t="s">
+        <v>6733</v>
+      </c>
+      <c r="M743" s="0" t="s">
+        <v>6734</v>
+      </c>
+      <c r="N743" s="0" t="n">
+        <v>9704031731</v>
+      </c>
+      <c r="O743" s="0" t="s">
+        <v>6735</v>
+      </c>
+      <c r="P743" s="0" t="s">
+        <v>6736</v>
+      </c>
+      <c r="Q743" s="0" t="s">
+        <v>6737</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="0" t="s">
+        <v>6738</v>
+      </c>
+      <c r="B744" s="0" t="s">
+        <v>6739</v>
+      </c>
+      <c r="C744" s="0" t="s">
+        <v>6740</v>
+      </c>
+      <c r="D744" s="0" t="s">
+        <v>6741</v>
+      </c>
+      <c r="E744" s="0" t="s">
+        <v>6742</v>
+      </c>
+      <c r="F744" s="0" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G744" s="0" t="s">
+        <v>6225</v>
+      </c>
+      <c r="H744" s="0" t="s">
+        <v>6743</v>
+      </c>
+      <c r="I744" s="0" t="s">
+        <v>5172</v>
+      </c>
+      <c r="J744" s="0" t="s">
+        <v>5173</v>
+      </c>
+      <c r="K744" s="0" t="n">
+        <v>7712008651</v>
+      </c>
+      <c r="L744" s="0" t="s">
+        <v>6744</v>
+      </c>
+      <c r="M744" s="0" t="s">
+        <v>6745</v>
+      </c>
+      <c r="N744" s="0" t="n">
+        <v>9709031083</v>
+      </c>
+      <c r="O744" s="0" t="s">
+        <v>6746</v>
+      </c>
+      <c r="P744" s="0" t="s">
+        <v>6747</v>
+      </c>
+      <c r="Q744" s="0" t="s">
+        <v>6748</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>
+    <hyperlink ref="I729" r:id="rId2" display="ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ &quot;ЦЕНТРАЛЬНОЕ БЮРО ИНФОРМАЦИИ МИНПРИРОДЫ РОССИИ&quot;"/>
+    <hyperlink ref="I735" r:id="rId3" display="ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ ЛЕЧЕБНО-ПРОФИЛАКТИЧЕСКОЕ УЧРЕЖДЕНИЕ &quot;ЛЕЧЕБНО-РЕАБИЛИТАЦИОННЫЙ ЦЕНТР &quot;ПОДМОСКОВЬЕ&quot; ФЕДЕРАЛЬНОЙ НАЛОГОВОЙ СЛУЖБЫ&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8976" uniqueCount="6749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9288" uniqueCount="6963">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -20286,6 +20286,648 @@
   <si>
     <t xml:space="preserve">texnounit18@yandex.ru</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771003093320000110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17710030933 20 000110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347 765,58 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ УЧРЕЖДЕНИЕ - МОСКОВСКОЕ РЕГИОНАЛЬНОЕ ОТДЕЛЕНИЕ ФОНДА СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГУ - МОСКОВСКОЕ РО ФОНДА СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Павлов Артем АлександровичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Павлов Артем Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141260, Московская обл, Пушкинский р-н, Правдинский п, ул.Пушкина, д.19 - 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavlov333@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500100770620000027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001007706 20 000027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">955 869,98 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕЖМУНИЦИПАЛЬНОЕ УПРАВЛЕНИЕ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ "БАЛАШИХИНСКОЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУ МВД РОССИИ "БАЛАШИХИНСКОЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общество с ограниченной ответственностью "МОНОВЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МОНОВЕТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudakova@manovet.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770605585421000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27706055854 21 000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 806 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Копанев Виктор АлексеевичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Копанев Виктор Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141320 Московская обл. Сергиево Посадский р-он г.Пересвет ул.Гагарина д.4 кв.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (916) 325-30-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kopanev1959@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770403237922000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704032379 22 000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 700 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ МЕДИЦИНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР ПСИХИАТРИИ И НАРКОЛОГИИ ИМЕНИ В.П. СЕРБСКОГО" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "НМИЦ ПН ИМ. В.П. СЕРБСКОГО" МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕДА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕДА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВЕДА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Г МОСКВА 77, ПРОЕЗД СТУПИНСКИЙ, ДОМ 7, СТРОЕН. 2, ПОМЕЩЕНИЕ 15А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-985-1256187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elena.zhumik@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773411103518000225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734111035 18 000225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192 043 175,58 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.11.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВТОНОМНАЯ НЕКОММЕРЧЕСКАЯ ОРГАНИЗАЦИЯ "КОМПЛЕКС ИНЖИНИРИНГОВЫХ ТЕХНОЛОГИЙ КУРЧАТОВСКОГО ИНСТИТУТА" (АВТОНОМНАЯ НЕКОММЕРЧЕСКАЯ ОРГАНИЗАЦИЯ "КОМПЛЕКС ИНЖИНИРИНГОВЫХ ТЕХНОЛОГИЙ КУРЧАТОВСКОГО ИНСТИТУТА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНО "КОМПЛЕКС ИНЖИНИРИНГОВЫХ ТЕХНОЛОГИЙ КУРЧАТОВСКОГО ИНСТИТУТА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123182, Г МОСКВА 77, ПЛ АКАДЕМИКА КУРЧАТОВА, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7836808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@kitki.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770703340521000035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707033405 21 000035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 101 191,84 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "РОССИЙСКИЙ ГОСУДАРСТВЕННЫЙ ГУМАНИТАРНЫЙ УНИВЕРСИТЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБОУ ВО "РГГУ", РГГУ, РОССИЙСКИЙ ГОСУДАРСТВЕННЫЙ ГУМАНИТАРНЫЙ УНИВЕРСИТЕТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УНИСТРОЙ МОНТАЖ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УНИСТРОЙ МОНТАЖ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "УНИСТРОЙ МОНТАЖ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108814, Г МОСКВА 77, ПОС. СОСЕНСКОЕ, Д СОСЕНКИ, ДОМ 7, ЭТ 1 ОФ I/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-1862999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prosveshctybe@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3501102549321000138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35011025493 21 000138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 242 191,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНЖТРАНССАНТЕХМОНТАЖ" (ООО "ИТСТМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИТСТМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105203, Г МОСКВА 77, УЛ 15-Я ПАРКОВАЯ, ДОМ 8, ОФИС 406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-7751872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITSM@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773605664721000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17736056647 21 000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">791 739,68 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОНД СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОТАПОВА ГАЛИНА МИХАЙЛОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ПОТАПОВА ГАЛИНА МИХАЙЛОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ ИВАНОВСКАЯ 37, Г ИВАНОВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-965-818-31-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potapov_dv@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772409353122000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27724093531 22 000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">740 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОВРЕМЕННАЯ ПРОИЗВОДСТВЕННАЯ КОМПАНИЯ" (ООО "СПК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СПК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140186, ОБЛ МОСКОВСКАЯ 50, Г ЛЮБЕРЦЫ, Д ТОКАРЕВО, УЛ ПЕТРОВСКОЕ ПОЛЕ, ДОМ 1, ЛИТЕРА А, КОМНАТА 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (968) 446-14-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nfospk2019@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500904648921000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35009046489 21 000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 183 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДСКОГО ОКРУГА ДОМОДЕДОВО "МНОГОФУНКЦИОНАЛЬНЫЙ ЦЕНТР ПРЕДОСТАВЛЕНИЯ ГОСУДАРСТВЕННЫХ И МУНИЦИПАЛЬНЫХ УСЛУГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "МФЦ ДОМОДЕДОВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЗИЗОВ ЕВГЕНИЙ ЮРЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АЗИЗОВ ЕВГЕНИЙ ЮРЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ РОСТОВСКАЯ 61, Р-Н КАГАЛЬНИЦКИЙ, Х ЖУКОВО-ТАТАРСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-928-1000154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip.azozov@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772470742122000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17724707421 22 000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 564 756,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТАРЛОТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТАРЛОТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТАРЛОТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109428, Г МОСКВА 77, ПР-КТ РЯЗАНСКИЙ, ДОМ 30, КОРПУС 2, ПОМЕЩЕНИЕ ПОДВАЛ № 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-968-9899580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo-kaf@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502407621616000186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024076216 16 000186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79 047 200,23 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.12.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общество с ограниченной ответственностью Строительная Компания "Новый Век" (ООО СК "Новый Век")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО СК "Новый Век"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105082, г. Москва, ул. Ладожская, д.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-3804032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@new-century.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772719662322000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27727196623 22 000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221 373,33 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ "КОНСУЛЬТАТИВНО-ДИАГНОСТИЧЕСКАЯ ПОЛИКЛИНИКА № 121 ДЕПАРТАМЕНТА ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ "КДП №121 ДЗМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЫЛЬЧЕНКО СЕРГЕЙ СЕРГЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП МЫЛЬЧЕНКО СЕРГЕЙ СЕРГЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (999) 115-32-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laxefon@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770621374021000074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706213740 21 000074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 919 039,45 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.04.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТОНЕКС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТОНЕКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТОНЕКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143302, ОБЛ МОСКОВСКАЯ 50, Г НАРО-ФОМИНСК, ПЕР 2-Й ВОЛОДАРСКИЙ, ДОМ 4, ОФИС 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-0094555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89260094555@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504702469420000330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15047024694 20 000330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 150 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТТ-ЭКСПОРТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТТ-ЭКСПОРТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТТ-ЭКСПОРТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127299, Г МОСКВА 77, УЛ АКАДЕМИЧЕСКАЯ Б., ДОМ 5, СТРОЕНИЕ 1, ЭТ 4 КОМН №418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-351-7259359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttexport@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770756551222000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707565512 22 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 729 354,84 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОФИНДУСТРИЯ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОФИНДУСТРИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПРОФИНДУСТРИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127051, Г МОСКВА 77, Б-Р ЦВЕТНОЙ, ДОМ 30, СТРОЕНИЕ 1, ЭТАЖ 3 ПОМ I К 14 ОФ 139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-7964520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504702469420000211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15047024694 20 000211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241 198 300,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ " ВЕК" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ " ВЕК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО " ВЕК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172003, ОБЛ ТВЕРСКАЯ 69, Г ТОРЖОК, Ш ЛЕНИНГРАДСКОЕ, ДОМ 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-48251-97070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iskra1@tvcom.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101807021000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018070 21 000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 955 286,35 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОЙСКОВАЯ ЧАСТЬ 3492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГЛОБАЛНЕФТЕГАЗИНВЕСТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГЛОБАЛНЕФТЕГАЗИНВЕСТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГЛОБАЛНЕФТЕГАЗИНВЕСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">614010, КРАЙ ПЕРМСКИЙ 59, Г ПЕРМЬ, УЛ КУЙБЫШЕВА, ДОМ 113А, ОФИС 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-34278-30473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gngi59ads@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770336386821000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17703363868 21 000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">614 206,61 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИЛЮГИН ЕВГЕНИЙ НИКОЛАЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ПИЛЮГИН ЕВГЕНИЙ НИКОЛАЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ. МОСКОВСКАЯ 50, Г. ПОДОЛЬСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-3940575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip.pilyugin@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772780185621000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27727801856 21 000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140 048,52 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЛИМЧУК РОМАН ВЯЧЕСЛАВОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КЛИМЧУК РОМАН ВЯЧЕСЛАВОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ ВЛАДИМИРСКАЯ 33, Г ВЛАДИМИР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771017777421000143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27710177774 21 000143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 961 924,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГЕНЕЗИС 2.0" (ООО "ГЕНЕЗИС 2.0")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГЕНЕЗИС 2.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153051, - ИВАНОВСКАЯ 37, - Иваново, - ДОМОСТРОИТЕЛЕЙ, Д. 4, ОФИС 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (996) 354-27-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gendez2.0@yandex.ru</t>
+  </si>
 </sst>
 </file>
 
@@ -20298,7 +20940,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -20339,11 +20981,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -20455,8 +21092,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -20476,10 +21113,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q744"/>
+  <dimension ref="A1:Q770"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A709" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A741" activeCellId="0" sqref="A741"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A731" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A766" activeCellId="0" sqref="A766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56247,215 +56884,1349 @@
       </c>
     </row>
     <row r="741" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="0" t="s">
+      <c r="A741" s="11" t="s">
         <v>6702</v>
       </c>
-      <c r="B741" s="0" t="s">
+      <c r="B741" s="11" t="s">
         <v>6703</v>
       </c>
-      <c r="C741" s="0" t="s">
+      <c r="C741" s="11" t="s">
         <v>6704</v>
       </c>
-      <c r="D741" s="0" t="s">
+      <c r="D741" s="11" t="s">
         <v>6705</v>
       </c>
-      <c r="E741" s="0" t="s">
+      <c r="E741" s="11" t="s">
         <v>6706</v>
       </c>
-      <c r="F741" s="0" t="s">
+      <c r="F741" s="11" t="s">
         <v>5737</v>
       </c>
-      <c r="G741" s="0" t="s">
+      <c r="G741" s="11" t="s">
         <v>6707</v>
       </c>
-      <c r="H741" s="0" t="s">
+      <c r="H741" s="11" t="s">
         <v>6708</v>
       </c>
-      <c r="I741" s="0" t="s">
+      <c r="I741" s="11" t="s">
         <v>6709</v>
       </c>
-      <c r="J741" s="0" t="s">
+      <c r="J741" s="11" t="s">
         <v>6710</v>
       </c>
-      <c r="K741" s="0" t="n">
+      <c r="K741" s="11" t="n">
         <v>7727084790</v>
       </c>
-      <c r="L741" s="0" t="s">
+      <c r="L741" s="11" t="s">
         <v>6711</v>
       </c>
-      <c r="M741" s="0" t="s">
+      <c r="M741" s="11" t="s">
         <v>6712</v>
       </c>
-      <c r="N741" s="0" t="n">
+      <c r="N741" s="11" t="n">
         <v>7701313170</v>
       </c>
-      <c r="O741" s="15" t="s">
+      <c r="O741" s="12" t="s">
         <v>6713</v>
       </c>
-      <c r="P741" s="15" t="s">
+      <c r="P741" s="12" t="s">
         <v>6714</v>
       </c>
-      <c r="Q741" s="15" t="s">
+      <c r="Q741" s="12" t="s">
         <v>6715</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="0" t="s">
+      <c r="A742" s="11" t="s">
         <v>6716</v>
       </c>
-      <c r="B742" s="0" t="s">
+      <c r="B742" s="11" t="s">
         <v>6717</v>
       </c>
-      <c r="C742" s="0" t="s">
+      <c r="C742" s="11" t="s">
         <v>6718</v>
       </c>
-      <c r="D742" s="0" t="s">
+      <c r="D742" s="11" t="s">
         <v>6719</v>
       </c>
-      <c r="E742" s="0" t="s">
+      <c r="E742" s="11" t="s">
         <v>2701</v>
       </c>
-      <c r="F742" s="0" t="s">
+      <c r="F742" s="11" t="s">
         <v>3224</v>
       </c>
-      <c r="G742" s="0" t="s">
+      <c r="G742" s="11" t="s">
         <v>6720</v>
       </c>
-      <c r="H742" s="0" t="s">
+      <c r="H742" s="11" t="s">
         <v>5949</v>
       </c>
-      <c r="I742" s="0" t="s">
+      <c r="I742" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="J742" s="0" t="s">
+      <c r="J742" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="K742" s="0" t="n">
+      <c r="K742" s="11" t="n">
         <v>7707795160</v>
       </c>
-      <c r="L742" s="0" t="s">
+      <c r="L742" s="11" t="s">
         <v>6721</v>
       </c>
-      <c r="M742" s="0" t="s">
+      <c r="M742" s="11" t="s">
         <v>6722</v>
       </c>
-      <c r="N742" s="0" t="n">
+      <c r="N742" s="11" t="n">
         <v>771812144322</v>
       </c>
-      <c r="O742" s="0" t="s">
+      <c r="O742" s="11" t="s">
         <v>1823</v>
       </c>
-      <c r="P742" s="0" t="s">
+      <c r="P742" s="11" t="s">
         <v>6723</v>
       </c>
-      <c r="Q742" s="0" t="s">
+      <c r="Q742" s="11" t="s">
         <v>6724</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="0" t="s">
+      <c r="A743" s="11" t="s">
         <v>6725</v>
       </c>
-      <c r="B743" s="0" t="s">
+      <c r="B743" s="11" t="s">
         <v>6726</v>
       </c>
-      <c r="C743" s="0" t="s">
+      <c r="C743" s="11" t="s">
         <v>6727</v>
       </c>
-      <c r="D743" s="0" t="s">
+      <c r="D743" s="11" t="s">
         <v>6728</v>
       </c>
-      <c r="E743" s="0" t="s">
+      <c r="E743" s="11" t="s">
         <v>2011</v>
       </c>
-      <c r="F743" s="0" t="s">
+      <c r="F743" s="11" t="s">
         <v>2581</v>
       </c>
-      <c r="G743" s="0" t="s">
+      <c r="G743" s="11" t="s">
         <v>6729</v>
       </c>
-      <c r="H743" s="0" t="s">
+      <c r="H743" s="11" t="s">
         <v>6730</v>
       </c>
-      <c r="I743" s="0" t="s">
+      <c r="I743" s="11" t="s">
         <v>6731</v>
       </c>
-      <c r="J743" s="0" t="s">
+      <c r="J743" s="11" t="s">
         <v>6732</v>
       </c>
-      <c r="K743" s="0" t="n">
+      <c r="K743" s="11" t="n">
         <v>7726726998</v>
       </c>
-      <c r="L743" s="0" t="s">
+      <c r="L743" s="11" t="s">
         <v>6733</v>
       </c>
-      <c r="M743" s="0" t="s">
+      <c r="M743" s="11" t="s">
         <v>6734</v>
       </c>
-      <c r="N743" s="0" t="n">
+      <c r="N743" s="11" t="n">
         <v>9704031731</v>
       </c>
-      <c r="O743" s="0" t="s">
+      <c r="O743" s="11" t="s">
         <v>6735</v>
       </c>
-      <c r="P743" s="0" t="s">
+      <c r="P743" s="11" t="s">
         <v>6736</v>
       </c>
-      <c r="Q743" s="0" t="s">
+      <c r="Q743" s="11" t="s">
         <v>6737</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="0" t="s">
+      <c r="A744" s="11" t="s">
         <v>6738</v>
       </c>
-      <c r="B744" s="0" t="s">
+      <c r="B744" s="11" t="s">
         <v>6739</v>
       </c>
-      <c r="C744" s="0" t="s">
+      <c r="C744" s="11" t="s">
         <v>6740</v>
       </c>
-      <c r="D744" s="0" t="s">
+      <c r="D744" s="11" t="s">
         <v>6741</v>
       </c>
-      <c r="E744" s="0" t="s">
+      <c r="E744" s="11" t="s">
         <v>6742</v>
       </c>
-      <c r="F744" s="0" t="s">
+      <c r="F744" s="11" t="s">
         <v>2223</v>
       </c>
-      <c r="G744" s="0" t="s">
+      <c r="G744" s="11" t="s">
         <v>6225</v>
       </c>
-      <c r="H744" s="0" t="s">
+      <c r="H744" s="11" t="s">
         <v>6743</v>
       </c>
-      <c r="I744" s="0" t="s">
+      <c r="I744" s="11" t="s">
         <v>5172</v>
       </c>
-      <c r="J744" s="0" t="s">
+      <c r="J744" s="11" t="s">
         <v>5173</v>
       </c>
-      <c r="K744" s="0" t="n">
+      <c r="K744" s="11" t="n">
         <v>7712008651</v>
       </c>
-      <c r="L744" s="0" t="s">
+      <c r="L744" s="11" t="s">
         <v>6744</v>
       </c>
-      <c r="M744" s="0" t="s">
+      <c r="M744" s="11" t="s">
         <v>6745</v>
       </c>
-      <c r="N744" s="0" t="n">
+      <c r="N744" s="11" t="n">
         <v>9709031083</v>
       </c>
-      <c r="O744" s="0" t="s">
+      <c r="O744" s="11" t="s">
         <v>6746</v>
       </c>
-      <c r="P744" s="0" t="s">
+      <c r="P744" s="11" t="s">
         <v>6747</v>
       </c>
-      <c r="Q744" s="0" t="s">
+      <c r="Q744" s="11" t="s">
         <v>6748</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="1" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="11" t="s">
+        <v>6749</v>
+      </c>
+      <c r="B746" s="11" t="s">
+        <v>6750</v>
+      </c>
+      <c r="C746" s="11" t="s">
+        <v>6751</v>
+      </c>
+      <c r="D746" s="11" t="s">
+        <v>6752</v>
+      </c>
+      <c r="E746" s="11" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F746" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G746" s="11" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H746" s="11" t="s">
+        <v>5748</v>
+      </c>
+      <c r="I746" s="11" t="s">
+        <v>6753</v>
+      </c>
+      <c r="J746" s="11" t="s">
+        <v>6754</v>
+      </c>
+      <c r="K746" s="11" t="n">
+        <v>7710030933</v>
+      </c>
+      <c r="L746" s="11" t="s">
+        <v>6755</v>
+      </c>
+      <c r="M746" s="11" t="s">
+        <v>6756</v>
+      </c>
+      <c r="N746" s="15" t="n">
+        <v>503805273218</v>
+      </c>
+      <c r="O746" s="11" t="s">
+        <v>6757</v>
+      </c>
+      <c r="P746" s="11" t="n">
+        <v>79267360333</v>
+      </c>
+      <c r="Q746" s="11" t="s">
+        <v>6758</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="11" t="s">
+        <v>6759</v>
+      </c>
+      <c r="B747" s="11" t="s">
+        <v>6760</v>
+      </c>
+      <c r="C747" s="11" t="s">
+        <v>6761</v>
+      </c>
+      <c r="D747" s="11" t="s">
+        <v>6762</v>
+      </c>
+      <c r="E747" s="11" t="s">
+        <v>6763</v>
+      </c>
+      <c r="F747" s="11" t="s">
+        <v>6764</v>
+      </c>
+      <c r="G747" s="11" t="s">
+        <v>6765</v>
+      </c>
+      <c r="H747" s="11" t="s">
+        <v>6016</v>
+      </c>
+      <c r="I747" s="11" t="s">
+        <v>6766</v>
+      </c>
+      <c r="J747" s="11" t="s">
+        <v>6767</v>
+      </c>
+      <c r="K747" s="11" t="n">
+        <v>5001007706</v>
+      </c>
+      <c r="L747" s="11" t="s">
+        <v>6768</v>
+      </c>
+      <c r="M747" s="11" t="s">
+        <v>6769</v>
+      </c>
+      <c r="N747" s="15" t="n">
+        <v>7725364791</v>
+      </c>
+      <c r="O747" s="11" t="s">
+        <v>5134</v>
+      </c>
+      <c r="P747" s="11" t="s">
+        <v>5135</v>
+      </c>
+      <c r="Q747" s="11" t="s">
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="11" t="s">
+        <v>6771</v>
+      </c>
+      <c r="B748" s="11" t="s">
+        <v>6772</v>
+      </c>
+      <c r="C748" s="11" t="s">
+        <v>6773</v>
+      </c>
+      <c r="D748" s="11" t="s">
+        <v>6774</v>
+      </c>
+      <c r="E748" s="11" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F748" s="11" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G748" s="11" t="s">
+        <v>6775</v>
+      </c>
+      <c r="H748" s="11" t="s">
+        <v>6775</v>
+      </c>
+      <c r="I748" s="11" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J748" s="11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K748" s="11" t="n">
+        <v>7706055854</v>
+      </c>
+      <c r="L748" s="11" t="s">
+        <v>6776</v>
+      </c>
+      <c r="M748" s="11" t="s">
+        <v>6777</v>
+      </c>
+      <c r="N748" s="15" t="n">
+        <v>504200300958</v>
+      </c>
+      <c r="O748" s="11" t="s">
+        <v>6778</v>
+      </c>
+      <c r="P748" s="11" t="s">
+        <v>6779</v>
+      </c>
+      <c r="Q748" s="11" t="s">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="1" t="n">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="11" t="s">
+        <v>6781</v>
+      </c>
+      <c r="B750" s="11" t="s">
+        <v>6782</v>
+      </c>
+      <c r="C750" s="11" t="s">
+        <v>6783</v>
+      </c>
+      <c r="D750" s="11" t="s">
+        <v>6784</v>
+      </c>
+      <c r="E750" s="11" t="s">
+        <v>6016</v>
+      </c>
+      <c r="F750" s="11" t="s">
+        <v>6785</v>
+      </c>
+      <c r="G750" s="11" t="s">
+        <v>2283</v>
+      </c>
+      <c r="H750" s="11" t="s">
+        <v>3489</v>
+      </c>
+      <c r="I750" s="11" t="s">
+        <v>6786</v>
+      </c>
+      <c r="J750" s="11" t="s">
+        <v>6787</v>
+      </c>
+      <c r="K750" s="11" t="n">
+        <v>7704032379</v>
+      </c>
+      <c r="L750" s="11" t="s">
+        <v>6788</v>
+      </c>
+      <c r="M750" s="11" t="s">
+        <v>6789</v>
+      </c>
+      <c r="N750" s="11" t="n">
+        <v>9701155489</v>
+      </c>
+      <c r="O750" s="11" t="s">
+        <v>6790</v>
+      </c>
+      <c r="P750" s="11" t="s">
+        <v>6791</v>
+      </c>
+      <c r="Q750" s="11" t="s">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="11" t="s">
+        <v>6793</v>
+      </c>
+      <c r="B751" s="11" t="s">
+        <v>6794</v>
+      </c>
+      <c r="C751" s="11" t="s">
+        <v>6795</v>
+      </c>
+      <c r="D751" s="11" t="s">
+        <v>6796</v>
+      </c>
+      <c r="E751" s="11" t="s">
+        <v>4034</v>
+      </c>
+      <c r="F751" s="11" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G751" s="11" t="s">
+        <v>6797</v>
+      </c>
+      <c r="H751" s="11" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I751" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J751" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="K751" s="11" t="n">
+        <v>7734111035</v>
+      </c>
+      <c r="L751" s="11" t="s">
+        <v>6798</v>
+      </c>
+      <c r="M751" s="11" t="s">
+        <v>6799</v>
+      </c>
+      <c r="N751" s="11" t="n">
+        <v>7734266656</v>
+      </c>
+      <c r="O751" s="11" t="s">
+        <v>6800</v>
+      </c>
+      <c r="P751" s="11" t="s">
+        <v>6801</v>
+      </c>
+      <c r="Q751" s="11" t="s">
+        <v>6802</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="1" t="n">
+        <v>14.03</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="11" t="s">
+        <v>6803</v>
+      </c>
+      <c r="B753" s="11" t="s">
+        <v>6804</v>
+      </c>
+      <c r="C753" s="11" t="s">
+        <v>6805</v>
+      </c>
+      <c r="D753" s="11" t="s">
+        <v>6806</v>
+      </c>
+      <c r="E753" s="11" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F753" s="11" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G753" s="11" t="s">
+        <v>2419</v>
+      </c>
+      <c r="H753" s="11" t="s">
+        <v>3815</v>
+      </c>
+      <c r="I753" s="11" t="s">
+        <v>6807</v>
+      </c>
+      <c r="J753" s="11" t="s">
+        <v>6808</v>
+      </c>
+      <c r="K753" s="11" t="n">
+        <v>7707033405</v>
+      </c>
+      <c r="L753" s="11" t="s">
+        <v>6809</v>
+      </c>
+      <c r="M753" s="11" t="s">
+        <v>6810</v>
+      </c>
+      <c r="N753" s="11" t="n">
+        <v>7751167824</v>
+      </c>
+      <c r="O753" s="11" t="s">
+        <v>6811</v>
+      </c>
+      <c r="P753" s="11" t="s">
+        <v>6812</v>
+      </c>
+      <c r="Q753" s="11" t="s">
+        <v>6813</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="11" t="s">
+        <v>6814</v>
+      </c>
+      <c r="B754" s="11" t="s">
+        <v>6815</v>
+      </c>
+      <c r="C754" s="11" t="s">
+        <v>6816</v>
+      </c>
+      <c r="D754" s="11" t="s">
+        <v>6817</v>
+      </c>
+      <c r="E754" s="11" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F754" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G754" s="11" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H754" s="11" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I754" s="11" t="s">
+        <v>3306</v>
+      </c>
+      <c r="J754" s="11" t="s">
+        <v>3307</v>
+      </c>
+      <c r="K754" s="11" t="n">
+        <v>5011025493</v>
+      </c>
+      <c r="L754" s="11" t="s">
+        <v>6818</v>
+      </c>
+      <c r="M754" s="11" t="s">
+        <v>6819</v>
+      </c>
+      <c r="N754" s="11" t="n">
+        <v>7719630572</v>
+      </c>
+      <c r="O754" s="11" t="s">
+        <v>6820</v>
+      </c>
+      <c r="P754" s="11" t="s">
+        <v>6821</v>
+      </c>
+      <c r="Q754" s="11" t="s">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="11" t="s">
+        <v>6823</v>
+      </c>
+      <c r="B755" s="11" t="s">
+        <v>6824</v>
+      </c>
+      <c r="C755" s="11" t="s">
+        <v>6825</v>
+      </c>
+      <c r="D755" s="11" t="s">
+        <v>6826</v>
+      </c>
+      <c r="E755" s="11" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F755" s="11" t="s">
+        <v>6827</v>
+      </c>
+      <c r="G755" s="11" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H755" s="11" t="s">
+        <v>4807</v>
+      </c>
+      <c r="I755" s="11" t="s">
+        <v>6828</v>
+      </c>
+      <c r="J755" s="11"/>
+      <c r="K755" s="11" t="n">
+        <v>7736056647</v>
+      </c>
+      <c r="L755" s="11" t="s">
+        <v>6829</v>
+      </c>
+      <c r="M755" s="11" t="s">
+        <v>6830</v>
+      </c>
+      <c r="N755" s="11" t="n">
+        <v>370251605519</v>
+      </c>
+      <c r="O755" s="11" t="s">
+        <v>6831</v>
+      </c>
+      <c r="P755" s="11" t="s">
+        <v>6832</v>
+      </c>
+      <c r="Q755" s="11" t="s">
+        <v>6833</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="1" t="n">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="11" t="s">
+        <v>6834</v>
+      </c>
+      <c r="B757" s="11" t="s">
+        <v>6835</v>
+      </c>
+      <c r="C757" s="11" t="s">
+        <v>6836</v>
+      </c>
+      <c r="D757" s="11" t="s">
+        <v>6837</v>
+      </c>
+      <c r="E757" s="11" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F757" s="11" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G757" s="11" t="s">
+        <v>4144</v>
+      </c>
+      <c r="H757" s="11" t="s">
+        <v>6743</v>
+      </c>
+      <c r="I757" s="11" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J757" s="11" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K757" s="11" t="n">
+        <v>7724093531</v>
+      </c>
+      <c r="L757" s="11" t="s">
+        <v>6838</v>
+      </c>
+      <c r="M757" s="11" t="s">
+        <v>6839</v>
+      </c>
+      <c r="N757" s="11" t="n">
+        <v>5027282802</v>
+      </c>
+      <c r="O757" s="11" t="s">
+        <v>6840</v>
+      </c>
+      <c r="P757" s="11" t="s">
+        <v>6841</v>
+      </c>
+      <c r="Q757" s="11" t="s">
+        <v>6842</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="11" t="s">
+        <v>6843</v>
+      </c>
+      <c r="B758" s="11" t="s">
+        <v>6844</v>
+      </c>
+      <c r="C758" s="11" t="s">
+        <v>6845</v>
+      </c>
+      <c r="D758" s="11" t="s">
+        <v>6846</v>
+      </c>
+      <c r="E758" s="11" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F758" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G758" s="11" t="s">
+        <v>2545</v>
+      </c>
+      <c r="H758" s="11" t="s">
+        <v>2545</v>
+      </c>
+      <c r="I758" s="11" t="s">
+        <v>6847</v>
+      </c>
+      <c r="J758" s="11" t="s">
+        <v>6848</v>
+      </c>
+      <c r="K758" s="11" t="n">
+        <v>5009046489</v>
+      </c>
+      <c r="L758" s="11" t="s">
+        <v>6849</v>
+      </c>
+      <c r="M758" s="11" t="s">
+        <v>6850</v>
+      </c>
+      <c r="N758" s="11" t="n">
+        <v>611392288825</v>
+      </c>
+      <c r="O758" s="11" t="s">
+        <v>6851</v>
+      </c>
+      <c r="P758" s="11" t="s">
+        <v>6852</v>
+      </c>
+      <c r="Q758" s="11" t="s">
+        <v>6853</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="11" t="s">
+        <v>6854</v>
+      </c>
+      <c r="B759" s="11" t="s">
+        <v>6855</v>
+      </c>
+      <c r="C759" s="11" t="s">
+        <v>6856</v>
+      </c>
+      <c r="D759" s="11" t="s">
+        <v>6857</v>
+      </c>
+      <c r="E759" s="11" t="s">
+        <v>4807</v>
+      </c>
+      <c r="F759" s="11" t="s">
+        <v>4755</v>
+      </c>
+      <c r="G759" s="11" t="s">
+        <v>3143</v>
+      </c>
+      <c r="H759" s="11" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I759" s="11" t="s">
+        <v>6017</v>
+      </c>
+      <c r="J759" s="11" t="s">
+        <v>6018</v>
+      </c>
+      <c r="K759" s="11" t="n">
+        <v>7724707421</v>
+      </c>
+      <c r="L759" s="11" t="s">
+        <v>6858</v>
+      </c>
+      <c r="M759" s="11" t="s">
+        <v>6859</v>
+      </c>
+      <c r="N759" s="11" t="n">
+        <v>7707809857</v>
+      </c>
+      <c r="O759" s="11" t="s">
+        <v>6860</v>
+      </c>
+      <c r="P759" s="11" t="s">
+        <v>6861</v>
+      </c>
+      <c r="Q759" s="11" t="s">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="11" t="s">
+        <v>6863</v>
+      </c>
+      <c r="B760" s="11" t="s">
+        <v>6864</v>
+      </c>
+      <c r="C760" s="11" t="s">
+        <v>6865</v>
+      </c>
+      <c r="D760" s="11" t="s">
+        <v>6866</v>
+      </c>
+      <c r="E760" s="11" t="s">
+        <v>6867</v>
+      </c>
+      <c r="F760" s="11" t="s">
+        <v>5737</v>
+      </c>
+      <c r="G760" s="11" t="s">
+        <v>6867</v>
+      </c>
+      <c r="H760" s="11" t="s">
+        <v>6868</v>
+      </c>
+      <c r="I760" s="11" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J760" s="11" t="s">
+        <v>4038</v>
+      </c>
+      <c r="K760" s="11" t="n">
+        <v>5024002077</v>
+      </c>
+      <c r="L760" s="11" t="s">
+        <v>6869</v>
+      </c>
+      <c r="M760" s="11" t="s">
+        <v>6870</v>
+      </c>
+      <c r="N760" s="11" t="n">
+        <v>7701754087</v>
+      </c>
+      <c r="O760" s="11" t="s">
+        <v>6871</v>
+      </c>
+      <c r="P760" s="11" t="s">
+        <v>6872</v>
+      </c>
+      <c r="Q760" s="11" t="s">
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="11" t="s">
+        <v>6874</v>
+      </c>
+      <c r="B761" s="11" t="s">
+        <v>6875</v>
+      </c>
+      <c r="C761" s="11" t="s">
+        <v>6876</v>
+      </c>
+      <c r="D761" s="11" t="s">
+        <v>6877</v>
+      </c>
+      <c r="E761" s="11" t="s">
+        <v>5949</v>
+      </c>
+      <c r="F761" s="11" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G761" s="11" t="s">
+        <v>5949</v>
+      </c>
+      <c r="H761" s="11" t="s">
+        <v>3095</v>
+      </c>
+      <c r="I761" s="11" t="s">
+        <v>6878</v>
+      </c>
+      <c r="J761" s="11" t="s">
+        <v>6879</v>
+      </c>
+      <c r="K761" s="11" t="n">
+        <v>7727196623</v>
+      </c>
+      <c r="L761" s="11" t="s">
+        <v>6880</v>
+      </c>
+      <c r="M761" s="11" t="s">
+        <v>6881</v>
+      </c>
+      <c r="N761" s="11" t="n">
+        <v>860237832933</v>
+      </c>
+      <c r="O761" s="11" t="s">
+        <v>1718</v>
+      </c>
+      <c r="P761" s="11" t="s">
+        <v>6882</v>
+      </c>
+      <c r="Q761" s="11" t="s">
+        <v>6883</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="11" t="s">
+        <v>6884</v>
+      </c>
+      <c r="B762" s="11" t="s">
+        <v>6885</v>
+      </c>
+      <c r="C762" s="11" t="s">
+        <v>6886</v>
+      </c>
+      <c r="D762" s="11" t="s">
+        <v>6887</v>
+      </c>
+      <c r="E762" s="11" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F762" s="11" t="s">
+        <v>6888</v>
+      </c>
+      <c r="G762" s="11" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H762" s="11" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I762" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="J762" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="K762" s="11" t="n">
+        <v>7706213740</v>
+      </c>
+      <c r="L762" s="11" t="s">
+        <v>6889</v>
+      </c>
+      <c r="M762" s="11" t="s">
+        <v>6890</v>
+      </c>
+      <c r="N762" s="11" t="n">
+        <v>5030096394</v>
+      </c>
+      <c r="O762" s="11" t="s">
+        <v>6891</v>
+      </c>
+      <c r="P762" s="11" t="s">
+        <v>6892</v>
+      </c>
+      <c r="Q762" s="11" t="s">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="11" t="s">
+        <v>6894</v>
+      </c>
+      <c r="B763" s="11" t="s">
+        <v>6895</v>
+      </c>
+      <c r="C763" s="11" t="s">
+        <v>6896</v>
+      </c>
+      <c r="D763" s="11" t="s">
+        <v>6897</v>
+      </c>
+      <c r="E763" s="11" t="s">
+        <v>6898</v>
+      </c>
+      <c r="F763" s="11" t="s">
+        <v>6899</v>
+      </c>
+      <c r="G763" s="11" t="s">
+        <v>6900</v>
+      </c>
+      <c r="H763" s="11" t="s">
+        <v>6901</v>
+      </c>
+      <c r="I763" s="11" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J763" s="11" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K763" s="11" t="n">
+        <v>5047024694</v>
+      </c>
+      <c r="L763" s="11" t="s">
+        <v>6902</v>
+      </c>
+      <c r="M763" s="11" t="s">
+        <v>6903</v>
+      </c>
+      <c r="N763" s="11" t="n">
+        <v>7451287415</v>
+      </c>
+      <c r="O763" s="11" t="s">
+        <v>6904</v>
+      </c>
+      <c r="P763" s="11" t="s">
+        <v>6905</v>
+      </c>
+      <c r="Q763" s="11" t="s">
+        <v>6906</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="11" t="s">
+        <v>6907</v>
+      </c>
+      <c r="B764" s="11" t="s">
+        <v>6908</v>
+      </c>
+      <c r="C764" s="11" t="s">
+        <v>6909</v>
+      </c>
+      <c r="D764" s="11" t="s">
+        <v>6910</v>
+      </c>
+      <c r="E764" s="11" t="s">
+        <v>4746</v>
+      </c>
+      <c r="F764" s="11" t="s">
+        <v>4632</v>
+      </c>
+      <c r="G764" s="11" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H764" s="11" t="s">
+        <v>6911</v>
+      </c>
+      <c r="I764" s="11" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J764" s="11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K764" s="11" t="n">
+        <v>7707565512</v>
+      </c>
+      <c r="L764" s="11" t="s">
+        <v>6912</v>
+      </c>
+      <c r="M764" s="11" t="s">
+        <v>6913</v>
+      </c>
+      <c r="N764" s="11" t="n">
+        <v>7719424019</v>
+      </c>
+      <c r="O764" s="11" t="s">
+        <v>6914</v>
+      </c>
+      <c r="P764" s="11" t="s">
+        <v>6915</v>
+      </c>
+      <c r="Q764" s="11" t="s">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="11" t="s">
+        <v>6916</v>
+      </c>
+      <c r="B765" s="11" t="s">
+        <v>6917</v>
+      </c>
+      <c r="C765" s="11" t="s">
+        <v>6918</v>
+      </c>
+      <c r="D765" s="11" t="s">
+        <v>6919</v>
+      </c>
+      <c r="E765" s="11" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F765" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G765" s="11" t="s">
+        <v>6920</v>
+      </c>
+      <c r="H765" s="11" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I765" s="11" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J765" s="11" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K765" s="11" t="n">
+        <v>5047024694</v>
+      </c>
+      <c r="L765" s="11" t="s">
+        <v>6921</v>
+      </c>
+      <c r="M765" s="11" t="s">
+        <v>6922</v>
+      </c>
+      <c r="N765" s="11" t="n">
+        <v>6915006785</v>
+      </c>
+      <c r="O765" s="11" t="s">
+        <v>6923</v>
+      </c>
+      <c r="P765" s="11" t="s">
+        <v>6924</v>
+      </c>
+      <c r="Q765" s="11" t="s">
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="1" t="n">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="0" t="s">
+        <v>6926</v>
+      </c>
+      <c r="B767" s="0" t="s">
+        <v>6927</v>
+      </c>
+      <c r="C767" s="0" t="s">
+        <v>6928</v>
+      </c>
+      <c r="D767" s="0" t="s">
+        <v>6929</v>
+      </c>
+      <c r="E767" s="0" t="s">
+        <v>3016</v>
+      </c>
+      <c r="F767" s="0" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G767" s="0" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H767" s="0" t="s">
+        <v>6175</v>
+      </c>
+      <c r="I767" s="0" t="s">
+        <v>6930</v>
+      </c>
+      <c r="J767" s="0"/>
+      <c r="K767" s="0" t="n">
+        <v>5001018070</v>
+      </c>
+      <c r="L767" s="0" t="s">
+        <v>6931</v>
+      </c>
+      <c r="M767" s="0" t="s">
+        <v>6932</v>
+      </c>
+      <c r="N767" s="0" t="n">
+        <v>5904383099</v>
+      </c>
+      <c r="O767" s="0" t="s">
+        <v>6933</v>
+      </c>
+      <c r="P767" s="0" t="s">
+        <v>6934</v>
+      </c>
+      <c r="Q767" s="0" t="s">
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="0" t="s">
+        <v>6936</v>
+      </c>
+      <c r="B768" s="0" t="s">
+        <v>6937</v>
+      </c>
+      <c r="C768" s="0" t="s">
+        <v>6938</v>
+      </c>
+      <c r="D768" s="0" t="s">
+        <v>6939</v>
+      </c>
+      <c r="E768" s="0" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F768" s="0" t="s">
+        <v>4858</v>
+      </c>
+      <c r="G768" s="0" t="s">
+        <v>2186</v>
+      </c>
+      <c r="H768" s="0" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I768" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J768" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K768" s="0" t="n">
+        <v>7703363868</v>
+      </c>
+      <c r="L768" s="0" t="s">
+        <v>6940</v>
+      </c>
+      <c r="M768" s="0" t="s">
+        <v>6941</v>
+      </c>
+      <c r="N768" s="0" t="n">
+        <v>632516117530</v>
+      </c>
+      <c r="O768" s="0" t="s">
+        <v>6942</v>
+      </c>
+      <c r="P768" s="0" t="s">
+        <v>6943</v>
+      </c>
+      <c r="Q768" s="0" t="s">
+        <v>6944</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="0" t="s">
+        <v>6945</v>
+      </c>
+      <c r="B769" s="0" t="s">
+        <v>6946</v>
+      </c>
+      <c r="C769" s="0" t="s">
+        <v>6947</v>
+      </c>
+      <c r="D769" s="0" t="s">
+        <v>6948</v>
+      </c>
+      <c r="E769" s="0" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F769" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G769" s="0" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H769" s="0" t="s">
+        <v>6949</v>
+      </c>
+      <c r="I769" s="0" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J769" s="0" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K769" s="0" t="n">
+        <v>7727801856</v>
+      </c>
+      <c r="L769" s="0" t="s">
+        <v>6950</v>
+      </c>
+      <c r="M769" s="0" t="s">
+        <v>6951</v>
+      </c>
+      <c r="N769" s="0" t="n">
+        <v>332902822465</v>
+      </c>
+      <c r="O769" s="0" t="s">
+        <v>6952</v>
+      </c>
+      <c r="P769" s="0" t="s">
+        <v>3276</v>
+      </c>
+      <c r="Q769" s="0" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="0" t="s">
+        <v>6953</v>
+      </c>
+      <c r="B770" s="0" t="s">
+        <v>6954</v>
+      </c>
+      <c r="C770" s="0" t="s">
+        <v>6955</v>
+      </c>
+      <c r="D770" s="0" t="s">
+        <v>6956</v>
+      </c>
+      <c r="E770" s="0" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F770" s="0" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G770" s="0" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H770" s="0" t="s">
+        <v>6957</v>
+      </c>
+      <c r="I770" s="0" t="s">
+        <v>5655</v>
+      </c>
+      <c r="J770" s="0" t="s">
+        <v>5656</v>
+      </c>
+      <c r="K770" s="0" t="n">
+        <v>7710177774</v>
+      </c>
+      <c r="L770" s="0" t="s">
+        <v>6958</v>
+      </c>
+      <c r="M770" s="0" t="s">
+        <v>6959</v>
+      </c>
+      <c r="N770" s="0" t="n">
+        <v>3702258905</v>
+      </c>
+      <c r="O770" s="0" t="s">
+        <v>6960</v>
+      </c>
+      <c r="P770" s="0" t="s">
+        <v>6961</v>
+      </c>
+      <c r="Q770" s="0" t="s">
+        <v>6962</v>
       </c>
     </row>
   </sheetData>

--- a/base/zakupki_rastorjenie_base.xlsx
+++ b/base/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9288" uniqueCount="6963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9571" uniqueCount="7152">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -20927,6 +20927,573 @@
   </si>
   <si>
     <t xml:space="preserve">gendez2.0@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504101975422000071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25041019754 22 000071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 890 286,10 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЕДИНЫЙ ЦЕНТР УСЛУГ" (ООО "ЕДИНЫЙ ЦЕНТР УСЛУГ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЕДИНЫЙ ЦЕНТР УСЛУГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141014, ОБЛ МОСКОВСКАЯ 50, Г МЫТИЩИ, Ш ОСТАШКОВСКОЕ, КИЛОМЕТР 8, ВЛАДЕНИЕ 10, СТРОЕНИЕ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-2410808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773411527021000325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734115270 21 000325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 775 953,78 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.01.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ГЛАВНЫЙ КЛИНИЧЕСКИЙ ГОСПИТАЛЬ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУЗ "ГКГ МВД РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТАЛКЕР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТАЛКЕР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТАЛКЕР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105082, Г МОСКВА 77, УЛ БАКУНИНСКАЯ, ДОМ 71, СТРОЕНИЕ 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-1080696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORELAA@RAMBLER.RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504805086622000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25048050866 22 000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">484 536,37 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕГАСФЕРА" (ООО "МЕГАСФЕРА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕГАСФЕРА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115230, Г МОСКВА 77, Ш ВАРШАВСКОЕ, ДОМ 42, ЭТАЖ 5 КОМ 5039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (916) 525-55-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89165255522@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770584037922000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27705840379 22 000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 429 202,03 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКСПЕРТСТРОЙ" (ООО "ЭКСПЕРТСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770802438620000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17708024386 20 000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 953 369,60 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "АНАЛИТИЧЕСКИЙ ЦЕНТР МИНСЕЛЬХОЗА РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "АЦ МИНСЕЛЬХОЗА РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КРЕМЛЬ 2" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КРЕМЛЬ 2")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КРЕМЛЬ 2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111672, Г МОСКВА 77, УЛ САЛТЫКОВСКАЯ, ДОМ 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9200706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kremlin-2@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770302273022000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17703022730 22 000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239 474,13 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕРНОЕ РЕШЕНИЕ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕРНОЕ РЕШЕНИЕ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВЕРНОЕ РЕШЕНИЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300045, - ТУЛЬСКАЯ 71, - Тула, - НОВОМОСКОВСКОЕ, Д. 2, ЦЕХ АДМИНИСТРАТИВНО-БЫТ, ПОМЕЩ. №1 (ЭТАЖ 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-950-9189812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo.vernoe_reshenie@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770129358021000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27701293580 21 000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262 930,83 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 1589"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 1589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭНЕРГЕТИЧЕСКАЯ КОНСАЛТИНГОВАЯ КОМПАНИЯ ЕДИНОГО РАЗВИТИЯ" (ООО "ЭККЕР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭККЕР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127238, Г. МОСКВА 77, ПР-Д ЛОКОМОТИВНЫЙ, Д. 21, СТР. 5, ЭТАЖ 6 ПОМЕЩ./КОМ. 10/6/24(РМ24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (901) 551-90-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top5356@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770913832221000108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27709138322 21 000108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">822 054,86 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "МОСКОВСКОЕ ГОРОДСКОЕ ФИЗКУЛЬТУРНО-СПОРТИВНОЕ ОБЪЕДИНЕНИЕ" ДЕПАРТАМЕНТА СПОРТА ГОРОДА МОСКВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ "МГФСО" МОСКОМСПОРТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРУТЮНЯН ЭРНСТ ГЕОРГИЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АРУТЮНЯН ЭРНСТ ГЕОРГИЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (926) 972-18-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arutyunyan.ernst@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507800172121000098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35078001721 21 000098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 000 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ТАЛДОМСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАУЧНО-ИССЛЕДОВАТЕЛЬСКИЙ ИНСТИТУТ ПРОЕКТИРОВАНИЯ, ТЕХНОЛОГИИ И ЭКСПЕРТИЗЫ СТРОИТЕЛЬСТВА" (ООО «НИИ ПТЭС»)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «НИИ ПТЭС»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127576, Г МОСКВА 77, УЛ НОВГОРОДСКАЯ, ДОМ 1, КОРПУС А, ОФИС 509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail@niiexp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770198524622000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17701985246 22 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУД ПО ИНТЕЛЛЕКТУАЛЬНЫМ ПРАВАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИКСИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИКСИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФИКСИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115114, Г МОСКВА 77, ПЕР 1-Й КОЖЕВНИЧЕСКИЙ, ДОМ 6, СТРОЕНИЕ 1, ЭТ 1 ПОМ I КОМ 37А/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7779017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gos@fixi-com.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771458563021000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17714585630 21 000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 382 890,75 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГЛАВНОЕ БЮРО МЕДИКО-СОЦИАЛЬНОЙ ЭКСПЕРТИЗЫ ПО Г. МОСКВЕ" МИНИСТЕРСТВА ТРУДА И СОЦИАЛЬНОЙ ЗАЩИТЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ГБ МСЭ ПО Г. МОСКВЕ" МИНТРУДА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АВАНГАРД-13" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АВАНГАРД-13")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АВАНГАРД-13"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117623, Г МОСКВА 77, Ш ВАРШАВСКОЕ, ДОМ 1, СТРОЕНИЕ 1-2, ЭТ 6 КОМН 33 (РМЧ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-1093440-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13avan@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=177012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364322000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 22 000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 569 228,68 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САГАЙЛЮК АЛЕКСАНДР ГЕННАДИЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП САГАЙЛЮК АЛЕКСАНДР ГЕННАДИЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г КРАСНОГОРСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=177004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773310856920000695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17733108569 20 000695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 718,70 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.08.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛАБ-СТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛАБ-СТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЛАБ-СТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355000, КРАЙ СТАВРОПОЛЬСКИЙ 26, Г СТАВРОПОЛЬ, УЛ ОГОРОДНАЯ, ДОМ 2, КОРПУС В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8652-992965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lab.st26@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3501102935321000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35011029353 21 000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">648 373,55 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ "МИХАЛЕВСКИЙ КУЛЬТУРНО-ДОСУГОВЫЙ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУК "МИХАЛЕВСКИЙ КДЦ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МАКС-СТРОЙ" (ООО "МАКС-СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МАКС-СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140250, - МОСКОВСКАЯ 50, - Воскресенск, - Юрасово, - ЦЕНТРАЛЬНАЯ, Д. 39А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx67@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=176964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773323136119000340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17733231361 19 000340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 000 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.10.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.10.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.10.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СМАРТ ЭНЕРДЖИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СМАРТ ЭНЕРДЖИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СМАРТ ЭНЕРДЖИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115280, Г МОСКВА 77, УЛ АВТОЗАВОДСКАЯ, ДОМ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-565656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@se-inc.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=177086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772809483222000147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728094832 22 000147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 028 100,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КИМ МЕДИКАЛ" (ООО "КИМ МЕДИКАЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КИМ МЕДИКАЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">614065, КРАЙ ПЕРМСКИЙ 59, Г ПЕРМЬ, УЛ МИЛИЦИОНЕРА ВЛАСОВА, ДОМ 33, КВАРТИРА 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-922-3335893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office@kim-medical.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=177084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504004063321000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35040040633 21 000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 219,91 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГЖЕЛЬСКАЯ СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА С ИЗУЧЕНИЕМ ПРЕДМЕТОВ ХУДОЖЕСТВЕННО-ЭСТЕТИЧЕСКОГО ЦИКЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЖЕЛЬСКАЯ СРЕДНЯЯ ШКОЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "БАСТИОН+" (ООО ЧОП "БАСТИОН+")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧОП "БАСТИОН+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=177062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504401330221000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35044013302 21 000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">531 236,78 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СМВ ГРУПП" (ООО "СМВ ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СМВ ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124482, Г МОСКВА 77, Г ЗЕЛЕНОГРАД, КОРПУС 338Б, КВАРТИРА 133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-3777077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smvgrupp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=177061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504401330221000098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35044013302 21 000098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">386 666,81 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАХАРОВ МИХАИЛ ЕВГЕНЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЗАХАРОВ МИХАИЛ ЕВГЕНЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-4532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8674040@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -21113,10 +21680,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q770"/>
+  <dimension ref="A1:Q793"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A731" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A766" activeCellId="0" sqref="A766"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A758" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A789" activeCellId="0" sqref="A789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -58020,213 +58587,1238 @@
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="0" t="s">
+      <c r="A767" s="11" t="s">
         <v>6926</v>
       </c>
-      <c r="B767" s="0" t="s">
+      <c r="B767" s="11" t="s">
         <v>6927</v>
       </c>
-      <c r="C767" s="0" t="s">
+      <c r="C767" s="11" t="s">
         <v>6928</v>
       </c>
-      <c r="D767" s="0" t="s">
+      <c r="D767" s="11" t="s">
         <v>6929</v>
       </c>
-      <c r="E767" s="0" t="s">
+      <c r="E767" s="11" t="s">
         <v>3016</v>
       </c>
-      <c r="F767" s="0" t="s">
+      <c r="F767" s="11" t="s">
         <v>4642</v>
       </c>
-      <c r="G767" s="0" t="s">
+      <c r="G767" s="11" t="s">
         <v>2212</v>
       </c>
-      <c r="H767" s="0" t="s">
+      <c r="H767" s="11" t="s">
         <v>6175</v>
       </c>
-      <c r="I767" s="0" t="s">
+      <c r="I767" s="11" t="s">
         <v>6930</v>
       </c>
-      <c r="J767" s="0"/>
-      <c r="K767" s="0" t="n">
+      <c r="J767" s="11"/>
+      <c r="K767" s="11" t="n">
         <v>5001018070</v>
       </c>
-      <c r="L767" s="0" t="s">
+      <c r="L767" s="11" t="s">
         <v>6931</v>
       </c>
-      <c r="M767" s="0" t="s">
+      <c r="M767" s="11" t="s">
         <v>6932</v>
       </c>
-      <c r="N767" s="0" t="n">
+      <c r="N767" s="11" t="n">
         <v>5904383099</v>
       </c>
-      <c r="O767" s="0" t="s">
+      <c r="O767" s="11" t="s">
         <v>6933</v>
       </c>
-      <c r="P767" s="0" t="s">
+      <c r="P767" s="11" t="s">
         <v>6934</v>
       </c>
-      <c r="Q767" s="0" t="s">
+      <c r="Q767" s="11" t="s">
         <v>6935</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="0" t="s">
+      <c r="A768" s="11" t="s">
         <v>6936</v>
       </c>
-      <c r="B768" s="0" t="s">
+      <c r="B768" s="11" t="s">
         <v>6937</v>
       </c>
-      <c r="C768" s="0" t="s">
+      <c r="C768" s="11" t="s">
         <v>6938</v>
       </c>
-      <c r="D768" s="0" t="s">
+      <c r="D768" s="11" t="s">
         <v>6939</v>
       </c>
-      <c r="E768" s="0" t="s">
+      <c r="E768" s="11" t="s">
         <v>2186</v>
       </c>
-      <c r="F768" s="0" t="s">
+      <c r="F768" s="11" t="s">
         <v>4858</v>
       </c>
-      <c r="G768" s="0" t="s">
+      <c r="G768" s="11" t="s">
         <v>2186</v>
       </c>
-      <c r="H768" s="0" t="s">
+      <c r="H768" s="11" t="s">
         <v>2186</v>
       </c>
-      <c r="I768" s="0" t="s">
+      <c r="I768" s="11" t="s">
         <v>1231</v>
       </c>
-      <c r="J768" s="0" t="s">
+      <c r="J768" s="11" t="s">
         <v>1232</v>
       </c>
-      <c r="K768" s="0" t="n">
+      <c r="K768" s="11" t="n">
         <v>7703363868</v>
       </c>
-      <c r="L768" s="0" t="s">
+      <c r="L768" s="11" t="s">
         <v>6940</v>
       </c>
-      <c r="M768" s="0" t="s">
+      <c r="M768" s="11" t="s">
         <v>6941</v>
       </c>
-      <c r="N768" s="0" t="n">
+      <c r="N768" s="11" t="n">
         <v>632516117530</v>
       </c>
-      <c r="O768" s="0" t="s">
+      <c r="O768" s="11" t="s">
         <v>6942</v>
       </c>
-      <c r="P768" s="0" t="s">
+      <c r="P768" s="11" t="s">
         <v>6943</v>
       </c>
-      <c r="Q768" s="0" t="s">
+      <c r="Q768" s="11" t="s">
         <v>6944</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="0" t="s">
+      <c r="A769" s="11" t="s">
         <v>6945</v>
       </c>
-      <c r="B769" s="0" t="s">
+      <c r="B769" s="11" t="s">
         <v>6946</v>
       </c>
-      <c r="C769" s="0" t="s">
+      <c r="C769" s="11" t="s">
         <v>6947</v>
       </c>
-      <c r="D769" s="0" t="s">
+      <c r="D769" s="11" t="s">
         <v>6948</v>
       </c>
-      <c r="E769" s="0" t="s">
+      <c r="E769" s="11" t="s">
         <v>2119</v>
       </c>
-      <c r="F769" s="0" t="s">
+      <c r="F769" s="11" t="s">
         <v>2173</v>
       </c>
-      <c r="G769" s="0" t="s">
+      <c r="G769" s="11" t="s">
         <v>2128</v>
       </c>
-      <c r="H769" s="0" t="s">
+      <c r="H769" s="11" t="s">
         <v>6949</v>
       </c>
-      <c r="I769" s="0" t="s">
+      <c r="I769" s="11" t="s">
         <v>3271</v>
       </c>
-      <c r="J769" s="0" t="s">
+      <c r="J769" s="11" t="s">
         <v>3272</v>
       </c>
-      <c r="K769" s="0" t="n">
+      <c r="K769" s="11" t="n">
         <v>7727801856</v>
       </c>
-      <c r="L769" s="0" t="s">
+      <c r="L769" s="11" t="s">
         <v>6950</v>
       </c>
-      <c r="M769" s="0" t="s">
+      <c r="M769" s="11" t="s">
         <v>6951</v>
       </c>
-      <c r="N769" s="0" t="n">
+      <c r="N769" s="11" t="n">
         <v>332902822465</v>
       </c>
-      <c r="O769" s="0" t="s">
+      <c r="O769" s="11" t="s">
         <v>6952</v>
       </c>
-      <c r="P769" s="0" t="s">
+      <c r="P769" s="11" t="s">
         <v>3276</v>
       </c>
-      <c r="Q769" s="0" t="s">
+      <c r="Q769" s="11" t="s">
         <v>3277</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="0" t="s">
+      <c r="A770" s="11" t="s">
         <v>6953</v>
       </c>
-      <c r="B770" s="0" t="s">
+      <c r="B770" s="11" t="s">
         <v>6954</v>
       </c>
-      <c r="C770" s="0" t="s">
+      <c r="C770" s="11" t="s">
         <v>6955</v>
       </c>
-      <c r="D770" s="0" t="s">
+      <c r="D770" s="11" t="s">
         <v>6956</v>
       </c>
-      <c r="E770" s="0" t="s">
+      <c r="E770" s="11" t="s">
         <v>2065</v>
       </c>
-      <c r="F770" s="0" t="s">
+      <c r="F770" s="11" t="s">
         <v>4642</v>
       </c>
-      <c r="G770" s="0" t="s">
+      <c r="G770" s="11" t="s">
         <v>2066</v>
       </c>
-      <c r="H770" s="0" t="s">
+      <c r="H770" s="11" t="s">
         <v>6957</v>
       </c>
-      <c r="I770" s="0" t="s">
+      <c r="I770" s="11" t="s">
         <v>5655</v>
       </c>
-      <c r="J770" s="0" t="s">
+      <c r="J770" s="11" t="s">
         <v>5656</v>
       </c>
-      <c r="K770" s="0" t="n">
+      <c r="K770" s="11" t="n">
         <v>7710177774</v>
       </c>
-      <c r="L770" s="0" t="s">
+      <c r="L770" s="11" t="s">
         <v>6958</v>
       </c>
-      <c r="M770" s="0" t="s">
+      <c r="M770" s="11" t="s">
         <v>6959</v>
       </c>
-      <c r="N770" s="0" t="n">
+      <c r="N770" s="11" t="n">
         <v>3702258905</v>
       </c>
-      <c r="O770" s="0" t="s">
+      <c r="O770" s="11" t="s">
         <v>6960</v>
       </c>
-      <c r="P770" s="0" t="s">
+      <c r="P770" s="11" t="s">
         <v>6961</v>
       </c>
-      <c r="Q770" s="0" t="s">
+      <c r="Q770" s="11" t="s">
         <v>6962</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="1" t="n">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="11" t="s">
+        <v>6963</v>
+      </c>
+      <c r="B772" s="11" t="s">
+        <v>6964</v>
+      </c>
+      <c r="C772" s="11" t="s">
+        <v>6965</v>
+      </c>
+      <c r="D772" s="11" t="s">
+        <v>6966</v>
+      </c>
+      <c r="E772" s="11" t="s">
+        <v>2726</v>
+      </c>
+      <c r="F772" s="11" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G772" s="11" t="s">
+        <v>6967</v>
+      </c>
+      <c r="H772" s="11" t="s">
+        <v>2794</v>
+      </c>
+      <c r="I772" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J772" s="11"/>
+      <c r="K772" s="11" t="n">
+        <v>5041019754</v>
+      </c>
+      <c r="L772" s="11" t="s">
+        <v>6968</v>
+      </c>
+      <c r="M772" s="11" t="s">
+        <v>6969</v>
+      </c>
+      <c r="N772" s="11" t="n">
+        <v>5029184896</v>
+      </c>
+      <c r="O772" s="11" t="s">
+        <v>6970</v>
+      </c>
+      <c r="P772" s="11" t="s">
+        <v>6971</v>
+      </c>
+      <c r="Q772" s="11" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="11" t="s">
+        <v>6972</v>
+      </c>
+      <c r="B773" s="11" t="s">
+        <v>6973</v>
+      </c>
+      <c r="C773" s="11" t="s">
+        <v>6974</v>
+      </c>
+      <c r="D773" s="11" t="s">
+        <v>6975</v>
+      </c>
+      <c r="E773" s="11" t="s">
+        <v>4201</v>
+      </c>
+      <c r="F773" s="11" t="s">
+        <v>6976</v>
+      </c>
+      <c r="G773" s="11" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H773" s="11" t="s">
+        <v>4144</v>
+      </c>
+      <c r="I773" s="11" t="s">
+        <v>6977</v>
+      </c>
+      <c r="J773" s="11" t="s">
+        <v>6978</v>
+      </c>
+      <c r="K773" s="11" t="n">
+        <v>7734115270</v>
+      </c>
+      <c r="L773" s="11" t="s">
+        <v>6979</v>
+      </c>
+      <c r="M773" s="11" t="s">
+        <v>6980</v>
+      </c>
+      <c r="N773" s="11" t="n">
+        <v>7701085397</v>
+      </c>
+      <c r="O773" s="11" t="s">
+        <v>6981</v>
+      </c>
+      <c r="P773" s="11" t="s">
+        <v>6982</v>
+      </c>
+      <c r="Q773" s="11" t="s">
+        <v>6983</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="11" t="s">
+        <v>6984</v>
+      </c>
+      <c r="B774" s="11" t="s">
+        <v>6985</v>
+      </c>
+      <c r="C774" s="11" t="s">
+        <v>6986</v>
+      </c>
+      <c r="D774" s="11" t="s">
+        <v>6987</v>
+      </c>
+      <c r="E774" s="11" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F774" s="11" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G774" s="11" t="s">
+        <v>2395</v>
+      </c>
+      <c r="H774" s="11" t="s">
+        <v>6988</v>
+      </c>
+      <c r="I774" s="11" t="s">
+        <v>2174</v>
+      </c>
+      <c r="J774" s="11" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K774" s="11" t="n">
+        <v>5048050866</v>
+      </c>
+      <c r="L774" s="11" t="s">
+        <v>6989</v>
+      </c>
+      <c r="M774" s="11" t="s">
+        <v>6990</v>
+      </c>
+      <c r="N774" s="11" t="n">
+        <v>7726452747</v>
+      </c>
+      <c r="O774" s="11" t="s">
+        <v>6991</v>
+      </c>
+      <c r="P774" s="11" t="s">
+        <v>6992</v>
+      </c>
+      <c r="Q774" s="11" t="s">
+        <v>6993</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="11" t="s">
+        <v>6994</v>
+      </c>
+      <c r="B775" s="11" t="s">
+        <v>6995</v>
+      </c>
+      <c r="C775" s="11" t="s">
+        <v>6996</v>
+      </c>
+      <c r="D775" s="11" t="s">
+        <v>6997</v>
+      </c>
+      <c r="E775" s="11" t="s">
+        <v>3815</v>
+      </c>
+      <c r="F775" s="11" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G775" s="11" t="s">
+        <v>6635</v>
+      </c>
+      <c r="H775" s="11" t="s">
+        <v>6988</v>
+      </c>
+      <c r="I775" s="11" t="s">
+        <v>2807</v>
+      </c>
+      <c r="J775" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="K775" s="11" t="n">
+        <v>7705840379</v>
+      </c>
+      <c r="L775" s="11" t="s">
+        <v>6998</v>
+      </c>
+      <c r="M775" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="N775" s="11" t="n">
+        <v>6950204099</v>
+      </c>
+      <c r="O775" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P775" s="11" t="n">
+        <v>84822396013</v>
+      </c>
+      <c r="Q775" s="11" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="11" t="s">
+        <v>6999</v>
+      </c>
+      <c r="B776" s="11" t="s">
+        <v>7000</v>
+      </c>
+      <c r="C776" s="11" t="s">
+        <v>7001</v>
+      </c>
+      <c r="D776" s="11" t="s">
+        <v>7002</v>
+      </c>
+      <c r="E776" s="11" t="s">
+        <v>7003</v>
+      </c>
+      <c r="F776" s="11" t="s">
+        <v>7004</v>
+      </c>
+      <c r="G776" s="11" t="s">
+        <v>3826</v>
+      </c>
+      <c r="H776" s="11" t="s">
+        <v>3825</v>
+      </c>
+      <c r="I776" s="11" t="s">
+        <v>7005</v>
+      </c>
+      <c r="J776" s="11" t="s">
+        <v>7006</v>
+      </c>
+      <c r="K776" s="11" t="n">
+        <v>7708024386</v>
+      </c>
+      <c r="L776" s="11" t="s">
+        <v>7007</v>
+      </c>
+      <c r="M776" s="11" t="s">
+        <v>7008</v>
+      </c>
+      <c r="N776" s="11" t="n">
+        <v>7718875379</v>
+      </c>
+      <c r="O776" s="11" t="s">
+        <v>7009</v>
+      </c>
+      <c r="P776" s="11" t="s">
+        <v>7010</v>
+      </c>
+      <c r="Q776" s="11" t="s">
+        <v>7011</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="11" t="s">
+        <v>7012</v>
+      </c>
+      <c r="B777" s="11" t="s">
+        <v>7013</v>
+      </c>
+      <c r="C777" s="11" t="s">
+        <v>7014</v>
+      </c>
+      <c r="D777" s="11" t="s">
+        <v>7015</v>
+      </c>
+      <c r="E777" s="11" t="s">
+        <v>4541</v>
+      </c>
+      <c r="F777" s="11" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G777" s="11" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H777" s="11" t="s">
+        <v>4541</v>
+      </c>
+      <c r="I777" s="11" t="s">
+        <v>5903</v>
+      </c>
+      <c r="J777" s="11" t="s">
+        <v>5904</v>
+      </c>
+      <c r="K777" s="11" t="n">
+        <v>7703022730</v>
+      </c>
+      <c r="L777" s="11" t="s">
+        <v>7016</v>
+      </c>
+      <c r="M777" s="11" t="s">
+        <v>7017</v>
+      </c>
+      <c r="N777" s="11" t="n">
+        <v>7100006150</v>
+      </c>
+      <c r="O777" s="11" t="s">
+        <v>7018</v>
+      </c>
+      <c r="P777" s="11" t="s">
+        <v>7019</v>
+      </c>
+      <c r="Q777" s="11" t="s">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="11" t="s">
+        <v>7021</v>
+      </c>
+      <c r="B778" s="11" t="s">
+        <v>7022</v>
+      </c>
+      <c r="C778" s="11" t="s">
+        <v>7023</v>
+      </c>
+      <c r="D778" s="11" t="s">
+        <v>7024</v>
+      </c>
+      <c r="E778" s="11" t="s">
+        <v>7025</v>
+      </c>
+      <c r="F778" s="11" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G778" s="11" t="s">
+        <v>7026</v>
+      </c>
+      <c r="H778" s="11" t="s">
+        <v>6988</v>
+      </c>
+      <c r="I778" s="11" t="s">
+        <v>7027</v>
+      </c>
+      <c r="J778" s="11" t="s">
+        <v>7028</v>
+      </c>
+      <c r="K778" s="11" t="n">
+        <v>7701293580</v>
+      </c>
+      <c r="L778" s="11" t="s">
+        <v>7029</v>
+      </c>
+      <c r="M778" s="11" t="s">
+        <v>7030</v>
+      </c>
+      <c r="N778" s="11" t="n">
+        <v>7713396686</v>
+      </c>
+      <c r="O778" s="11" t="s">
+        <v>7031</v>
+      </c>
+      <c r="P778" s="11" t="s">
+        <v>7032</v>
+      </c>
+      <c r="Q778" s="11" t="s">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="1" t="n">
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="11" t="s">
+        <v>7034</v>
+      </c>
+      <c r="B780" s="11" t="s">
+        <v>7035</v>
+      </c>
+      <c r="C780" s="11" t="s">
+        <v>7036</v>
+      </c>
+      <c r="D780" s="11" t="s">
+        <v>7037</v>
+      </c>
+      <c r="E780" s="11" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F780" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G780" s="11" t="s">
+        <v>3949</v>
+      </c>
+      <c r="H780" s="11" t="s">
+        <v>7038</v>
+      </c>
+      <c r="I780" s="11" t="s">
+        <v>7039</v>
+      </c>
+      <c r="J780" s="11" t="s">
+        <v>7040</v>
+      </c>
+      <c r="K780" s="11" t="n">
+        <v>7709138322</v>
+      </c>
+      <c r="L780" s="11" t="s">
+        <v>7041</v>
+      </c>
+      <c r="M780" s="11" t="s">
+        <v>7042</v>
+      </c>
+      <c r="N780" s="11" t="n">
+        <v>773671648293</v>
+      </c>
+      <c r="O780" s="11" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P780" s="11" t="s">
+        <v>7043</v>
+      </c>
+      <c r="Q780" s="11" t="s">
+        <v>7044</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="11" t="s">
+        <v>7045</v>
+      </c>
+      <c r="B781" s="11" t="s">
+        <v>7046</v>
+      </c>
+      <c r="C781" s="11" t="s">
+        <v>7047</v>
+      </c>
+      <c r="D781" s="11" t="s">
+        <v>7048</v>
+      </c>
+      <c r="E781" s="11" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F781" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G781" s="11" t="s">
+        <v>2023</v>
+      </c>
+      <c r="H781" s="11" t="s">
+        <v>2023</v>
+      </c>
+      <c r="I781" s="11" t="s">
+        <v>7049</v>
+      </c>
+      <c r="J781" s="11" t="s">
+        <v>7049</v>
+      </c>
+      <c r="K781" s="11" t="n">
+        <v>5078001721</v>
+      </c>
+      <c r="L781" s="11" t="s">
+        <v>7050</v>
+      </c>
+      <c r="M781" s="11" t="s">
+        <v>7051</v>
+      </c>
+      <c r="N781" s="11" t="n">
+        <v>9701049811</v>
+      </c>
+      <c r="O781" s="11" t="s">
+        <v>7052</v>
+      </c>
+      <c r="P781" s="11" t="s">
+        <v>5855</v>
+      </c>
+      <c r="Q781" s="11" t="s">
+        <v>7053</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="11" t="s">
+        <v>7054</v>
+      </c>
+      <c r="B782" s="11" t="s">
+        <v>7055</v>
+      </c>
+      <c r="C782" s="11" t="s">
+        <v>7056</v>
+      </c>
+      <c r="D782" s="11" t="s">
+        <v>4701</v>
+      </c>
+      <c r="E782" s="11" t="s">
+        <v>6957</v>
+      </c>
+      <c r="F782" s="11" t="s">
+        <v>7057</v>
+      </c>
+      <c r="G782" s="11" t="s">
+        <v>3095</v>
+      </c>
+      <c r="H782" s="11" t="s">
+        <v>6911</v>
+      </c>
+      <c r="I782" s="11" t="s">
+        <v>7058</v>
+      </c>
+      <c r="J782" s="11" t="s">
+        <v>7058</v>
+      </c>
+      <c r="K782" s="11" t="n">
+        <v>7701985246</v>
+      </c>
+      <c r="L782" s="11" t="s">
+        <v>7059</v>
+      </c>
+      <c r="M782" s="11" t="s">
+        <v>7060</v>
+      </c>
+      <c r="N782" s="11" t="n">
+        <v>7704667562</v>
+      </c>
+      <c r="O782" s="11" t="s">
+        <v>7061</v>
+      </c>
+      <c r="P782" s="11" t="s">
+        <v>7062</v>
+      </c>
+      <c r="Q782" s="11" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="11" t="s">
+        <v>7064</v>
+      </c>
+      <c r="B783" s="11" t="s">
+        <v>7065</v>
+      </c>
+      <c r="C783" s="11" t="s">
+        <v>7066</v>
+      </c>
+      <c r="D783" s="11" t="s">
+        <v>7067</v>
+      </c>
+      <c r="E783" s="11" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F783" s="11" t="s">
+        <v>7068</v>
+      </c>
+      <c r="G783" s="11" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H783" s="11" t="s">
+        <v>3815</v>
+      </c>
+      <c r="I783" s="11" t="s">
+        <v>7069</v>
+      </c>
+      <c r="J783" s="11" t="s">
+        <v>7070</v>
+      </c>
+      <c r="K783" s="11" t="n">
+        <v>7714585630</v>
+      </c>
+      <c r="L783" s="11" t="s">
+        <v>7071</v>
+      </c>
+      <c r="M783" s="11" t="s">
+        <v>7072</v>
+      </c>
+      <c r="N783" s="11" t="n">
+        <v>7726418023</v>
+      </c>
+      <c r="O783" s="11" t="s">
+        <v>7073</v>
+      </c>
+      <c r="P783" s="11" t="s">
+        <v>7074</v>
+      </c>
+      <c r="Q783" s="11" t="s">
+        <v>7075</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="1" t="n">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="11" t="s">
+        <v>7076</v>
+      </c>
+      <c r="B785" s="11" t="s">
+        <v>7077</v>
+      </c>
+      <c r="C785" s="11" t="s">
+        <v>7078</v>
+      </c>
+      <c r="D785" s="11" t="s">
+        <v>7079</v>
+      </c>
+      <c r="E785" s="11" t="s">
+        <v>6967</v>
+      </c>
+      <c r="F785" s="11" t="s">
+        <v>6379</v>
+      </c>
+      <c r="G785" s="11" t="s">
+        <v>7080</v>
+      </c>
+      <c r="H785" s="11" t="s">
+        <v>6730</v>
+      </c>
+      <c r="I785" s="11" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J785" s="11" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K785" s="11" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L785" s="11" t="s">
+        <v>7081</v>
+      </c>
+      <c r="M785" s="11" t="s">
+        <v>7082</v>
+      </c>
+      <c r="N785" s="11" t="n">
+        <v>502407249863</v>
+      </c>
+      <c r="O785" s="11" t="s">
+        <v>7083</v>
+      </c>
+      <c r="P785" s="11" t="s">
+        <v>2740</v>
+      </c>
+      <c r="Q785" s="11" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="11" t="s">
+        <v>7084</v>
+      </c>
+      <c r="B786" s="11" t="s">
+        <v>7085</v>
+      </c>
+      <c r="C786" s="11" t="s">
+        <v>7086</v>
+      </c>
+      <c r="D786" s="11" t="s">
+        <v>7087</v>
+      </c>
+      <c r="E786" s="11" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F786" s="11" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G786" s="11" t="s">
+        <v>7088</v>
+      </c>
+      <c r="H786" s="11" t="s">
+        <v>6967</v>
+      </c>
+      <c r="I786" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J786" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K786" s="11" t="n">
+        <v>7733108569</v>
+      </c>
+      <c r="L786" s="11" t="s">
+        <v>7089</v>
+      </c>
+      <c r="M786" s="11" t="s">
+        <v>7090</v>
+      </c>
+      <c r="N786" s="11" t="n">
+        <v>2636209450</v>
+      </c>
+      <c r="O786" s="11" t="s">
+        <v>7091</v>
+      </c>
+      <c r="P786" s="11" t="s">
+        <v>7092</v>
+      </c>
+      <c r="Q786" s="11" t="s">
+        <v>7093</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="11" t="s">
+        <v>7094</v>
+      </c>
+      <c r="B787" s="11" t="s">
+        <v>7095</v>
+      </c>
+      <c r="C787" s="11" t="s">
+        <v>7096</v>
+      </c>
+      <c r="D787" s="11" t="s">
+        <v>7097</v>
+      </c>
+      <c r="E787" s="11" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F787" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G787" s="11" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H787" s="11" t="s">
+        <v>7098</v>
+      </c>
+      <c r="I787" s="11" t="s">
+        <v>7099</v>
+      </c>
+      <c r="J787" s="11" t="s">
+        <v>7100</v>
+      </c>
+      <c r="K787" s="11" t="n">
+        <v>5011029353</v>
+      </c>
+      <c r="L787" s="11" t="s">
+        <v>7101</v>
+      </c>
+      <c r="M787" s="11" t="s">
+        <v>7102</v>
+      </c>
+      <c r="N787" s="11" t="n">
+        <v>5005058444</v>
+      </c>
+      <c r="O787" s="11" t="s">
+        <v>7103</v>
+      </c>
+      <c r="P787" s="11" t="s">
+        <v>5855</v>
+      </c>
+      <c r="Q787" s="11" t="s">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="11" t="s">
+        <v>7105</v>
+      </c>
+      <c r="B788" s="11" t="s">
+        <v>7106</v>
+      </c>
+      <c r="C788" s="11" t="s">
+        <v>7107</v>
+      </c>
+      <c r="D788" s="11" t="s">
+        <v>7108</v>
+      </c>
+      <c r="E788" s="11" t="s">
+        <v>7109</v>
+      </c>
+      <c r="F788" s="11" t="s">
+        <v>7110</v>
+      </c>
+      <c r="G788" s="11" t="s">
+        <v>7111</v>
+      </c>
+      <c r="H788" s="11" t="s">
+        <v>7112</v>
+      </c>
+      <c r="I788" s="11" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J788" s="11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K788" s="11" t="n">
+        <v>7733231361</v>
+      </c>
+      <c r="L788" s="11" t="s">
+        <v>7113</v>
+      </c>
+      <c r="M788" s="11" t="s">
+        <v>7114</v>
+      </c>
+      <c r="N788" s="11" t="n">
+        <v>7725356367</v>
+      </c>
+      <c r="O788" s="11" t="s">
+        <v>7115</v>
+      </c>
+      <c r="P788" s="11" t="s">
+        <v>7116</v>
+      </c>
+      <c r="Q788" s="11" t="s">
+        <v>7117</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="1" t="n">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="0" t="s">
+        <v>7118</v>
+      </c>
+      <c r="B790" s="0" t="s">
+        <v>7119</v>
+      </c>
+      <c r="C790" s="0" t="s">
+        <v>7120</v>
+      </c>
+      <c r="D790" s="0" t="s">
+        <v>7121</v>
+      </c>
+      <c r="E790" s="0" t="s">
+        <v>4144</v>
+      </c>
+      <c r="F790" s="0" t="s">
+        <v>6301</v>
+      </c>
+      <c r="G790" s="0" t="s">
+        <v>6016</v>
+      </c>
+      <c r="H790" s="0" t="s">
+        <v>3869</v>
+      </c>
+      <c r="I790" s="0" t="s">
+        <v>6302</v>
+      </c>
+      <c r="J790" s="0" t="s">
+        <v>6303</v>
+      </c>
+      <c r="K790" s="0" t="n">
+        <v>7728094832</v>
+      </c>
+      <c r="L790" s="0" t="s">
+        <v>7122</v>
+      </c>
+      <c r="M790" s="0" t="s">
+        <v>7123</v>
+      </c>
+      <c r="N790" s="0" t="n">
+        <v>5905058180</v>
+      </c>
+      <c r="O790" s="0" t="s">
+        <v>7124</v>
+      </c>
+      <c r="P790" s="0" t="s">
+        <v>7125</v>
+      </c>
+      <c r="Q790" s="0" t="s">
+        <v>7126</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="0" t="s">
+        <v>7127</v>
+      </c>
+      <c r="B791" s="0" t="s">
+        <v>7128</v>
+      </c>
+      <c r="C791" s="0" t="s">
+        <v>7129</v>
+      </c>
+      <c r="D791" s="0" t="s">
+        <v>7130</v>
+      </c>
+      <c r="E791" s="0" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F791" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G791" s="0" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H791" s="0" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I791" s="0" t="s">
+        <v>7131</v>
+      </c>
+      <c r="J791" s="0" t="s">
+        <v>7132</v>
+      </c>
+      <c r="K791" s="0" t="n">
+        <v>5040040633</v>
+      </c>
+      <c r="L791" s="0" t="s">
+        <v>7133</v>
+      </c>
+      <c r="M791" s="0" t="s">
+        <v>7134</v>
+      </c>
+      <c r="N791" s="0" t="n">
+        <v>5019021243</v>
+      </c>
+      <c r="O791" s="0" t="s">
+        <v>4861</v>
+      </c>
+      <c r="P791" s="0" t="s">
+        <v>3843</v>
+      </c>
+      <c r="Q791" s="0" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="0" t="s">
+        <v>7135</v>
+      </c>
+      <c r="B792" s="0" t="s">
+        <v>7136</v>
+      </c>
+      <c r="C792" s="0" t="s">
+        <v>7137</v>
+      </c>
+      <c r="D792" s="0" t="s">
+        <v>7138</v>
+      </c>
+      <c r="E792" s="0" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F792" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G792" s="0" t="s">
+        <v>2795</v>
+      </c>
+      <c r="H792" s="0" t="s">
+        <v>2429</v>
+      </c>
+      <c r="I792" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J792" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K792" s="0" t="n">
+        <v>5044013302</v>
+      </c>
+      <c r="L792" s="0" t="s">
+        <v>7139</v>
+      </c>
+      <c r="M792" s="0" t="s">
+        <v>7140</v>
+      </c>
+      <c r="N792" s="0" t="n">
+        <v>7735189274</v>
+      </c>
+      <c r="O792" s="0" t="s">
+        <v>7141</v>
+      </c>
+      <c r="P792" s="0" t="s">
+        <v>7142</v>
+      </c>
+      <c r="Q792" s="0" t="s">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="0" t="s">
+        <v>7144</v>
+      </c>
+      <c r="B793" s="0" t="s">
+        <v>7145</v>
+      </c>
+      <c r="C793" s="0" t="s">
+        <v>7146</v>
+      </c>
+      <c r="D793" s="0" t="s">
+        <v>7147</v>
+      </c>
+      <c r="E793" s="0" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F793" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G793" s="0" t="s">
+        <v>2795</v>
+      </c>
+      <c r="H793" s="0" t="s">
+        <v>2429</v>
+      </c>
+      <c r="I793" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J793" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K793" s="0" t="n">
+        <v>5044013302</v>
+      </c>
+      <c r="L793" s="0" t="s">
+        <v>7148</v>
+      </c>
+      <c r="M793" s="0" t="s">
+        <v>7149</v>
+      </c>
+      <c r="N793" s="0" t="n">
+        <v>773565012080</v>
+      </c>
+      <c r="O793" s="0" t="s">
+        <v>5113</v>
+      </c>
+      <c r="P793" s="0" t="s">
+        <v>7150</v>
+      </c>
+      <c r="Q793" s="0" t="s">
+        <v>7151</v>
       </c>
     </row>
   </sheetData>
